--- a/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.942277446298805</v>
+        <v>5.94227744629886</v>
       </c>
       <c r="D2">
-        <v>4.105159129388804</v>
+        <v>4.105159129388735</v>
       </c>
       <c r="E2">
         <v>18.29637465457008</v>
       </c>
       <c r="F2">
-        <v>30.90373263503582</v>
+        <v>30.90373263503575</v>
       </c>
       <c r="G2">
-        <v>24.00511909392691</v>
+        <v>24.00511909392683</v>
       </c>
       <c r="H2">
-        <v>24.03382004279388</v>
+        <v>24.0338200427938</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>100.8032285087045</v>
       </c>
       <c r="K2">
-        <v>13.24064667773713</v>
+        <v>13.2406466777371</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.513409442220853</v>
+        <v>5.513409442220885</v>
       </c>
       <c r="D3">
-        <v>3.553020292135431</v>
+        <v>3.553020292135237</v>
       </c>
       <c r="E3">
-        <v>16.815788333261</v>
+        <v>16.81578833326099</v>
       </c>
       <c r="F3">
-        <v>27.5029565959323</v>
+        <v>27.50295659593242</v>
       </c>
       <c r="G3">
-        <v>21.21225543260161</v>
+        <v>21.21225543260168</v>
       </c>
       <c r="H3">
-        <v>21.37163320249339</v>
+        <v>21.37163320249344</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>93.33590165054036</v>
+        <v>93.33590165054038</v>
       </c>
       <c r="K3">
-        <v>12.15290748436961</v>
+        <v>12.15290748436968</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.243229233041519</v>
+        <v>5.243229233041573</v>
       </c>
       <c r="D4">
-        <v>3.224138002944392</v>
+        <v>3.224138002944585</v>
       </c>
       <c r="E4">
-        <v>15.88653864562579</v>
+        <v>15.88653864562581</v>
       </c>
       <c r="F4">
-        <v>25.47954862861006</v>
+        <v>25.47954862861012</v>
       </c>
       <c r="G4">
-        <v>19.54787872514632</v>
+        <v>19.54787872514643</v>
       </c>
       <c r="H4">
-        <v>19.77649208539452</v>
+        <v>19.7764920853946</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>88.58538992564236</v>
+        <v>88.5853899256424</v>
       </c>
       <c r="K4">
         <v>11.47418622808595</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.131134080959812</v>
+        <v>5.131134080959921</v>
       </c>
       <c r="D5">
-        <v>3.091871917015712</v>
+        <v>3.091871917015458</v>
       </c>
       <c r="E5">
-        <v>15.50168714115152</v>
+        <v>15.50168714115147</v>
       </c>
       <c r="F5">
-        <v>24.66825720215752</v>
+        <v>24.66825720215716</v>
       </c>
       <c r="G5">
-        <v>18.87968094945746</v>
+        <v>18.87968094945705</v>
       </c>
       <c r="H5">
-        <v>19.13381371291788</v>
+        <v>19.13381371291749</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>86.60395807098062</v>
+        <v>86.6039580709804</v>
       </c>
       <c r="K5">
-        <v>11.19395658971047</v>
+        <v>11.19395658971045</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.112393525415324</v>
+        <v>5.112393525415292</v>
       </c>
       <c r="D6">
-        <v>3.069995325482789</v>
+        <v>3.069995325482718</v>
       </c>
       <c r="E6">
-        <v>15.43738187455147</v>
+        <v>15.4373818745514</v>
       </c>
       <c r="F6">
-        <v>24.53427813939382</v>
+        <v>24.53427813939354</v>
       </c>
       <c r="G6">
-        <v>18.7692751591905</v>
+        <v>18.76927515919024</v>
       </c>
       <c r="H6">
-        <v>19.02748258334931</v>
+        <v>19.02748258334906</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>86.27208980819027</v>
+        <v>86.27208980819006</v>
       </c>
       <c r="K6">
-        <v>11.14718126565696</v>
+        <v>11.14718126565693</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.241725868191127</v>
+        <v>5.241725868191119</v>
       </c>
       <c r="D7">
-        <v>3.222348028728005</v>
+        <v>3.22234802872793</v>
       </c>
       <c r="E7">
-        <v>15.88137469890029</v>
+        <v>15.8813746989003</v>
       </c>
       <c r="F7">
-        <v>25.46855668672097</v>
+        <v>25.468556686721</v>
       </c>
       <c r="G7">
-        <v>19.53882927606793</v>
+        <v>19.53882927606798</v>
       </c>
       <c r="H7">
-        <v>19.76779769812457</v>
+        <v>19.7677976981246</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>88.55885678016652</v>
+        <v>88.55885678016642</v>
       </c>
       <c r="K7">
-        <v>11.4704227860241</v>
+        <v>11.47042278602411</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.795641667923229</v>
+        <v>5.795641667923308</v>
       </c>
       <c r="D8">
-        <v>3.912141978897806</v>
+        <v>3.91214197889787</v>
       </c>
       <c r="E8">
         <v>17.78930827918837</v>
       </c>
       <c r="F8">
-        <v>29.71552021590187</v>
+        <v>29.71552021590196</v>
       </c>
       <c r="G8">
-        <v>23.02975618823111</v>
+        <v>23.02975618823119</v>
       </c>
       <c r="H8">
-        <v>23.10587722296453</v>
+        <v>23.1058772229646</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>98.26022817658313</v>
+        <v>98.26022817658315</v>
       </c>
       <c r="K8">
-        <v>12.86722445509737</v>
+        <v>12.86722445509739</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.844324581161781</v>
+        <v>6.84432458116166</v>
       </c>
       <c r="D9">
-        <v>5.394119421718175</v>
+        <v>5.39411942171824</v>
       </c>
       <c r="E9">
-        <v>21.43836566020786</v>
+        <v>21.43836566020785</v>
       </c>
       <c r="F9">
-        <v>38.77450474032568</v>
+        <v>38.77450474032565</v>
       </c>
       <c r="G9">
-        <v>30.462363730709</v>
+        <v>30.46236373070899</v>
       </c>
       <c r="H9">
-        <v>30.14115835644858</v>
+        <v>30.1411583564486</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>116.2048029055713</v>
       </c>
       <c r="K9">
-        <v>15.5767420234494</v>
+        <v>15.57674202344938</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.627583116189794</v>
+        <v>7.627583116189787</v>
       </c>
       <c r="D10">
-        <v>6.665917763890264</v>
+        <v>6.665917763890258</v>
       </c>
       <c r="E10">
-        <v>24.20640554118615</v>
+        <v>24.20640554118608</v>
       </c>
       <c r="F10">
-        <v>46.38204894447107</v>
+        <v>46.38204894447056</v>
       </c>
       <c r="G10">
-        <v>36.70907093947332</v>
+        <v>36.7090709394729</v>
       </c>
       <c r="H10">
-        <v>36.0069359380628</v>
+        <v>36.00693593806242</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>129.2091676258692</v>
+        <v>129.2091676258685</v>
       </c>
       <c r="K10">
-        <v>17.66963932358761</v>
+        <v>17.6696393235876</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.001357327906785</v>
+        <v>8.001357327906751</v>
       </c>
       <c r="D11">
-        <v>7.327609120776957</v>
+        <v>7.327609120777022</v>
       </c>
       <c r="E11">
-        <v>25.54434264594296</v>
+        <v>25.54434264594301</v>
       </c>
       <c r="F11">
-        <v>50.27094128717896</v>
+        <v>50.27094128717919</v>
       </c>
       <c r="G11">
-        <v>39.90700950872197</v>
+        <v>39.90700950872215</v>
       </c>
       <c r="H11">
-        <v>38.99818814899411</v>
+        <v>38.99818814899432</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>135.2776917536816</v>
+        <v>135.2776917536818</v>
       </c>
       <c r="K11">
-        <v>18.69428450693701</v>
+        <v>18.694284506937</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.147688506815468</v>
+        <v>8.147688506815355</v>
       </c>
       <c r="D12">
         <v>7.596957636020475</v>
       </c>
       <c r="E12">
-        <v>26.07176164980275</v>
+        <v>26.07176164980276</v>
       </c>
       <c r="F12">
-        <v>51.84041867604794</v>
+        <v>51.84041867604774</v>
       </c>
       <c r="G12">
-        <v>41.19870293781189</v>
+        <v>41.19870293781178</v>
       </c>
       <c r="H12">
-        <v>40.20452364958339</v>
+        <v>40.20452364958331</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>137.6269883338678</v>
+        <v>137.6269883338679</v>
       </c>
       <c r="K12">
-        <v>19.10070786563345</v>
+        <v>19.10070786563342</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.11590660413404</v>
+        <v>8.115906604133984</v>
       </c>
       <c r="D13">
-        <v>7.537951264257129</v>
+        <v>7.537951264257062</v>
       </c>
       <c r="E13">
         <v>25.95702335012157</v>
       </c>
       <c r="F13">
-        <v>51.49725711938934</v>
+        <v>51.49725711938956</v>
       </c>
       <c r="G13">
-        <v>40.91622319065237</v>
+        <v>40.91622319065252</v>
       </c>
       <c r="H13">
-        <v>39.94079726516369</v>
+        <v>39.94079726516382</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>137.1180572321599</v>
+        <v>137.11805723216</v>
       </c>
       <c r="K13">
-        <v>19.01216797678187</v>
+        <v>19.01216797678189</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.013281395280099</v>
+        <v>8.013281395280098</v>
       </c>
       <c r="D14">
-        <v>7.349335974482423</v>
+        <v>7.349335974482424</v>
       </c>
       <c r="E14">
-        <v>25.58723929779202</v>
+        <v>25.58723929779203</v>
       </c>
       <c r="F14">
-        <v>50.39783114117748</v>
+        <v>50.39783114117762</v>
       </c>
       <c r="G14">
-        <v>40.01141728959269</v>
+        <v>40.01141728959279</v>
       </c>
       <c r="H14">
-        <v>39.09573453793385</v>
+        <v>39.09573453793395</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>135.4697033811509</v>
+        <v>135.4697033811511</v>
       </c>
       <c r="K14">
         <v>18.72728616271224</v>
@@ -915,16 +915,16 @@
         <v>7.236530859426929</v>
       </c>
       <c r="E15">
-        <v>25.3638318880982</v>
+        <v>25.36383188809824</v>
       </c>
       <c r="F15">
-        <v>49.73846973973322</v>
+        <v>49.73846973973353</v>
       </c>
       <c r="G15">
-        <v>39.46892480766216</v>
+        <v>39.46892480766241</v>
       </c>
       <c r="H15">
-        <v>38.58881824808449</v>
+        <v>38.58881824808471</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>134.4679132633828</v>
       </c>
       <c r="K15">
-        <v>18.55551599886912</v>
+        <v>18.55551599886915</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.603671465264236</v>
+        <v>7.603671465264221</v>
       </c>
       <c r="D16">
-        <v>6.624836794521278</v>
+        <v>6.624836794521478</v>
       </c>
       <c r="E16">
-        <v>24.1212283561506</v>
+        <v>24.12122835615062</v>
       </c>
       <c r="F16">
-        <v>46.13903987616113</v>
+        <v>46.13903987616131</v>
       </c>
       <c r="G16">
-        <v>36.50935680111477</v>
+        <v>36.50935680111494</v>
       </c>
       <c r="H16">
-        <v>35.81989391880609</v>
+        <v>35.81989391880627</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>128.8177641671278</v>
       </c>
       <c r="K16">
-        <v>17.60470683185159</v>
+        <v>17.60470683185167</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.396213978934253</v>
+        <v>7.39621397893413</v>
       </c>
       <c r="D17">
-        <v>6.274534957697335</v>
+        <v>6.274534957697006</v>
       </c>
       <c r="E17">
         <v>23.38414632880917</v>
       </c>
       <c r="F17">
-        <v>44.05941736913168</v>
+        <v>44.05941736913149</v>
       </c>
       <c r="G17">
-        <v>34.80076899991935</v>
+        <v>34.80076899991909</v>
       </c>
       <c r="H17">
-        <v>34.21848888368486</v>
+        <v>34.21848888368468</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>125.4065934295576</v>
+        <v>125.4065934295573</v>
       </c>
       <c r="K17">
-        <v>17.04426152991737</v>
+        <v>17.04426152991735</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.278347202567126</v>
+        <v>7.278347202567216</v>
       </c>
       <c r="D18">
-        <v>6.080315756517897</v>
+        <v>6.0803157565179</v>
       </c>
       <c r="E18">
-        <v>22.96683053548922</v>
+        <v>22.9668305354892</v>
       </c>
       <c r="F18">
-        <v>42.90066728807735</v>
+        <v>42.90066728807714</v>
       </c>
       <c r="G18">
-        <v>33.84914055134587</v>
+        <v>33.84914055134573</v>
       </c>
       <c r="H18">
-        <v>33.32555514288417</v>
+        <v>33.32555514288401</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>123.4565673580795</v>
+        <v>123.4565673580796</v>
       </c>
       <c r="K18">
         <v>16.72808278761283</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.238640839730697</v>
+        <v>7.238640839730691</v>
       </c>
       <c r="D19">
-        <v>6.015658663560724</v>
+        <v>6.015658663560786</v>
       </c>
       <c r="E19">
-        <v>22.82647328372605</v>
+        <v>22.82647328372607</v>
       </c>
       <c r="F19">
-        <v>42.51400736671611</v>
+        <v>42.51400736671619</v>
       </c>
       <c r="G19">
-        <v>33.53165104257376</v>
+        <v>33.53165104257381</v>
       </c>
       <c r="H19">
-        <v>33.02747962259608</v>
+        <v>33.02747962259613</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>122.7977467407173</v>
+        <v>122.7977467407172</v>
       </c>
       <c r="K19">
-        <v>16.62192132814085</v>
+        <v>16.62192132814091</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.418135109628225</v>
+        <v>7.418135109628311</v>
       </c>
       <c r="D20">
-        <v>6.31103682514936</v>
+        <v>6.31103682514942</v>
       </c>
       <c r="E20">
-        <v>23.46187307441078</v>
+        <v>23.46187307441087</v>
       </c>
       <c r="F20">
-        <v>44.27673886295418</v>
+        <v>44.27673886295482</v>
       </c>
       <c r="G20">
-        <v>34.97927469359428</v>
+        <v>34.97927469359479</v>
       </c>
       <c r="H20">
-        <v>34.38590263573479</v>
+        <v>34.38590263573525</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>125.7683190814261</v>
+        <v>125.7683190814262</v>
       </c>
       <c r="K20">
-        <v>17.10324044996043</v>
+        <v>17.10324044996053</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.043268894667992</v>
+        <v>8.043268894668046</v>
       </c>
       <c r="D21">
-        <v>7.404148899510604</v>
+        <v>7.404148899510607</v>
       </c>
       <c r="E21">
-        <v>25.69518134104172</v>
+        <v>25.69518134104188</v>
       </c>
       <c r="F21">
-        <v>50.71772567054277</v>
+        <v>50.71772567054338</v>
       </c>
       <c r="G21">
-        <v>40.27465191582816</v>
+        <v>40.27465191582867</v>
       </c>
       <c r="H21">
-        <v>39.3416399615524</v>
+        <v>39.34163996155281</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>135.9521408862907</v>
+        <v>135.9521408862912</v>
       </c>
       <c r="K21">
-        <v>18.81037124111103</v>
+        <v>18.81037124111118</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.482293159590828</v>
+        <v>8.482293159590853</v>
       </c>
       <c r="D22">
-        <v>8.235725294452806</v>
+        <v>8.235725294452813</v>
       </c>
       <c r="E22">
-        <v>27.2866044740862</v>
+        <v>27.28660447408634</v>
       </c>
       <c r="F22">
-        <v>55.53164706617104</v>
+        <v>55.53164706617154</v>
       </c>
       <c r="G22">
-        <v>44.23920832531987</v>
+        <v>44.23920832532031</v>
       </c>
       <c r="H22">
-        <v>43.04029104796869</v>
+        <v>43.04029104796908</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>142.9390063725716</v>
+        <v>142.9390063725725</v>
       </c>
       <c r="K22">
-        <v>20.04249908908015</v>
+        <v>20.04249908908025</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.243936190944613</v>
+        <v>8.243936190944567</v>
       </c>
       <c r="D23">
         <v>7.777388904007548</v>
       </c>
       <c r="E23">
-        <v>26.41989354790582</v>
+        <v>26.4198935479059</v>
       </c>
       <c r="F23">
-        <v>52.88744393312449</v>
+        <v>52.88744393312499</v>
       </c>
       <c r="G23">
-        <v>42.06077393369652</v>
+        <v>42.06077393369689</v>
       </c>
       <c r="H23">
-        <v>41.00907296217599</v>
+        <v>41.00907296217633</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>139.1636827473952</v>
+        <v>139.1636827473953</v>
       </c>
       <c r="K23">
-        <v>19.36977708004875</v>
+        <v>19.36977708004883</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.408220342222973</v>
+        <v>7.408220342222847</v>
       </c>
       <c r="D24">
-        <v>6.294512423159484</v>
+        <v>6.294512423159422</v>
       </c>
       <c r="E24">
         <v>23.42671335026151</v>
       </c>
       <c r="F24">
-        <v>44.17837528725511</v>
+        <v>44.1783752872548</v>
       </c>
       <c r="G24">
-        <v>34.89847865462629</v>
+        <v>34.89847865462601</v>
       </c>
       <c r="H24">
-        <v>34.31013023140552</v>
+        <v>34.31013023140528</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.561781636665081</v>
+        <v>6.561781636665098</v>
       </c>
       <c r="D25">
-        <v>4.971036808798781</v>
+        <v>4.971036808798914</v>
       </c>
       <c r="E25">
-        <v>20.44961194907892</v>
+        <v>20.44961194907896</v>
       </c>
       <c r="F25">
-        <v>36.20659068134983</v>
+        <v>36.20659068135017</v>
       </c>
       <c r="G25">
-        <v>28.35563087616685</v>
+        <v>28.35563087616715</v>
       </c>
       <c r="H25">
-        <v>28.15446329857147</v>
+        <v>28.15446329857176</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>111.4268166465124</v>
+        <v>111.4268166465127</v>
       </c>
       <c r="K25">
-        <v>14.83731142714459</v>
+        <v>14.8373114271446</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.94227744629886</v>
+        <v>5.942277446298805</v>
       </c>
       <c r="D2">
-        <v>4.105159129388735</v>
+        <v>4.105159129388804</v>
       </c>
       <c r="E2">
         <v>18.29637465457008</v>
       </c>
       <c r="F2">
-        <v>30.90373263503575</v>
+        <v>30.90373263503582</v>
       </c>
       <c r="G2">
-        <v>24.00511909392683</v>
+        <v>24.00511909392691</v>
       </c>
       <c r="H2">
-        <v>24.0338200427938</v>
+        <v>24.03382004279388</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>100.8032285087045</v>
       </c>
       <c r="K2">
-        <v>13.2406466777371</v>
+        <v>13.24064667773713</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.513409442220885</v>
+        <v>5.513409442220853</v>
       </c>
       <c r="D3">
-        <v>3.553020292135237</v>
+        <v>3.553020292135431</v>
       </c>
       <c r="E3">
-        <v>16.81578833326099</v>
+        <v>16.815788333261</v>
       </c>
       <c r="F3">
-        <v>27.50295659593242</v>
+        <v>27.5029565959323</v>
       </c>
       <c r="G3">
-        <v>21.21225543260168</v>
+        <v>21.21225543260161</v>
       </c>
       <c r="H3">
-        <v>21.37163320249344</v>
+        <v>21.37163320249339</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>93.33590165054038</v>
+        <v>93.33590165054036</v>
       </c>
       <c r="K3">
-        <v>12.15290748436968</v>
+        <v>12.15290748436961</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.243229233041573</v>
+        <v>5.243229233041519</v>
       </c>
       <c r="D4">
-        <v>3.224138002944585</v>
+        <v>3.224138002944392</v>
       </c>
       <c r="E4">
-        <v>15.88653864562581</v>
+        <v>15.88653864562579</v>
       </c>
       <c r="F4">
-        <v>25.47954862861012</v>
+        <v>25.47954862861006</v>
       </c>
       <c r="G4">
-        <v>19.54787872514643</v>
+        <v>19.54787872514632</v>
       </c>
       <c r="H4">
-        <v>19.7764920853946</v>
+        <v>19.77649208539452</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>88.5853899256424</v>
+        <v>88.58538992564236</v>
       </c>
       <c r="K4">
         <v>11.47418622808595</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.131134080959921</v>
+        <v>5.131134080959812</v>
       </c>
       <c r="D5">
-        <v>3.091871917015458</v>
+        <v>3.091871917015712</v>
       </c>
       <c r="E5">
-        <v>15.50168714115147</v>
+        <v>15.50168714115152</v>
       </c>
       <c r="F5">
-        <v>24.66825720215716</v>
+        <v>24.66825720215752</v>
       </c>
       <c r="G5">
-        <v>18.87968094945705</v>
+        <v>18.87968094945746</v>
       </c>
       <c r="H5">
-        <v>19.13381371291749</v>
+        <v>19.13381371291788</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>86.6039580709804</v>
+        <v>86.60395807098062</v>
       </c>
       <c r="K5">
-        <v>11.19395658971045</v>
+        <v>11.19395658971047</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.112393525415292</v>
+        <v>5.112393525415324</v>
       </c>
       <c r="D6">
-        <v>3.069995325482718</v>
+        <v>3.069995325482789</v>
       </c>
       <c r="E6">
-        <v>15.4373818745514</v>
+        <v>15.43738187455147</v>
       </c>
       <c r="F6">
-        <v>24.53427813939354</v>
+        <v>24.53427813939382</v>
       </c>
       <c r="G6">
-        <v>18.76927515919024</v>
+        <v>18.7692751591905</v>
       </c>
       <c r="H6">
-        <v>19.02748258334906</v>
+        <v>19.02748258334931</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>86.27208980819006</v>
+        <v>86.27208980819027</v>
       </c>
       <c r="K6">
-        <v>11.14718126565693</v>
+        <v>11.14718126565696</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.241725868191119</v>
+        <v>5.241725868191127</v>
       </c>
       <c r="D7">
-        <v>3.22234802872793</v>
+        <v>3.222348028728005</v>
       </c>
       <c r="E7">
-        <v>15.8813746989003</v>
+        <v>15.88137469890029</v>
       </c>
       <c r="F7">
-        <v>25.468556686721</v>
+        <v>25.46855668672097</v>
       </c>
       <c r="G7">
-        <v>19.53882927606798</v>
+        <v>19.53882927606793</v>
       </c>
       <c r="H7">
-        <v>19.7677976981246</v>
+        <v>19.76779769812457</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>88.55885678016642</v>
+        <v>88.55885678016652</v>
       </c>
       <c r="K7">
-        <v>11.47042278602411</v>
+        <v>11.4704227860241</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.795641667923308</v>
+        <v>5.795641667923229</v>
       </c>
       <c r="D8">
-        <v>3.91214197889787</v>
+        <v>3.912141978897806</v>
       </c>
       <c r="E8">
         <v>17.78930827918837</v>
       </c>
       <c r="F8">
-        <v>29.71552021590196</v>
+        <v>29.71552021590187</v>
       </c>
       <c r="G8">
-        <v>23.02975618823119</v>
+        <v>23.02975618823111</v>
       </c>
       <c r="H8">
-        <v>23.1058772229646</v>
+        <v>23.10587722296453</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>98.26022817658315</v>
+        <v>98.26022817658313</v>
       </c>
       <c r="K8">
-        <v>12.86722445509739</v>
+        <v>12.86722445509737</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.84432458116166</v>
+        <v>6.844324581161781</v>
       </c>
       <c r="D9">
-        <v>5.39411942171824</v>
+        <v>5.394119421718175</v>
       </c>
       <c r="E9">
-        <v>21.43836566020785</v>
+        <v>21.43836566020786</v>
       </c>
       <c r="F9">
-        <v>38.77450474032565</v>
+        <v>38.77450474032568</v>
       </c>
       <c r="G9">
-        <v>30.46236373070899</v>
+        <v>30.462363730709</v>
       </c>
       <c r="H9">
-        <v>30.1411583564486</v>
+        <v>30.14115835644858</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>116.2048029055713</v>
       </c>
       <c r="K9">
-        <v>15.57674202344938</v>
+        <v>15.5767420234494</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.627583116189787</v>
+        <v>7.627583116189794</v>
       </c>
       <c r="D10">
-        <v>6.665917763890258</v>
+        <v>6.665917763890264</v>
       </c>
       <c r="E10">
-        <v>24.20640554118608</v>
+        <v>24.20640554118615</v>
       </c>
       <c r="F10">
-        <v>46.38204894447056</v>
+        <v>46.38204894447107</v>
       </c>
       <c r="G10">
-        <v>36.7090709394729</v>
+        <v>36.70907093947332</v>
       </c>
       <c r="H10">
-        <v>36.00693593806242</v>
+        <v>36.0069359380628</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>129.2091676258685</v>
+        <v>129.2091676258692</v>
       </c>
       <c r="K10">
-        <v>17.6696393235876</v>
+        <v>17.66963932358761</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.001357327906751</v>
+        <v>8.001357327906785</v>
       </c>
       <c r="D11">
-        <v>7.327609120777022</v>
+        <v>7.327609120776957</v>
       </c>
       <c r="E11">
-        <v>25.54434264594301</v>
+        <v>25.54434264594296</v>
       </c>
       <c r="F11">
-        <v>50.27094128717919</v>
+        <v>50.27094128717896</v>
       </c>
       <c r="G11">
-        <v>39.90700950872215</v>
+        <v>39.90700950872197</v>
       </c>
       <c r="H11">
-        <v>38.99818814899432</v>
+        <v>38.99818814899411</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>135.2776917536818</v>
+        <v>135.2776917536816</v>
       </c>
       <c r="K11">
-        <v>18.694284506937</v>
+        <v>18.69428450693701</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.147688506815355</v>
+        <v>8.147688506815468</v>
       </c>
       <c r="D12">
         <v>7.596957636020475</v>
       </c>
       <c r="E12">
-        <v>26.07176164980276</v>
+        <v>26.07176164980275</v>
       </c>
       <c r="F12">
-        <v>51.84041867604774</v>
+        <v>51.84041867604794</v>
       </c>
       <c r="G12">
-        <v>41.19870293781178</v>
+        <v>41.19870293781189</v>
       </c>
       <c r="H12">
-        <v>40.20452364958331</v>
+        <v>40.20452364958339</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>137.6269883338679</v>
+        <v>137.6269883338678</v>
       </c>
       <c r="K12">
-        <v>19.10070786563342</v>
+        <v>19.10070786563345</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.115906604133984</v>
+        <v>8.11590660413404</v>
       </c>
       <c r="D13">
-        <v>7.537951264257062</v>
+        <v>7.537951264257129</v>
       </c>
       <c r="E13">
         <v>25.95702335012157</v>
       </c>
       <c r="F13">
-        <v>51.49725711938956</v>
+        <v>51.49725711938934</v>
       </c>
       <c r="G13">
-        <v>40.91622319065252</v>
+        <v>40.91622319065237</v>
       </c>
       <c r="H13">
-        <v>39.94079726516382</v>
+        <v>39.94079726516369</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>137.11805723216</v>
+        <v>137.1180572321599</v>
       </c>
       <c r="K13">
-        <v>19.01216797678189</v>
+        <v>19.01216797678187</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.013281395280098</v>
+        <v>8.013281395280099</v>
       </c>
       <c r="D14">
-        <v>7.349335974482424</v>
+        <v>7.349335974482423</v>
       </c>
       <c r="E14">
-        <v>25.58723929779203</v>
+        <v>25.58723929779202</v>
       </c>
       <c r="F14">
-        <v>50.39783114117762</v>
+        <v>50.39783114117748</v>
       </c>
       <c r="G14">
-        <v>40.01141728959279</v>
+        <v>40.01141728959269</v>
       </c>
       <c r="H14">
-        <v>39.09573453793395</v>
+        <v>39.09573453793385</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>135.4697033811511</v>
+        <v>135.4697033811509</v>
       </c>
       <c r="K14">
         <v>18.72728616271224</v>
@@ -915,16 +915,16 @@
         <v>7.236530859426929</v>
       </c>
       <c r="E15">
-        <v>25.36383188809824</v>
+        <v>25.3638318880982</v>
       </c>
       <c r="F15">
-        <v>49.73846973973353</v>
+        <v>49.73846973973322</v>
       </c>
       <c r="G15">
-        <v>39.46892480766241</v>
+        <v>39.46892480766216</v>
       </c>
       <c r="H15">
-        <v>38.58881824808471</v>
+        <v>38.58881824808449</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>134.4679132633828</v>
       </c>
       <c r="K15">
-        <v>18.55551599886915</v>
+        <v>18.55551599886912</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.603671465264221</v>
+        <v>7.603671465264236</v>
       </c>
       <c r="D16">
-        <v>6.624836794521478</v>
+        <v>6.624836794521278</v>
       </c>
       <c r="E16">
-        <v>24.12122835615062</v>
+        <v>24.1212283561506</v>
       </c>
       <c r="F16">
-        <v>46.13903987616131</v>
+        <v>46.13903987616113</v>
       </c>
       <c r="G16">
-        <v>36.50935680111494</v>
+        <v>36.50935680111477</v>
       </c>
       <c r="H16">
-        <v>35.81989391880627</v>
+        <v>35.81989391880609</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>128.8177641671278</v>
       </c>
       <c r="K16">
-        <v>17.60470683185167</v>
+        <v>17.60470683185159</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.39621397893413</v>
+        <v>7.396213978934253</v>
       </c>
       <c r="D17">
-        <v>6.274534957697006</v>
+        <v>6.274534957697335</v>
       </c>
       <c r="E17">
         <v>23.38414632880917</v>
       </c>
       <c r="F17">
-        <v>44.05941736913149</v>
+        <v>44.05941736913168</v>
       </c>
       <c r="G17">
-        <v>34.80076899991909</v>
+        <v>34.80076899991935</v>
       </c>
       <c r="H17">
-        <v>34.21848888368468</v>
+        <v>34.21848888368486</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>125.4065934295573</v>
+        <v>125.4065934295576</v>
       </c>
       <c r="K17">
-        <v>17.04426152991735</v>
+        <v>17.04426152991737</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.278347202567216</v>
+        <v>7.278347202567126</v>
       </c>
       <c r="D18">
-        <v>6.0803157565179</v>
+        <v>6.080315756517897</v>
       </c>
       <c r="E18">
-        <v>22.9668305354892</v>
+        <v>22.96683053548922</v>
       </c>
       <c r="F18">
-        <v>42.90066728807714</v>
+        <v>42.90066728807735</v>
       </c>
       <c r="G18">
-        <v>33.84914055134573</v>
+        <v>33.84914055134587</v>
       </c>
       <c r="H18">
-        <v>33.32555514288401</v>
+        <v>33.32555514288417</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>123.4565673580796</v>
+        <v>123.4565673580795</v>
       </c>
       <c r="K18">
         <v>16.72808278761283</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.238640839730691</v>
+        <v>7.238640839730697</v>
       </c>
       <c r="D19">
-        <v>6.015658663560786</v>
+        <v>6.015658663560724</v>
       </c>
       <c r="E19">
-        <v>22.82647328372607</v>
+        <v>22.82647328372605</v>
       </c>
       <c r="F19">
-        <v>42.51400736671619</v>
+        <v>42.51400736671611</v>
       </c>
       <c r="G19">
-        <v>33.53165104257381</v>
+        <v>33.53165104257376</v>
       </c>
       <c r="H19">
-        <v>33.02747962259613</v>
+        <v>33.02747962259608</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>122.7977467407172</v>
+        <v>122.7977467407173</v>
       </c>
       <c r="K19">
-        <v>16.62192132814091</v>
+        <v>16.62192132814085</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.418135109628311</v>
+        <v>7.418135109628225</v>
       </c>
       <c r="D20">
-        <v>6.31103682514942</v>
+        <v>6.31103682514936</v>
       </c>
       <c r="E20">
-        <v>23.46187307441087</v>
+        <v>23.46187307441078</v>
       </c>
       <c r="F20">
-        <v>44.27673886295482</v>
+        <v>44.27673886295418</v>
       </c>
       <c r="G20">
-        <v>34.97927469359479</v>
+        <v>34.97927469359428</v>
       </c>
       <c r="H20">
-        <v>34.38590263573525</v>
+        <v>34.38590263573479</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>125.7683190814262</v>
+        <v>125.7683190814261</v>
       </c>
       <c r="K20">
-        <v>17.10324044996053</v>
+        <v>17.10324044996043</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.043268894668046</v>
+        <v>8.043268894667992</v>
       </c>
       <c r="D21">
-        <v>7.404148899510607</v>
+        <v>7.404148899510604</v>
       </c>
       <c r="E21">
-        <v>25.69518134104188</v>
+        <v>25.69518134104172</v>
       </c>
       <c r="F21">
-        <v>50.71772567054338</v>
+        <v>50.71772567054277</v>
       </c>
       <c r="G21">
-        <v>40.27465191582867</v>
+        <v>40.27465191582816</v>
       </c>
       <c r="H21">
-        <v>39.34163996155281</v>
+        <v>39.3416399615524</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>135.9521408862912</v>
+        <v>135.9521408862907</v>
       </c>
       <c r="K21">
-        <v>18.81037124111118</v>
+        <v>18.81037124111103</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.482293159590853</v>
+        <v>8.482293159590828</v>
       </c>
       <c r="D22">
-        <v>8.235725294452813</v>
+        <v>8.235725294452806</v>
       </c>
       <c r="E22">
-        <v>27.28660447408634</v>
+        <v>27.2866044740862</v>
       </c>
       <c r="F22">
-        <v>55.53164706617154</v>
+        <v>55.53164706617104</v>
       </c>
       <c r="G22">
-        <v>44.23920832532031</v>
+        <v>44.23920832531987</v>
       </c>
       <c r="H22">
-        <v>43.04029104796908</v>
+        <v>43.04029104796869</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>142.9390063725725</v>
+        <v>142.9390063725716</v>
       </c>
       <c r="K22">
-        <v>20.04249908908025</v>
+        <v>20.04249908908015</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.243936190944567</v>
+        <v>8.243936190944613</v>
       </c>
       <c r="D23">
         <v>7.777388904007548</v>
       </c>
       <c r="E23">
-        <v>26.4198935479059</v>
+        <v>26.41989354790582</v>
       </c>
       <c r="F23">
-        <v>52.88744393312499</v>
+        <v>52.88744393312449</v>
       </c>
       <c r="G23">
-        <v>42.06077393369689</v>
+        <v>42.06077393369652</v>
       </c>
       <c r="H23">
-        <v>41.00907296217633</v>
+        <v>41.00907296217599</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>139.1636827473953</v>
+        <v>139.1636827473952</v>
       </c>
       <c r="K23">
-        <v>19.36977708004883</v>
+        <v>19.36977708004875</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.408220342222847</v>
+        <v>7.408220342222973</v>
       </c>
       <c r="D24">
-        <v>6.294512423159422</v>
+        <v>6.294512423159484</v>
       </c>
       <c r="E24">
         <v>23.42671335026151</v>
       </c>
       <c r="F24">
-        <v>44.1783752872548</v>
+        <v>44.17837528725511</v>
       </c>
       <c r="G24">
-        <v>34.89847865462601</v>
+        <v>34.89847865462629</v>
       </c>
       <c r="H24">
-        <v>34.31013023140528</v>
+        <v>34.31013023140552</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.561781636665098</v>
+        <v>6.561781636665081</v>
       </c>
       <c r="D25">
-        <v>4.971036808798914</v>
+        <v>4.971036808798781</v>
       </c>
       <c r="E25">
-        <v>20.44961194907896</v>
+        <v>20.44961194907892</v>
       </c>
       <c r="F25">
-        <v>36.20659068135017</v>
+        <v>36.20659068134983</v>
       </c>
       <c r="G25">
-        <v>28.35563087616715</v>
+        <v>28.35563087616685</v>
       </c>
       <c r="H25">
-        <v>28.15446329857176</v>
+        <v>28.15446329857147</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>111.4268166465127</v>
+        <v>111.4268166465124</v>
       </c>
       <c r="K25">
-        <v>14.8373114271446</v>
+        <v>14.83731142714459</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.942277446298805</v>
+        <v>5.943893535320617</v>
       </c>
       <c r="D2">
-        <v>4.105159129388804</v>
+        <v>4.102691669141975</v>
       </c>
       <c r="E2">
-        <v>18.29637465457008</v>
+        <v>18.2957637123936</v>
       </c>
       <c r="F2">
-        <v>30.90373263503582</v>
+        <v>30.88096352906434</v>
       </c>
       <c r="G2">
-        <v>24.00511909392691</v>
+        <v>24.04252630991173</v>
       </c>
       <c r="H2">
-        <v>24.03382004279388</v>
+        <v>23.10422613918011</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>24.01641468159387</v>
       </c>
       <c r="J2">
-        <v>100.8032285087045</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13.24064667773713</v>
+        <v>100.7986538939188</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>13.23904146120728</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.513409442220853</v>
+        <v>5.515112685608156</v>
       </c>
       <c r="D3">
-        <v>3.553020292135431</v>
+        <v>3.551296167185499</v>
       </c>
       <c r="E3">
-        <v>16.815788333261</v>
+        <v>16.81547798236812</v>
       </c>
       <c r="F3">
-        <v>27.5029565959323</v>
+        <v>27.48317115035995</v>
       </c>
       <c r="G3">
-        <v>21.21225543260161</v>
+        <v>21.24560377776426</v>
       </c>
       <c r="H3">
-        <v>21.37163320249339</v>
+        <v>20.42070182839725</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>21.3565036427086</v>
       </c>
       <c r="J3">
-        <v>93.33590165054036</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.15290748436961</v>
+        <v>93.33255533860709</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.1516367082532</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.243229233041519</v>
+        <v>5.244967341992945</v>
       </c>
       <c r="D4">
-        <v>3.224138002944392</v>
+        <v>3.222842864175039</v>
       </c>
       <c r="E4">
-        <v>15.88653864562579</v>
+        <v>15.88637733667763</v>
       </c>
       <c r="F4">
-        <v>25.47954862861006</v>
+        <v>25.46143559014875</v>
       </c>
       <c r="G4">
-        <v>19.54787872514632</v>
+        <v>19.57876057905372</v>
       </c>
       <c r="H4">
-        <v>19.77649208539452</v>
+        <v>18.84104347596948</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>19.76263885953231</v>
       </c>
       <c r="J4">
-        <v>88.58538992564236</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>11.47418622808595</v>
+        <v>88.58268594691214</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.47309252241147</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.131134080959812</v>
+        <v>5.132882598056921</v>
       </c>
       <c r="D5">
-        <v>3.091871917015712</v>
+        <v>3.090746792711437</v>
       </c>
       <c r="E5">
-        <v>15.50168714115152</v>
+        <v>15.50157979690771</v>
       </c>
       <c r="F5">
-        <v>24.66825720215752</v>
+        <v>24.65079498121556</v>
       </c>
       <c r="G5">
-        <v>18.87968094945746</v>
+        <v>18.90956648066278</v>
       </c>
       <c r="H5">
-        <v>19.13381371291788</v>
+        <v>18.21224594621593</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>19.12045738260121</v>
       </c>
       <c r="J5">
-        <v>86.60395807098062</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>11.19395658971047</v>
+        <v>86.60149467451559</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.19292980655717</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.112393525415324</v>
+        <v>5.114143563234951</v>
       </c>
       <c r="D6">
-        <v>3.069995325482789</v>
+        <v>3.068898192302088</v>
       </c>
       <c r="E6">
-        <v>15.43738187455147</v>
+        <v>15.4372831330996</v>
       </c>
       <c r="F6">
-        <v>24.53427813939382</v>
+        <v>24.51692235075696</v>
       </c>
       <c r="G6">
-        <v>18.7692751591905</v>
+        <v>18.79899585110116</v>
       </c>
       <c r="H6">
-        <v>19.02748258334931</v>
+        <v>18.10869175288558</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>19.01420752686908</v>
       </c>
       <c r="J6">
-        <v>86.27208980819027</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>11.14718126565696</v>
+        <v>86.26966524661339</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.14616532304331</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.241725868191127</v>
+        <v>5.243464131879049</v>
       </c>
       <c r="D7">
-        <v>3.222348028728005</v>
+        <v>3.221055199931302</v>
       </c>
       <c r="E7">
-        <v>15.88137469890029</v>
+        <v>15.88121414277851</v>
       </c>
       <c r="F7">
-        <v>25.46855668672097</v>
+        <v>25.45045253948297</v>
       </c>
       <c r="G7">
-        <v>19.53882927606793</v>
+        <v>19.56969765455955</v>
       </c>
       <c r="H7">
-        <v>19.76779769812457</v>
+        <v>18.83250499236363</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>19.75395125976485</v>
       </c>
       <c r="J7">
-        <v>88.55885678016652</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>11.4704227860241</v>
+        <v>88.55615612404756</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.46933000202164</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.795641667923229</v>
+        <v>5.797292292398184</v>
       </c>
       <c r="D8">
-        <v>3.912141978897806</v>
+        <v>3.9099379875155</v>
       </c>
       <c r="E8">
-        <v>17.78930827918837</v>
+        <v>17.78880989553913</v>
       </c>
       <c r="F8">
-        <v>29.71552021590187</v>
+        <v>29.69381976483032</v>
       </c>
       <c r="G8">
-        <v>23.02975618823111</v>
+        <v>23.06576005765946</v>
       </c>
       <c r="H8">
-        <v>23.10587722296453</v>
+        <v>22.1631645890633</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>23.08928685820285</v>
       </c>
       <c r="J8">
-        <v>98.26022817658313</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>12.86722445509737</v>
+        <v>98.25610522585734</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12.86574175895392</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.844324581161781</v>
+        <v>6.845596500594614</v>
       </c>
       <c r="D9">
-        <v>5.394119421718175</v>
+        <v>5.389765670414957</v>
       </c>
       <c r="E9">
-        <v>21.43836566020786</v>
+        <v>21.43676694732057</v>
       </c>
       <c r="F9">
-        <v>38.77450474032568</v>
+        <v>38.74380163949122</v>
       </c>
       <c r="G9">
-        <v>30.462363730709</v>
+        <v>30.5084940375721</v>
       </c>
       <c r="H9">
-        <v>30.14115835644858</v>
+        <v>29.40473968399874</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>30.11770281991064</v>
       </c>
       <c r="J9">
-        <v>116.2048029055713</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>15.5767420234494</v>
+        <v>116.1965101315218</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>15.57413543773609</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.627583116189794</v>
+        <v>7.628307883745516</v>
       </c>
       <c r="D10">
-        <v>6.665917763890264</v>
+        <v>6.659394292199694</v>
       </c>
       <c r="E10">
-        <v>24.20640554118615</v>
+        <v>24.20331489150689</v>
       </c>
       <c r="F10">
-        <v>46.38204894447107</v>
+        <v>46.34175060177851</v>
       </c>
       <c r="G10">
-        <v>36.70907093947332</v>
+        <v>36.76218983271697</v>
       </c>
       <c r="H10">
-        <v>36.0069359380628</v>
+        <v>35.5692936593684</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>35.9761578202823</v>
       </c>
       <c r="J10">
-        <v>129.2091676258692</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>17.66963932358761</v>
+        <v>129.19568169457</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>17.66562905849783</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.001357327906785</v>
+        <v>8.001702537631255</v>
       </c>
       <c r="D11">
-        <v>7.327609120776957</v>
+        <v>7.319775318028196</v>
       </c>
       <c r="E11">
-        <v>25.54434264594296</v>
+        <v>25.54019203031255</v>
       </c>
       <c r="F11">
-        <v>50.27094128717896</v>
+        <v>50.22466317639083</v>
       </c>
       <c r="G11">
-        <v>39.90700950872197</v>
+        <v>39.96284922692453</v>
       </c>
       <c r="H11">
-        <v>38.99818814899411</v>
+        <v>38.74004314700279</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>38.96284175863658</v>
       </c>
       <c r="J11">
-        <v>135.2776917536816</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>18.69428450693701</v>
+        <v>135.2606796387641</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>18.6893103025834</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.147688506815468</v>
+        <v>8.147857508174253</v>
       </c>
       <c r="D12">
-        <v>7.596957636020475</v>
+        <v>7.588543056262085</v>
       </c>
       <c r="E12">
-        <v>26.07176164980275</v>
+        <v>26.06710751035249</v>
       </c>
       <c r="F12">
-        <v>51.84041867604794</v>
+        <v>51.79145325049105</v>
       </c>
       <c r="G12">
-        <v>41.19870293781189</v>
+        <v>41.25541930857875</v>
       </c>
       <c r="H12">
-        <v>40.20452364958339</v>
+        <v>40.02273876066947</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>40.167123020689</v>
       </c>
       <c r="J12">
-        <v>137.6269883338678</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>19.10070786563345</v>
+        <v>137.6083339424048</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>19.09528132994079</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.11590660413404</v>
+        <v>8.116115364974299</v>
       </c>
       <c r="D13">
-        <v>7.537951264257129</v>
+        <v>7.529666559711801</v>
       </c>
       <c r="E13">
-        <v>25.95702335012157</v>
+        <v>25.95248350547848</v>
       </c>
       <c r="F13">
-        <v>51.49725711938934</v>
+        <v>51.44889445405223</v>
       </c>
       <c r="G13">
-        <v>40.91622319065237</v>
+        <v>40.97276022469716</v>
       </c>
       <c r="H13">
-        <v>39.94079726516369</v>
+        <v>39.74214206236019</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>39.90385746503625</v>
       </c>
       <c r="J13">
-        <v>137.1180572321599</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>19.01216797678187</v>
+        <v>137.0997740088098</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>19.00684386177039</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.013281395280099</v>
+        <v>8.013612884326562</v>
       </c>
       <c r="D14">
-        <v>7.349335974482423</v>
+        <v>7.341456439259611</v>
       </c>
       <c r="E14">
-        <v>25.58723929779202</v>
+        <v>25.58304975089697</v>
       </c>
       <c r="F14">
-        <v>50.39783114117748</v>
+        <v>50.35134219374987</v>
       </c>
       <c r="G14">
-        <v>40.01141728959269</v>
+        <v>40.06733310177346</v>
       </c>
       <c r="H14">
-        <v>39.09573453793385</v>
+        <v>38.84368568989687</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>39.06022700749445</v>
       </c>
       <c r="J14">
-        <v>135.4697033811509</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>18.72728616271224</v>
+        <v>135.4525636135429</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>18.72227687693168</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.9511379226638</v>
+        <v>7.951539737442008</v>
       </c>
       <c r="D15">
-        <v>7.236530859426929</v>
+        <v>7.228886742223686</v>
       </c>
       <c r="E15">
-        <v>25.3638318880982</v>
+        <v>25.35984140419545</v>
       </c>
       <c r="F15">
-        <v>49.73846973973322</v>
+        <v>49.69306466123499</v>
       </c>
       <c r="G15">
-        <v>39.46892480766216</v>
+        <v>39.52443572969515</v>
       </c>
       <c r="H15">
-        <v>38.58881824808449</v>
+        <v>38.3052462833035</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>38.55413905577289</v>
       </c>
       <c r="J15">
-        <v>134.4679132633828</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>18.55551599886912</v>
+        <v>134.4514274720985</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>18.5506862999996</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.603671465264236</v>
+        <v>7.60441748635397</v>
       </c>
       <c r="D16">
-        <v>6.624836794521278</v>
+        <v>6.61838990715556</v>
       </c>
       <c r="E16">
-        <v>24.1212283561506</v>
+        <v>24.11819618561799</v>
       </c>
       <c r="F16">
-        <v>46.13903987616113</v>
+        <v>46.09908713071782</v>
       </c>
       <c r="G16">
-        <v>36.50935680111477</v>
+        <v>36.56228316718263</v>
       </c>
       <c r="H16">
-        <v>35.81989391880609</v>
+        <v>35.37154726595084</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>35.78937970363978</v>
       </c>
       <c r="J16">
-        <v>128.8177641671278</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>17.60470683185159</v>
+        <v>128.8044759924839</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>17.60075034083562</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.396213978934253</v>
+        <v>7.397131040780068</v>
       </c>
       <c r="D17">
-        <v>6.274534957697335</v>
+        <v>6.268721479149145</v>
       </c>
       <c r="E17">
-        <v>23.38414632880917</v>
+        <v>23.38158218506734</v>
       </c>
       <c r="F17">
-        <v>44.05941736913168</v>
+        <v>44.02230488568921</v>
       </c>
       <c r="G17">
-        <v>34.80076899991935</v>
+        <v>34.85195464993198</v>
       </c>
       <c r="H17">
-        <v>34.21848888368486</v>
+        <v>33.68131917958335</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34.19014305016499</v>
       </c>
       <c r="J17">
-        <v>125.4065934295576</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>17.04426152991737</v>
+        <v>125.3949025531752</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>17.04073833541768</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.278347202567126</v>
+        <v>7.279351510198118</v>
       </c>
       <c r="D18">
-        <v>6.080315756517897</v>
+        <v>6.074839425761835</v>
       </c>
       <c r="E18">
-        <v>22.96683053548922</v>
+        <v>22.9645037746149</v>
       </c>
       <c r="F18">
-        <v>42.90066728807735</v>
+        <v>42.86505279921148</v>
       </c>
       <c r="G18">
-        <v>33.84914055134587</v>
+        <v>33.89928959887742</v>
       </c>
       <c r="H18">
-        <v>33.32555514288417</v>
+        <v>32.7412174275147</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.29835260873623</v>
       </c>
       <c r="J18">
-        <v>123.4565673580795</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>16.72808278761283</v>
+        <v>123.4456976540275</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>16.72478167325962</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.238640839730697</v>
+        <v>7.239673032481456</v>
       </c>
       <c r="D19">
-        <v>6.015658663560724</v>
+        <v>6.010292520120752</v>
       </c>
       <c r="E19">
-        <v>22.82647328372605</v>
+        <v>22.82422228131888</v>
       </c>
       <c r="F19">
-        <v>42.51400736671611</v>
+        <v>42.478880269298</v>
       </c>
       <c r="G19">
-        <v>33.53165104257376</v>
+        <v>33.58144443592694</v>
       </c>
       <c r="H19">
-        <v>33.02747962259608</v>
+        <v>32.42780174212058</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.00064902718517</v>
       </c>
       <c r="J19">
-        <v>122.7977467407173</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>16.62192132814085</v>
+        <v>122.787140857584</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>16.6186914729053</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.418135109628225</v>
+        <v>7.419035181435651</v>
       </c>
       <c r="D20">
-        <v>6.31103682514936</v>
+        <v>6.305158910239955</v>
       </c>
       <c r="E20">
-        <v>23.46187307441078</v>
+        <v>23.45926261812042</v>
       </c>
       <c r="F20">
-        <v>44.27673886295418</v>
+        <v>44.23933895927347</v>
       </c>
       <c r="G20">
-        <v>34.97927469359428</v>
+        <v>35.03064967233334</v>
       </c>
       <c r="H20">
-        <v>34.38590263573479</v>
+        <v>33.85777158779025</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.35733741127542</v>
       </c>
       <c r="J20">
-        <v>125.7683190814261</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>17.10324044996043</v>
+        <v>125.7564689148216</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>17.09967412542695</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.043268894667992</v>
+        <v>8.043565391152461</v>
       </c>
       <c r="D21">
-        <v>7.404148899510604</v>
+        <v>7.396153143456718</v>
       </c>
       <c r="E21">
-        <v>25.69518134104172</v>
+        <v>25.69089229729833</v>
       </c>
       <c r="F21">
-        <v>50.71772567054277</v>
+        <v>50.67070031449192</v>
       </c>
       <c r="G21">
-        <v>40.27465191582816</v>
+        <v>40.33075560726424</v>
       </c>
       <c r="H21">
-        <v>39.3416399615524</v>
+        <v>39.10502151331124</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>39.30572243858609</v>
       </c>
       <c r="J21">
-        <v>135.9521408862907</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>18.81037124111103</v>
+        <v>135.9346754072461</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>18.8052723840711</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.482293159590828</v>
+        <v>8.481986224662238</v>
       </c>
       <c r="D22">
-        <v>8.235725294452806</v>
+        <v>8.225796033740709</v>
       </c>
       <c r="E22">
-        <v>27.2866044740862</v>
+        <v>27.28055020751868</v>
       </c>
       <c r="F22">
-        <v>55.53164706617104</v>
+        <v>55.47558170800634</v>
       </c>
       <c r="G22">
-        <v>44.23920832531987</v>
+        <v>44.297350412974</v>
       </c>
       <c r="H22">
-        <v>43.04029104796869</v>
+        <v>43.04556886994913</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>42.9974595066196</v>
       </c>
       <c r="J22">
-        <v>142.9390063725716</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>20.04249908908015</v>
+        <v>142.9158713447713</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>20.03582750262547</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.243936190944613</v>
+        <v>8.243979409649143</v>
       </c>
       <c r="D23">
-        <v>7.777388904007548</v>
+        <v>7.768567366186817</v>
       </c>
       <c r="E23">
-        <v>26.41989354790582</v>
+        <v>26.41487515510345</v>
       </c>
       <c r="F23">
-        <v>52.88744393312449</v>
+        <v>52.83658331609392</v>
       </c>
       <c r="G23">
-        <v>42.06077393369652</v>
+        <v>42.11799177755871</v>
       </c>
       <c r="H23">
-        <v>41.00907296217599</v>
+        <v>40.87933565336199</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>40.97022315405673</v>
       </c>
       <c r="J23">
-        <v>139.1636827473952</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>19.36977708004875</v>
+        <v>139.1438513316056</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>19.36402502249177</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.408220342222973</v>
+        <v>7.409128128946215</v>
       </c>
       <c r="D24">
-        <v>6.294512423159484</v>
+        <v>6.288663721802669</v>
       </c>
       <c r="E24">
-        <v>23.42671335026151</v>
+        <v>23.42412392783624</v>
       </c>
       <c r="F24">
-        <v>44.17837528725511</v>
+        <v>44.14110573525502</v>
       </c>
       <c r="G24">
-        <v>34.89847865462629</v>
+        <v>34.94976814469493</v>
       </c>
       <c r="H24">
-        <v>34.31013023140552</v>
+        <v>33.77790080138254</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.28166450683105</v>
       </c>
       <c r="J24">
-        <v>125.6047502287338</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>17.07655781203991</v>
+        <v>125.5929723716086</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>17.07301106842186</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.561781636665081</v>
+        <v>6.563188638978461</v>
       </c>
       <c r="D25">
-        <v>4.971036808798781</v>
+        <v>4.967329902200986</v>
       </c>
       <c r="E25">
-        <v>20.44961194907892</v>
+        <v>20.4483866953151</v>
       </c>
       <c r="F25">
-        <v>36.20659068134983</v>
+        <v>36.17865817245388</v>
       </c>
       <c r="G25">
-        <v>28.35563087616685</v>
+        <v>28.39904419004503</v>
       </c>
       <c r="H25">
-        <v>28.15446329857147</v>
+        <v>27.33848322721532</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>28.1331207006521</v>
       </c>
       <c r="J25">
-        <v>111.4268166465124</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>14.83731142714459</v>
+        <v>111.4198903815482</v>
       </c>
       <c r="L25">
+        <v>14.83507231395292</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.943893535320617</v>
+        <v>7.561381419832972</v>
       </c>
       <c r="D2">
-        <v>4.102691669141975</v>
+        <v>10.91937750481678</v>
       </c>
       <c r="E2">
-        <v>18.2957637123936</v>
+        <v>8.742905175570856</v>
       </c>
       <c r="F2">
-        <v>30.88096352906434</v>
+        <v>69.89569477046048</v>
       </c>
       <c r="G2">
-        <v>24.04252630991173</v>
+        <v>1.969705830964971</v>
       </c>
       <c r="H2">
-        <v>23.10422613918011</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>24.01641468159387</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.807075389280349</v>
       </c>
       <c r="K2">
-        <v>100.7986538939188</v>
+        <v>59.33255943959972</v>
       </c>
       <c r="L2">
-        <v>13.23904146120728</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>36.59382588087593</v>
+      </c>
+      <c r="N2">
+        <v>10.54329850120916</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.515112685608156</v>
+        <v>6.921011826019344</v>
       </c>
       <c r="D3">
-        <v>3.551296167185499</v>
+        <v>9.928112797124882</v>
       </c>
       <c r="E3">
-        <v>16.81547798236812</v>
+        <v>8.187113460327929</v>
       </c>
       <c r="F3">
-        <v>27.48317115035995</v>
+        <v>65.00749061439697</v>
       </c>
       <c r="G3">
-        <v>21.24560377776426</v>
+        <v>2.007091307872722</v>
       </c>
       <c r="H3">
-        <v>20.42070182839725</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>21.3565036427086</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.904027987067177</v>
       </c>
       <c r="K3">
-        <v>93.33255533860709</v>
+        <v>54.48871166015391</v>
       </c>
       <c r="L3">
-        <v>12.1516367082532</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>33.59504442789496</v>
+      </c>
+      <c r="N3">
+        <v>11.11171194975042</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.244967341992945</v>
+        <v>6.524043151282221</v>
       </c>
       <c r="D4">
-        <v>3.222842864175039</v>
+        <v>9.320613455619112</v>
       </c>
       <c r="E4">
-        <v>15.88637733667763</v>
+        <v>7.849940133965879</v>
       </c>
       <c r="F4">
-        <v>25.46143559014875</v>
+        <v>62.11913156301857</v>
       </c>
       <c r="G4">
-        <v>19.57876057905372</v>
+        <v>2.029361723436882</v>
       </c>
       <c r="H4">
-        <v>18.84104347596948</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>19.76263885953231</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.962900678224032</v>
       </c>
       <c r="K4">
-        <v>88.58268594691214</v>
+        <v>51.48444953088288</v>
       </c>
       <c r="L4">
-        <v>11.47309252241147</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>31.80317378237068</v>
+      </c>
+      <c r="N4">
+        <v>11.4479656642969</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.132882598056921</v>
+        <v>6.360589825567047</v>
       </c>
       <c r="D5">
-        <v>3.090746792711437</v>
+        <v>9.071962731185886</v>
       </c>
       <c r="E5">
-        <v>15.50157979690771</v>
+        <v>7.712841228073366</v>
       </c>
       <c r="F5">
-        <v>24.65079498121556</v>
+        <v>60.96451714389512</v>
       </c>
       <c r="G5">
-        <v>18.90956648066278</v>
+        <v>2.038333077737381</v>
       </c>
       <c r="H5">
-        <v>18.21224594621593</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>19.12045738260121</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.986836992698511</v>
       </c>
       <c r="K5">
-        <v>86.60149467451559</v>
+        <v>50.24776665236528</v>
       </c>
       <c r="L5">
-        <v>11.19292980655717</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>31.1642841666665</v>
+      </c>
+      <c r="N5">
+        <v>11.58279438293954</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.114143563234951</v>
+        <v>6.333328771992211</v>
       </c>
       <c r="D6">
-        <v>3.068898192302088</v>
+        <v>9.030575138570764</v>
       </c>
       <c r="E6">
-        <v>15.4372831330996</v>
+        <v>7.690077297085949</v>
       </c>
       <c r="F6">
-        <v>24.51692235075696</v>
+        <v>60.77401243871262</v>
       </c>
       <c r="G6">
-        <v>18.79899585110116</v>
+        <v>2.039818137828139</v>
       </c>
       <c r="H6">
-        <v>18.10869175288558</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>19.01420752686908</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.99081102840754</v>
       </c>
       <c r="K6">
-        <v>86.26966524661339</v>
+        <v>50.04155111777369</v>
       </c>
       <c r="L6">
-        <v>11.14616532304331</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>31.05811254666764</v>
+      </c>
+      <c r="N6">
+        <v>11.60507449650993</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.243464131879049</v>
+        <v>6.521846419920103</v>
       </c>
       <c r="D7">
-        <v>3.221055199931302</v>
+        <v>9.317266033122856</v>
       </c>
       <c r="E7">
-        <v>15.88121414277851</v>
+        <v>7.848090741727197</v>
       </c>
       <c r="F7">
-        <v>25.45045253948297</v>
+        <v>62.10347564863087</v>
       </c>
       <c r="G7">
-        <v>19.56969765455955</v>
+        <v>2.029483058548466</v>
       </c>
       <c r="H7">
-        <v>18.83250499236363</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>19.75395125976485</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.963223586802471</v>
       </c>
       <c r="K7">
-        <v>88.55615612404756</v>
+        <v>51.46782685389905</v>
       </c>
       <c r="L7">
-        <v>11.46933000202164</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>31.79456218274405</v>
+      </c>
+      <c r="N7">
+        <v>11.44979176593731</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.797292292398184</v>
+        <v>7.340854801322666</v>
       </c>
       <c r="D8">
-        <v>3.9099379875155</v>
+        <v>10.57639175639916</v>
       </c>
       <c r="E8">
-        <v>17.78880989553913</v>
+        <v>8.549902060637525</v>
       </c>
       <c r="F8">
-        <v>29.69381976483032</v>
+        <v>68.18240029739798</v>
       </c>
       <c r="G8">
-        <v>23.06576005765946</v>
+        <v>1.982785915651626</v>
       </c>
       <c r="H8">
-        <v>22.1631645890633</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>23.08928685820285</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.840716758965242</v>
       </c>
       <c r="K8">
-        <v>98.25610522585734</v>
+        <v>57.66521921460345</v>
       </c>
       <c r="L8">
-        <v>12.86574175895392</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>35.56252139342755</v>
+      </c>
+      <c r="N8">
+        <v>10.74263819692949</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.845596500594614</v>
+        <v>8.96679971954816</v>
       </c>
       <c r="D9">
-        <v>5.389765670414957</v>
+        <v>13.14870189592494</v>
       </c>
       <c r="E9">
-        <v>21.43676694732057</v>
+        <v>10.0109451675192</v>
       </c>
       <c r="F9">
-        <v>38.74380163949122</v>
+        <v>81.89064192564388</v>
       </c>
       <c r="G9">
-        <v>30.5084940375721</v>
+        <v>1.881130268739945</v>
       </c>
       <c r="H9">
-        <v>29.40473968399874</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>30.11770281991064</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.58807283946043</v>
       </c>
       <c r="K9">
-        <v>116.1965101315218</v>
+        <v>69.9205968174802</v>
       </c>
       <c r="L9">
-        <v>15.57413543773609</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>43.12145468336458</v>
+      </c>
+      <c r="N9">
+        <v>9.186078700641186</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.628307883745516</v>
+        <v>10.30262245275079</v>
       </c>
       <c r="D10">
-        <v>6.659394292199694</v>
+        <v>15.34763084852697</v>
       </c>
       <c r="E10">
-        <v>24.20331489150689</v>
+        <v>11.27897763114171</v>
       </c>
       <c r="F10">
-        <v>46.34175060177851</v>
+        <v>94.21687213898019</v>
       </c>
       <c r="G10">
-        <v>36.76218983271697</v>
+        <v>1.78816949022623</v>
       </c>
       <c r="H10">
-        <v>35.5692936593684</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>35.9761578202823</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.377372993111218</v>
       </c>
       <c r="K10">
-        <v>129.19568169457</v>
+        <v>79.89175074218774</v>
       </c>
       <c r="L10">
-        <v>17.66562905849783</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>49.23459573987955</v>
+      </c>
+      <c r="N10">
+        <v>7.761327517029981</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.001702537631255</v>
+        <v>11.01896215524311</v>
       </c>
       <c r="D11">
-        <v>7.319775318028196</v>
+        <v>16.5654400739851</v>
       </c>
       <c r="E11">
-        <v>25.54019203031255</v>
+        <v>11.9880286775698</v>
       </c>
       <c r="F11">
-        <v>50.22466317639083</v>
+        <v>101.0729926086812</v>
       </c>
       <c r="G11">
-        <v>39.96284922692453</v>
+        <v>1.734551834973226</v>
       </c>
       <c r="H11">
-        <v>38.74004314700279</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>38.96284175863658</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.266350236056706</v>
       </c>
       <c r="K11">
-        <v>135.2606796387641</v>
+        <v>85.19147747428602</v>
       </c>
       <c r="L11">
-        <v>18.6893103025834</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>52.46851723663269</v>
+      </c>
+      <c r="N11">
+        <v>6.945240948920516</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.147857508174253</v>
+        <v>11.32562530692243</v>
       </c>
       <c r="D12">
-        <v>7.588543056262085</v>
+        <v>17.09633968463044</v>
       </c>
       <c r="E12">
-        <v>26.06710751035249</v>
+        <v>12.29887883101428</v>
       </c>
       <c r="F12">
-        <v>51.79145325049105</v>
+        <v>104.0556122971207</v>
       </c>
       <c r="G12">
-        <v>41.25541930857875</v>
+        <v>1.710748076360266</v>
       </c>
       <c r="H12">
-        <v>40.02273876066947</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>40.167123020689</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.219825692436532</v>
       </c>
       <c r="K12">
-        <v>137.6083339424048</v>
+        <v>87.44926875436329</v>
       </c>
       <c r="L12">
-        <v>19.09528132994079</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>53.84250675204254</v>
+      </c>
+      <c r="N12">
+        <v>6.585040179207467</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.116115364974299</v>
+        <v>11.25731216597553</v>
       </c>
       <c r="D13">
-        <v>7.529666559711801</v>
+        <v>16.97754442894497</v>
       </c>
       <c r="E13">
-        <v>25.95248350547848</v>
+        <v>12.2292215609507</v>
       </c>
       <c r="F13">
-        <v>51.44889445405223</v>
+        <v>103.3888130925509</v>
       </c>
       <c r="G13">
-        <v>40.97276022469716</v>
+        <v>1.716095946541439</v>
       </c>
       <c r="H13">
-        <v>39.74214206236019</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>39.90385746503625</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.230122616330031</v>
       </c>
       <c r="K13">
-        <v>137.0997740088098</v>
+        <v>86.94690001177251</v>
       </c>
       <c r="L13">
-        <v>19.00684386177039</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>53.53699520993986</v>
+      </c>
+      <c r="N13">
+        <v>6.665836816456637</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.013612884326562</v>
+        <v>11.04325413555414</v>
       </c>
       <c r="D14">
-        <v>7.341456439259611</v>
+        <v>16.60727469489585</v>
       </c>
       <c r="E14">
-        <v>25.58304975089697</v>
+        <v>12.01248236976088</v>
       </c>
       <c r="F14">
-        <v>50.35134219374987</v>
+        <v>101.3082463886109</v>
       </c>
       <c r="G14">
-        <v>40.06733310177346</v>
+        <v>1.732685205736238</v>
       </c>
       <c r="H14">
-        <v>38.84368568989687</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>39.06022700749445</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.262638119736964</v>
       </c>
       <c r="K14">
-        <v>135.4525636135429</v>
+        <v>85.37057068434231</v>
       </c>
       <c r="L14">
-        <v>18.72227687693168</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>52.57759124034114</v>
+      </c>
+      <c r="N14">
+        <v>6.916943279260111</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.951539737442008</v>
+        <v>10.91783232232345</v>
       </c>
       <c r="D15">
-        <v>7.228886742223686</v>
+        <v>16.39167343174237</v>
       </c>
       <c r="E15">
-        <v>25.35984140419545</v>
+        <v>11.88652860392368</v>
       </c>
       <c r="F15">
-        <v>49.69306466123499</v>
+        <v>100.0955054152486</v>
       </c>
       <c r="G15">
-        <v>39.52443572969515</v>
+        <v>1.742288128440578</v>
       </c>
       <c r="H15">
-        <v>38.3052462833035</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>38.55413905577289</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.281848416951646</v>
       </c>
       <c r="K15">
-        <v>134.4514274720985</v>
+        <v>84.44544620194645</v>
       </c>
       <c r="L15">
-        <v>18.5506862999996</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>52.01400396052633</v>
+      </c>
+      <c r="N15">
+        <v>7.062610216986717</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.60441748635397</v>
+        <v>10.25915193982158</v>
       </c>
       <c r="D16">
-        <v>6.61838990715556</v>
+        <v>15.27466502187484</v>
       </c>
       <c r="E16">
-        <v>24.11819618561799</v>
+        <v>11.23665567398961</v>
       </c>
       <c r="F16">
-        <v>46.09908713071782</v>
+        <v>93.8060281821616</v>
       </c>
       <c r="G16">
-        <v>36.56228316718263</v>
+        <v>1.791336137366346</v>
       </c>
       <c r="H16">
-        <v>35.37154726595084</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>35.78937970363978</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.384185157621885</v>
       </c>
       <c r="K16">
-        <v>128.8044759924839</v>
+        <v>79.56901616879924</v>
       </c>
       <c r="L16">
-        <v>17.60075034083562</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>49.03729443050138</v>
+      </c>
+      <c r="N16">
+        <v>7.809697845810589</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.397131040780068</v>
+        <v>9.890721388561461</v>
       </c>
       <c r="D17">
-        <v>6.268721479149145</v>
+        <v>14.66025374570546</v>
       </c>
       <c r="E17">
-        <v>23.38158218506734</v>
+        <v>10.88095853044143</v>
       </c>
       <c r="F17">
-        <v>44.02230488568921</v>
+        <v>90.34907409235879</v>
       </c>
       <c r="G17">
-        <v>34.85195464993198</v>
+        <v>1.817785097139625</v>
       </c>
       <c r="H17">
-        <v>33.68131917958335</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>34.19014305016499</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.442132650611487</v>
       </c>
       <c r="K17">
-        <v>125.3949025531752</v>
+        <v>76.82875390630079</v>
       </c>
       <c r="L17">
-        <v>17.04073833541768</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>47.36047472684652</v>
+      </c>
+      <c r="N17">
+        <v>8.214293380402399</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.279351510198118</v>
+        <v>9.687393047260617</v>
       </c>
       <c r="D18">
-        <v>6.074839425761835</v>
+        <v>14.3241328992072</v>
       </c>
       <c r="E18">
-        <v>22.9645037746149</v>
+        <v>10.68687257450866</v>
       </c>
       <c r="F18">
-        <v>42.86505279921148</v>
+        <v>88.4610479813896</v>
       </c>
       <c r="G18">
-        <v>33.89928959887742</v>
+        <v>1.832087127239359</v>
       </c>
       <c r="H18">
-        <v>32.7412174275147</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>33.29835260873623</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.474225288634865</v>
       </c>
       <c r="K18">
-        <v>123.4456976540275</v>
+        <v>75.31277959287523</v>
       </c>
       <c r="L18">
-        <v>16.72478167325962</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>46.43164403720021</v>
+      </c>
+      <c r="N18">
+        <v>8.433444008004916</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.239673032481456</v>
+        <v>9.619738005995849</v>
       </c>
       <c r="D19">
-        <v>6.010292520120752</v>
+        <v>14.21274255426095</v>
       </c>
       <c r="E19">
-        <v>22.82422228131888</v>
+        <v>10.6226302243513</v>
       </c>
       <c r="F19">
-        <v>42.478880269298</v>
+        <v>87.83604566612739</v>
       </c>
       <c r="G19">
-        <v>33.58144443592694</v>
+        <v>1.836800126701827</v>
       </c>
       <c r="H19">
-        <v>32.42780174212058</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>33.00064902718517</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.48491385642809</v>
       </c>
       <c r="K19">
-        <v>122.787140857584</v>
+        <v>74.80779538022145</v>
       </c>
       <c r="L19">
-        <v>16.6186914729053</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>46.12206204660772</v>
+      </c>
+      <c r="N19">
+        <v>8.505706771338534</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.419035181435651</v>
+        <v>9.92897891966841</v>
       </c>
       <c r="D20">
-        <v>6.305158910239955</v>
+        <v>14.72372776343402</v>
       </c>
       <c r="E20">
-        <v>23.45926261812042</v>
+        <v>10.91764987025702</v>
       </c>
       <c r="F20">
-        <v>44.23933895927347</v>
+        <v>90.70591549044055</v>
       </c>
       <c r="G20">
-        <v>35.03064967233334</v>
+        <v>1.815070827101186</v>
       </c>
       <c r="H20">
-        <v>33.85777158779025</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>34.35733741127542</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.436101137800231</v>
       </c>
       <c r="K20">
-        <v>125.7564689148216</v>
+        <v>77.11370592601565</v>
       </c>
       <c r="L20">
-        <v>17.09967412542695</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>47.53497153870757</v>
+      </c>
+      <c r="N20">
+        <v>8.172728734201929</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.043565391152461</v>
+        <v>11.10485071633624</v>
       </c>
       <c r="D21">
-        <v>7.396153143456718</v>
+        <v>16.7135206518157</v>
       </c>
       <c r="E21">
-        <v>25.69089229729833</v>
+        <v>12.07461746446742</v>
       </c>
       <c r="F21">
-        <v>50.67070031449192</v>
+        <v>101.9055594990657</v>
       </c>
       <c r="G21">
-        <v>40.33075560726424</v>
+        <v>1.727937507739714</v>
       </c>
       <c r="H21">
-        <v>39.10502151331124</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>39.30572243858609</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.25324483073702</v>
       </c>
       <c r="K21">
-        <v>135.9346754072461</v>
+        <v>85.82450490408664</v>
       </c>
       <c r="L21">
-        <v>18.8052723840711</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>52.85398781639049</v>
+      </c>
+      <c r="N21">
+        <v>6.845007773244467</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.481986224662238</v>
+        <v>12.135666333331</v>
       </c>
       <c r="D22">
-        <v>8.225796033740709</v>
+        <v>18.53033377281575</v>
       </c>
       <c r="E22">
-        <v>27.28055020751868</v>
+        <v>13.14497125399724</v>
       </c>
       <c r="F22">
-        <v>55.47558170800634</v>
+        <v>112.0628590546123</v>
       </c>
       <c r="G22">
-        <v>44.297350412974</v>
+        <v>1.645286698686251</v>
       </c>
       <c r="H22">
-        <v>43.04556886994913</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>42.9974595066196</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.10156331305525</v>
       </c>
       <c r="K22">
-        <v>142.9158713447713</v>
+        <v>93.38049474480667</v>
       </c>
       <c r="L22">
-        <v>20.03582750262547</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>57.43961108639834</v>
+      </c>
+      <c r="N22">
+        <v>5.602835216839587</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.243979409649143</v>
+        <v>11.53952789724354</v>
       </c>
       <c r="D23">
-        <v>7.768567366186817</v>
+        <v>17.47035889081374</v>
       </c>
       <c r="E23">
-        <v>26.41487515510345</v>
+        <v>12.51859277398047</v>
       </c>
       <c r="F23">
-        <v>52.83658331609392</v>
+        <v>106.1521801317372</v>
       </c>
       <c r="G23">
-        <v>42.11799177755871</v>
+        <v>1.693832337087871</v>
       </c>
       <c r="H23">
-        <v>40.87933565336199</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>40.97022315405673</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.187866117283353</v>
       </c>
       <c r="K23">
-        <v>139.1438513316056</v>
+        <v>89.02011209690311</v>
       </c>
       <c r="L23">
-        <v>19.36402502249177</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>54.79700207171575</v>
+      </c>
+      <c r="N23">
+        <v>6.329992220521552</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.409128128946215</v>
+        <v>9.91165723155745</v>
       </c>
       <c r="D24">
-        <v>6.288663721802669</v>
+        <v>14.69497975274271</v>
       </c>
       <c r="E24">
-        <v>23.42412392783624</v>
+        <v>10.90103043642263</v>
       </c>
       <c r="F24">
-        <v>44.14110573525502</v>
+        <v>90.54428802885393</v>
       </c>
       <c r="G24">
-        <v>34.94976814469493</v>
+        <v>1.816300671389497</v>
       </c>
       <c r="H24">
-        <v>33.77790080138254</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>34.28166450683105</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.438831673894306</v>
       </c>
       <c r="K24">
-        <v>125.5929723716086</v>
+        <v>76.98470094258086</v>
       </c>
       <c r="L24">
-        <v>17.07301106842186</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>47.45597606667619</v>
+      </c>
+      <c r="N24">
+        <v>8.191560687529609</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.563188638978461</v>
+        <v>8.515790233504777</v>
       </c>
       <c r="D25">
-        <v>4.967329902200986</v>
+        <v>12.42468630506015</v>
       </c>
       <c r="E25">
-        <v>20.4483866953151</v>
+        <v>9.596905554362705</v>
       </c>
       <c r="F25">
-        <v>36.17865817245388</v>
+        <v>77.88150488032589</v>
       </c>
       <c r="G25">
-        <v>28.39904419004503</v>
+        <v>1.910554526407695</v>
       </c>
       <c r="H25">
-        <v>27.33848322721532</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>28.1331207006521</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.659022414484111</v>
       </c>
       <c r="K25">
-        <v>111.4198903815482</v>
+        <v>66.53171378631009</v>
       </c>
       <c r="L25">
-        <v>14.83507231395292</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>41.03613749059721</v>
+      </c>
+      <c r="N25">
+        <v>9.637772735182871</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.561381419832972</v>
+        <v>4.665317177660389</v>
       </c>
       <c r="D2">
-        <v>10.91937750481678</v>
+        <v>7.477777730324189</v>
       </c>
       <c r="E2">
-        <v>8.742905175570856</v>
+        <v>11.04302011883289</v>
       </c>
       <c r="F2">
-        <v>69.89569477046048</v>
+        <v>23.3654848321241</v>
       </c>
       <c r="G2">
-        <v>1.969705830964971</v>
+        <v>2.075758555240229</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.29474299227553</v>
       </c>
       <c r="J2">
-        <v>4.807075389280349</v>
+        <v>6.356927857182114</v>
       </c>
       <c r="K2">
-        <v>59.33255943959972</v>
+        <v>20.10314001916468</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>36.59382588087593</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>10.54329850120916</v>
+        <v>12.2283035000078</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.89559085815069</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.921011826019344</v>
+        <v>4.431607663612285</v>
       </c>
       <c r="D3">
-        <v>9.928112797124882</v>
+        <v>7.145806570781015</v>
       </c>
       <c r="E3">
-        <v>8.187113460327929</v>
+        <v>10.57257070500995</v>
       </c>
       <c r="F3">
-        <v>65.00749061439697</v>
+        <v>22.7280019051739</v>
       </c>
       <c r="G3">
-        <v>2.007091307872722</v>
+        <v>2.081513484162766</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.98756831466258</v>
       </c>
       <c r="J3">
-        <v>4.904027987067177</v>
+        <v>6.240008250270742</v>
       </c>
       <c r="K3">
-        <v>54.48871166015391</v>
+        <v>18.78641242690341</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>33.59504442789496</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.11171194975042</v>
+        <v>12.28876410436596</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.67258198400245</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.524043151282221</v>
+        <v>4.281407200985813</v>
       </c>
       <c r="D4">
-        <v>9.320613455619112</v>
+        <v>6.936964594870801</v>
       </c>
       <c r="E4">
-        <v>7.849940133965879</v>
+        <v>10.27938422340956</v>
       </c>
       <c r="F4">
-        <v>62.11913156301857</v>
+        <v>22.35192267050896</v>
       </c>
       <c r="G4">
-        <v>2.029361723436882</v>
+        <v>2.085154208882249</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.81204566752214</v>
       </c>
       <c r="J4">
-        <v>4.962900678224032</v>
+        <v>6.170924738613295</v>
       </c>
       <c r="K4">
-        <v>51.48444953088288</v>
+        <v>17.93043191328756</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>31.80317378237068</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.4479656642969</v>
+        <v>12.32981090033345</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.55169695285098</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.360589825567047</v>
+        <v>4.218547967302587</v>
       </c>
       <c r="D5">
-        <v>9.071962731185886</v>
+        <v>6.850715675232018</v>
       </c>
       <c r="E5">
-        <v>7.712841228073366</v>
+        <v>10.15899040721679</v>
       </c>
       <c r="F5">
-        <v>60.96451714389512</v>
+        <v>22.20264901123965</v>
       </c>
       <c r="G5">
-        <v>2.038333077737381</v>
+        <v>2.086665494735725</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.74380330122836</v>
       </c>
       <c r="J5">
-        <v>4.986836992698511</v>
+        <v>6.143468255932202</v>
       </c>
       <c r="K5">
-        <v>50.24776665236528</v>
+        <v>17.56962315914981</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>31.1642841666665</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>11.58279438293954</v>
+        <v>12.34750141966562</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.50638082312815</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.333328771992211</v>
+        <v>4.208011642676859</v>
       </c>
       <c r="D6">
-        <v>9.030575138570764</v>
+        <v>6.836328706082606</v>
       </c>
       <c r="E6">
-        <v>7.690077297085949</v>
+        <v>10.13894905642626</v>
       </c>
       <c r="F6">
-        <v>60.77401243871262</v>
+        <v>22.17810615648451</v>
       </c>
       <c r="G6">
-        <v>2.039818137828139</v>
+        <v>2.086918133418823</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.7326696786832</v>
       </c>
       <c r="J6">
-        <v>4.99081102840754</v>
+        <v>6.138951560092883</v>
       </c>
       <c r="K6">
-        <v>50.04155111777369</v>
+        <v>17.5089858390743</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>31.05811254666764</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>11.60507449650993</v>
+        <v>12.35049647124243</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.4990915508333</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.521846419920103</v>
+        <v>4.280566095250856</v>
       </c>
       <c r="D7">
-        <v>9.317266033122856</v>
+        <v>6.935805879421612</v>
       </c>
       <c r="E7">
-        <v>7.848090741727197</v>
+        <v>10.27776402629766</v>
       </c>
       <c r="F7">
-        <v>62.10347564863087</v>
+        <v>22.34989323463549</v>
       </c>
       <c r="G7">
-        <v>2.029483058548466</v>
+        <v>2.08517447769633</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.81111204455784</v>
       </c>
       <c r="J7">
-        <v>4.963223586802471</v>
+        <v>6.170551615198922</v>
       </c>
       <c r="K7">
-        <v>51.46782685389905</v>
+        <v>17.92561451988481</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>31.79456218274405</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.44979176593731</v>
+        <v>12.33004560857423</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.55106995578299</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.340854801322666</v>
+        <v>4.586143201849752</v>
       </c>
       <c r="D8">
-        <v>10.57639175639916</v>
+        <v>7.364418462869001</v>
       </c>
       <c r="E8">
-        <v>8.549902060637525</v>
+        <v>10.88180333242583</v>
       </c>
       <c r="F8">
-        <v>68.18240029739798</v>
+        <v>23.1425748601633</v>
       </c>
       <c r="G8">
-        <v>1.982785915651626</v>
+        <v>2.077721049660167</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.18611391758322</v>
       </c>
       <c r="J8">
-        <v>4.840716758965242</v>
+        <v>6.316061930111617</v>
       </c>
       <c r="K8">
-        <v>57.66521921460345</v>
+        <v>19.65896286305028</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>35.56252139342755</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>10.74263819692949</v>
+        <v>12.24832162621352</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.81531846257229</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.96679971954816</v>
+        <v>5.131070311186646</v>
       </c>
       <c r="D9">
-        <v>13.14870189592494</v>
+        <v>8.160895567580519</v>
       </c>
       <c r="E9">
-        <v>10.0109451675192</v>
+        <v>12.0255816029279</v>
       </c>
       <c r="F9">
-        <v>81.89064192564388</v>
+        <v>24.81297767427754</v>
       </c>
       <c r="G9">
-        <v>1.881130268739945</v>
+        <v>2.063921212169217</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.02503481798926</v>
       </c>
       <c r="J9">
-        <v>4.58807283946043</v>
+        <v>6.622169723288153</v>
       </c>
       <c r="K9">
-        <v>69.9205968174802</v>
+        <v>22.68350183832983</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>43.12145468336458</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>9.186078700641186</v>
+        <v>12.12030604778332</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>16.46408902384902</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.30262245275079</v>
+        <v>5.497235718002104</v>
       </c>
       <c r="D10">
-        <v>15.34763084852697</v>
+        <v>8.714565433554821</v>
       </c>
       <c r="E10">
-        <v>11.27897763114171</v>
+        <v>12.83404216039627</v>
       </c>
       <c r="F10">
-        <v>94.21687213898019</v>
+        <v>26.10338187340461</v>
       </c>
       <c r="G10">
-        <v>1.78816949022623</v>
+        <v>2.054229569928917</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.70365529143205</v>
       </c>
       <c r="J10">
-        <v>4.377372993111218</v>
+        <v>6.85878763319853</v>
       </c>
       <c r="K10">
-        <v>79.89175074218774</v>
+        <v>24.68103164887964</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>49.23459573987955</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>7.761327517029981</v>
+        <v>12.0475641450617</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.0239725963777</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.01896215524311</v>
+        <v>5.656262756501371</v>
       </c>
       <c r="D11">
-        <v>16.5654400739851</v>
+        <v>8.958896088904622</v>
       </c>
       <c r="E11">
-        <v>11.9880286775698</v>
+        <v>13.19383746399446</v>
       </c>
       <c r="F11">
-        <v>101.0729926086812</v>
+        <v>26.70270054038547</v>
       </c>
       <c r="G11">
-        <v>1.734551834973226</v>
+        <v>2.049905655654112</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>17.02562778532408</v>
       </c>
       <c r="J11">
-        <v>4.266350236056706</v>
+        <v>6.968791480559548</v>
       </c>
       <c r="K11">
-        <v>85.19147747428602</v>
+        <v>25.54190446775252</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>52.46851723663269</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>6.945240948920516</v>
+        <v>12.01949624356211</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>17.2973134797219</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.32562530692243</v>
+        <v>5.715391989824581</v>
       </c>
       <c r="D12">
-        <v>17.09633968463044</v>
+        <v>9.050290972180283</v>
       </c>
       <c r="E12">
-        <v>12.29887883101428</v>
+        <v>13.32887097518418</v>
       </c>
       <c r="F12">
-        <v>104.0556122971207</v>
+        <v>26.93131525473375</v>
       </c>
       <c r="G12">
-        <v>1.710748076360266</v>
+        <v>2.04827943889355</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>17.14943348270566</v>
       </c>
       <c r="J12">
-        <v>4.219825692436532</v>
+        <v>7.010773425671577</v>
       </c>
       <c r="K12">
-        <v>87.44926875436329</v>
+        <v>25.86109893708105</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>53.84250675204254</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>6.585040179207467</v>
+        <v>12.00962573804291</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>17.40353658373477</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.25731216597553</v>
+        <v>5.702706027524941</v>
       </c>
       <c r="D13">
-        <v>16.97754442894497</v>
+        <v>9.030658195633714</v>
       </c>
       <c r="E13">
-        <v>12.2292215609507</v>
+        <v>13.29984391082644</v>
       </c>
       <c r="F13">
-        <v>103.3888130925509</v>
+        <v>26.88200634582141</v>
       </c>
       <c r="G13">
-        <v>1.716095946541439</v>
+        <v>2.048629195124736</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>17.12268639290072</v>
       </c>
       <c r="J13">
-        <v>4.230122616330031</v>
+        <v>7.001717571525701</v>
       </c>
       <c r="K13">
-        <v>86.94690001177251</v>
+        <v>25.79265583470783</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>53.53699520993986</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>6.665836816456637</v>
+        <v>12.01171720863127</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>17.38053830508809</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.04325413555414</v>
+        <v>5.661149238964628</v>
       </c>
       <c r="D14">
-        <v>16.60727469489585</v>
+        <v>8.966438018119932</v>
       </c>
       <c r="E14">
-        <v>12.01248236976088</v>
+        <v>13.20497138082091</v>
       </c>
       <c r="F14">
-        <v>101.3082463886109</v>
+        <v>26.72147595220568</v>
       </c>
       <c r="G14">
-        <v>1.732685205736238</v>
+        <v>2.049771648520361</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>17.03577577749856</v>
       </c>
       <c r="J14">
-        <v>4.262638119736964</v>
+        <v>6.972238902898511</v>
       </c>
       <c r="K14">
-        <v>85.37057068434231</v>
+        <v>25.568300604468</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>52.57759124034114</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>6.916943279260111</v>
+        <v>12.01866878116974</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>17.30599793223708</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.91783232232345</v>
+        <v>5.635552323475586</v>
       </c>
       <c r="D15">
-        <v>16.39167343174237</v>
+        <v>8.926953306416374</v>
       </c>
       <c r="E15">
-        <v>11.88652860392368</v>
+        <v>13.14669957164908</v>
       </c>
       <c r="F15">
-        <v>100.0955054152486</v>
+        <v>26.62336062667138</v>
       </c>
       <c r="G15">
-        <v>1.742288128440578</v>
+        <v>2.050472854618914</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.98278486259263</v>
       </c>
       <c r="J15">
-        <v>4.281848416951646</v>
+        <v>6.954224421555166</v>
       </c>
       <c r="K15">
-        <v>84.44544620194645</v>
+        <v>25.42999341346989</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>52.01400396052633</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>7.062610216986717</v>
+        <v>12.0230266681468</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>17.26069427330485</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.25915193982158</v>
+        <v>5.486690528672582</v>
       </c>
       <c r="D16">
-        <v>15.27466502187484</v>
+        <v>8.698442174606683</v>
       </c>
       <c r="E16">
-        <v>11.23665567398961</v>
+        <v>12.81036211258451</v>
       </c>
       <c r="F16">
-        <v>93.8060281821616</v>
+        <v>26.06445331495958</v>
       </c>
       <c r="G16">
-        <v>1.791336137366346</v>
+        <v>2.054513767742367</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.68287828278075</v>
       </c>
       <c r="J16">
-        <v>4.384185157621885</v>
+        <v>6.851644950423428</v>
       </c>
       <c r="K16">
-        <v>79.56901616879924</v>
+        <v>24.62381584892524</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>49.03729443050138</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>7.809697845810589</v>
+        <v>12.04950253574731</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>17.00648731635462</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.890721388561461</v>
+        <v>5.393431074282041</v>
       </c>
       <c r="D17">
-        <v>14.66025374570546</v>
+        <v>8.556292793361562</v>
       </c>
       <c r="E17">
-        <v>10.88095853044143</v>
+        <v>12.60193407403448</v>
       </c>
       <c r="F17">
-        <v>90.34907409235879</v>
+        <v>25.72465404987113</v>
       </c>
       <c r="G17">
-        <v>1.817785097139625</v>
+        <v>2.057013750838891</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.50227356385446</v>
       </c>
       <c r="J17">
-        <v>4.442132650611487</v>
+        <v>6.78931075507983</v>
       </c>
       <c r="K17">
-        <v>76.82875390630079</v>
+        <v>24.11705841608001</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>47.36047472684652</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>8.214293380402399</v>
+        <v>12.06705587914995</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>16.85534089706197</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.687393047260617</v>
+        <v>5.339080798913172</v>
       </c>
       <c r="D18">
-        <v>14.3241328992072</v>
+        <v>8.473824751303399</v>
       </c>
       <c r="E18">
-        <v>10.68687257450866</v>
+        <v>12.48130367635346</v>
       </c>
       <c r="F18">
-        <v>88.4610479813896</v>
+        <v>25.53037409193164</v>
       </c>
       <c r="G18">
-        <v>1.832087127239359</v>
+        <v>2.058459729698239</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.39964450850927</v>
       </c>
       <c r="J18">
-        <v>4.474225288634865</v>
+        <v>6.753681133999128</v>
       </c>
       <c r="K18">
-        <v>75.31277959287523</v>
+        <v>23.82107964008665</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>46.43164403720021</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>8.433444008004916</v>
+        <v>12.07762256883495</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>16.77015902952024</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.619738005995849</v>
+        <v>5.320557048534487</v>
       </c>
       <c r="D19">
-        <v>14.21274255426095</v>
+        <v>8.445782504722688</v>
       </c>
       <c r="E19">
-        <v>10.6226302243513</v>
+        <v>12.44033411446286</v>
       </c>
       <c r="F19">
-        <v>87.83604566612739</v>
+        <v>25.46479756296502</v>
       </c>
       <c r="G19">
-        <v>1.836800126701827</v>
+        <v>2.058950727381156</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.36511159216574</v>
       </c>
       <c r="J19">
-        <v>4.48491385642809</v>
+        <v>6.741656387078923</v>
       </c>
       <c r="K19">
-        <v>74.80779538022145</v>
+        <v>23.72009028453282</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>46.12206204660772</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>8.505706771338534</v>
+        <v>12.08128001660672</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>16.74161798967562</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.92897891966841</v>
+        <v>5.403432230396289</v>
       </c>
       <c r="D20">
-        <v>14.72372776343402</v>
+        <v>8.571498413266603</v>
       </c>
       <c r="E20">
-        <v>10.91764987025702</v>
+        <v>12.62419955520439</v>
       </c>
       <c r="F20">
-        <v>90.70591549044055</v>
+        <v>25.76070664927209</v>
       </c>
       <c r="G20">
-        <v>1.815070827101186</v>
+        <v>2.056746797084237</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.52137007028526</v>
       </c>
       <c r="J20">
-        <v>4.436101137800231</v>
+        <v>6.795923329786589</v>
       </c>
       <c r="K20">
-        <v>77.11370592601565</v>
+        <v>24.17146935610841</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>47.53497153870757</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>8.172728734201929</v>
+        <v>12.06513835123843</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.87124894859159</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.10485071633624</v>
+        <v>5.673385111852451</v>
       </c>
       <c r="D21">
-        <v>16.7135206518157</v>
+        <v>8.98533194724982</v>
       </c>
       <c r="E21">
-        <v>12.07461746446742</v>
+        <v>13.23287110558346</v>
       </c>
       <c r="F21">
-        <v>101.9055594990657</v>
+        <v>26.76858314348554</v>
       </c>
       <c r="G21">
-        <v>1.727937507739714</v>
+        <v>2.049435788233407</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>17.06125265100907</v>
       </c>
       <c r="J21">
-        <v>4.25324483073702</v>
+        <v>6.980888760491019</v>
       </c>
       <c r="K21">
-        <v>85.82450490408664</v>
+        <v>25.63438307534696</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>52.85398781639049</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>6.845007773244467</v>
+        <v>12.01660605999893</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.327818320806</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.135666333331</v>
+        <v>5.843456162746397</v>
       </c>
       <c r="D22">
-        <v>18.53033377281575</v>
+        <v>9.24920928850745</v>
       </c>
       <c r="E22">
-        <v>13.14497125399724</v>
+        <v>13.62358363589468</v>
       </c>
       <c r="F22">
-        <v>112.0628590546123</v>
+        <v>27.4369644375583</v>
       </c>
       <c r="G22">
-        <v>1.645286698686251</v>
+        <v>2.044722102315192</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>17.42505629594972</v>
       </c>
       <c r="J22">
-        <v>4.10156331305525</v>
+        <v>7.103668940211614</v>
       </c>
       <c r="K22">
-        <v>93.38049474480667</v>
+        <v>26.5508887078706</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>57.43961108639834</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>5.602835216839587</v>
+        <v>11.9893252090241</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.64205019265917</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.53952789724354</v>
+        <v>5.753268995184373</v>
       </c>
       <c r="D23">
-        <v>17.47035889081374</v>
+        <v>9.10898745871561</v>
       </c>
       <c r="E23">
-        <v>12.51859277398047</v>
+        <v>13.41571895810013</v>
       </c>
       <c r="F23">
-        <v>106.1521801317372</v>
+        <v>27.07938051299682</v>
       </c>
       <c r="G23">
-        <v>1.693832337087871</v>
+        <v>2.047232351825281</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>17.22989213898387</v>
       </c>
       <c r="J23">
-        <v>4.187866117283353</v>
+        <v>7.037969581989359</v>
       </c>
       <c r="K23">
-        <v>89.02011209690311</v>
+        <v>26.06532869035195</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>54.79700207171575</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>6.329992220521552</v>
+        <v>12.00346694009651</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>17.47287949693304</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.91165723155745</v>
+        <v>5.398912993997771</v>
       </c>
       <c r="D24">
-        <v>14.69497975274271</v>
+        <v>8.56462626789661</v>
       </c>
       <c r="E24">
-        <v>10.90103043642263</v>
+        <v>12.6141358250717</v>
       </c>
       <c r="F24">
-        <v>90.54428802885393</v>
+        <v>25.74440391201648</v>
       </c>
       <c r="G24">
-        <v>1.816300671389497</v>
+        <v>2.056867459683506</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.51273279061865</v>
       </c>
       <c r="J24">
-        <v>4.438831673894306</v>
+        <v>6.792933138460244</v>
       </c>
       <c r="K24">
-        <v>76.98470094258086</v>
+        <v>24.14688461959617</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>47.45597606667619</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>8.191560687529609</v>
+        <v>12.06600378865767</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.86405158163052</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.515790233504777</v>
+        <v>4.989599727214206</v>
       </c>
       <c r="D25">
-        <v>12.42468630506015</v>
+        <v>7.950676667051096</v>
       </c>
       <c r="E25">
-        <v>9.596905554362705</v>
+        <v>11.72132674361677</v>
       </c>
       <c r="F25">
-        <v>77.88150488032589</v>
+        <v>24.34946997267553</v>
       </c>
       <c r="G25">
-        <v>1.910554526407695</v>
+        <v>2.067572069856896</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.78706366912249</v>
       </c>
       <c r="J25">
-        <v>4.659022414484111</v>
+        <v>6.537234269975343</v>
       </c>
       <c r="K25">
-        <v>66.53171378631009</v>
+        <v>21.90501731270248</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>41.03613749059721</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>9.637772735182871</v>
+        <v>12.15132213626219</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.27418079243906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.665317177660389</v>
+        <v>3.97069755430319</v>
       </c>
       <c r="D2">
-        <v>7.477777730324189</v>
+        <v>9.343553168875742</v>
       </c>
       <c r="E2">
-        <v>11.04302011883289</v>
+        <v>13.73693510877937</v>
       </c>
       <c r="F2">
-        <v>23.3654848321241</v>
+        <v>31.98497399215396</v>
       </c>
       <c r="G2">
-        <v>2.075758555240229</v>
+        <v>3.645236685970402</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.29474299227553</v>
+        <v>22.12485348301787</v>
       </c>
       <c r="J2">
-        <v>6.356927857182114</v>
+        <v>9.88353838016239</v>
       </c>
       <c r="K2">
-        <v>20.10314001916468</v>
+        <v>15.07115703360757</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.2283035000078</v>
+        <v>17.18494026279522</v>
       </c>
       <c r="O2">
-        <v>15.89559085815069</v>
+        <v>23.92024737470009</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.431607663612285</v>
+        <v>3.876193474139945</v>
       </c>
       <c r="D3">
-        <v>7.145806570781015</v>
+        <v>9.292105298099736</v>
       </c>
       <c r="E3">
-        <v>10.57257070500995</v>
+        <v>13.67717787110803</v>
       </c>
       <c r="F3">
-        <v>22.7280019051739</v>
+        <v>32.00132083471997</v>
       </c>
       <c r="G3">
-        <v>2.081513484162766</v>
+        <v>3.647436812006525</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.98756831466258</v>
+        <v>22.16263564821602</v>
       </c>
       <c r="J3">
-        <v>6.240008250270742</v>
+        <v>9.889969066870449</v>
       </c>
       <c r="K3">
-        <v>18.78641242690341</v>
+        <v>14.61000172502458</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.28876410436596</v>
+        <v>17.21683520241521</v>
       </c>
       <c r="O3">
-        <v>15.67258198400245</v>
+        <v>23.98198237641336</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.281407200985813</v>
+        <v>3.816303333258358</v>
       </c>
       <c r="D4">
-        <v>6.936964594870801</v>
+        <v>9.261869134761881</v>
       </c>
       <c r="E4">
-        <v>10.27938422340956</v>
+        <v>13.64320806552081</v>
       </c>
       <c r="F4">
-        <v>22.35192267050896</v>
+        <v>32.02028928498228</v>
       </c>
       <c r="G4">
-        <v>2.085154208882249</v>
+        <v>3.64885935151357</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.81204566752214</v>
+        <v>22.19171358719092</v>
       </c>
       <c r="J4">
-        <v>6.170924738613295</v>
+        <v>9.89554775896101</v>
       </c>
       <c r="K4">
-        <v>17.93043191328756</v>
+        <v>14.32080056799128</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.32981090033345</v>
+        <v>17.23824125943418</v>
       </c>
       <c r="O4">
-        <v>15.55169695285098</v>
+        <v>24.0260560528477</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.218547967302587</v>
+        <v>3.791448430726454</v>
       </c>
       <c r="D5">
-        <v>6.850715675232018</v>
+        <v>9.249897313255637</v>
       </c>
       <c r="E5">
-        <v>10.15899040721679</v>
+        <v>13.63005994388026</v>
       </c>
       <c r="F5">
-        <v>22.20264901123965</v>
+        <v>32.03026126785269</v>
       </c>
       <c r="G5">
-        <v>2.086665494735725</v>
+        <v>3.6494571236529</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.74380330122836</v>
+        <v>22.2050373706762</v>
       </c>
       <c r="J5">
-        <v>6.143468255932202</v>
+        <v>9.89823126846232</v>
       </c>
       <c r="K5">
-        <v>17.56962315914981</v>
+        <v>14.20160050145848</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.34750141966562</v>
+        <v>17.24742338215255</v>
       </c>
       <c r="O5">
-        <v>15.50638082312815</v>
+        <v>24.04556214361808</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.208011642676859</v>
+        <v>3.787294762007731</v>
       </c>
       <c r="D6">
-        <v>6.836328706082606</v>
+        <v>9.247930786143614</v>
       </c>
       <c r="E6">
-        <v>10.13894905642626</v>
+        <v>13.62791896592096</v>
       </c>
       <c r="F6">
-        <v>22.17810615648451</v>
+        <v>32.03205239602334</v>
       </c>
       <c r="G6">
-        <v>2.086918133418823</v>
+        <v>3.649557476696318</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.7326696786832</v>
+        <v>22.20733868534775</v>
       </c>
       <c r="J6">
-        <v>6.138951560092883</v>
+        <v>9.898701639016521</v>
       </c>
       <c r="K6">
-        <v>17.5089858390743</v>
+        <v>14.18173130293402</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.35049647124243</v>
+        <v>17.24897580899107</v>
       </c>
       <c r="O6">
-        <v>15.4990915508333</v>
+        <v>24.04889430970482</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.280566095250856</v>
+        <v>3.81596992322606</v>
       </c>
       <c r="D7">
-        <v>6.935805879421612</v>
+        <v>9.261706250723755</v>
       </c>
       <c r="E7">
-        <v>10.27776402629766</v>
+        <v>13.6430279186699</v>
       </c>
       <c r="F7">
-        <v>22.34989323463549</v>
+        <v>32.02041469803596</v>
       </c>
       <c r="G7">
-        <v>2.08517447769633</v>
+        <v>3.648867340012732</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.81111204455784</v>
+        <v>22.19188731301347</v>
       </c>
       <c r="J7">
-        <v>6.170551615198922</v>
+        <v>9.895582288842665</v>
       </c>
       <c r="K7">
-        <v>17.92561451988481</v>
+        <v>14.3191982149858</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.33004560857423</v>
+        <v>17.23836323341594</v>
       </c>
       <c r="O7">
-        <v>15.55106995578299</v>
+        <v>24.02631286762015</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.586143201849752</v>
+        <v>3.938510819139503</v>
       </c>
       <c r="D8">
-        <v>7.364418462869001</v>
+        <v>9.325538917349926</v>
       </c>
       <c r="E8">
-        <v>10.88180333242583</v>
+        <v>13.71577257724662</v>
       </c>
       <c r="F8">
-        <v>23.1425748601633</v>
+        <v>31.98875484498594</v>
       </c>
       <c r="G8">
-        <v>2.077721049660167</v>
+        <v>3.645980452745189</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.18611391758322</v>
+        <v>22.13665813125263</v>
       </c>
       <c r="J8">
-        <v>6.316061930111617</v>
+        <v>9.885417488370107</v>
       </c>
       <c r="K8">
-        <v>19.65896286305028</v>
+        <v>14.91350611327996</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.24832162621352</v>
+        <v>17.19555981886677</v>
       </c>
       <c r="O8">
-        <v>15.81531846257229</v>
+        <v>23.94025031472835</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.131070311186646</v>
+        <v>4.163228654192226</v>
       </c>
       <c r="D9">
-        <v>8.160895567580519</v>
+        <v>9.461015574272993</v>
       </c>
       <c r="E9">
-        <v>12.0255816029279</v>
+        <v>13.87951510752249</v>
       </c>
       <c r="F9">
-        <v>24.81297767427754</v>
+        <v>31.99764383734275</v>
       </c>
       <c r="G9">
-        <v>2.063921212169217</v>
+        <v>3.640885166627954</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.02503481798926</v>
+        <v>22.07516856557783</v>
       </c>
       <c r="J9">
-        <v>6.622169723288153</v>
+        <v>9.878406419917713</v>
       </c>
       <c r="K9">
-        <v>22.68350183832983</v>
+        <v>16.02400689956949</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.12030604778332</v>
+        <v>17.12605177586768</v>
       </c>
       <c r="O9">
-        <v>16.46408902384902</v>
+        <v>23.82064633501019</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.497235718002104</v>
+        <v>4.317862430201219</v>
       </c>
       <c r="D10">
-        <v>8.714565433554821</v>
+        <v>9.566220662833834</v>
       </c>
       <c r="E10">
-        <v>12.83404216039627</v>
+        <v>14.01194687810959</v>
       </c>
       <c r="F10">
-        <v>26.10338187340461</v>
+        <v>32.04750280776449</v>
       </c>
       <c r="G10">
-        <v>2.054229569928917</v>
+        <v>3.637482938653894</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.70365529143205</v>
+        <v>22.05871987144928</v>
       </c>
       <c r="J10">
-        <v>6.85878763319853</v>
+        <v>9.88111009754468</v>
       </c>
       <c r="K10">
-        <v>24.68103164887964</v>
+        <v>16.79806282003841</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.0475641450617</v>
+        <v>17.08373991632443</v>
       </c>
       <c r="O10">
-        <v>17.0239725963777</v>
+        <v>23.76302774906321</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.656262756501371</v>
+        <v>4.385758617986729</v>
       </c>
       <c r="D11">
-        <v>8.958896088904622</v>
+        <v>9.615175279199088</v>
       </c>
       <c r="E11">
-        <v>13.19383746399446</v>
+        <v>14.07465682068189</v>
       </c>
       <c r="F11">
-        <v>26.70270054038547</v>
+        <v>32.07957564892024</v>
       </c>
       <c r="G11">
-        <v>2.049905655654112</v>
+        <v>3.636008494407183</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.02562778532408</v>
+        <v>22.05750214222378</v>
       </c>
       <c r="J11">
-        <v>6.968791480559548</v>
+        <v>9.884038242897534</v>
       </c>
       <c r="K11">
-        <v>25.54190446775252</v>
+        <v>17.13961854440843</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.01949624356211</v>
+        <v>17.0663838598383</v>
       </c>
       <c r="O11">
-        <v>17.2973134797219</v>
+        <v>23.74343684740311</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.715391989824581</v>
+        <v>4.411103958922822</v>
       </c>
       <c r="D12">
-        <v>9.050290972180283</v>
+        <v>9.633858749612394</v>
       </c>
       <c r="E12">
-        <v>13.32887097518418</v>
+        <v>14.09874263118752</v>
       </c>
       <c r="F12">
-        <v>26.93131525473375</v>
+        <v>32.09306720422364</v>
       </c>
       <c r="G12">
-        <v>2.04827943889355</v>
+        <v>3.635460633688095</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.14943348270566</v>
+        <v>22.05794297051788</v>
       </c>
       <c r="J12">
-        <v>7.010773425671577</v>
+        <v>9.885390380072367</v>
       </c>
       <c r="K12">
-        <v>25.86109893708105</v>
+        <v>17.26732926442858</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.00962573804291</v>
+        <v>17.06008293142805</v>
       </c>
       <c r="O12">
-        <v>17.40353658373477</v>
+        <v>23.73697371384501</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.702706027524941</v>
+        <v>4.405661843211455</v>
       </c>
       <c r="D13">
-        <v>9.030658195633714</v>
+        <v>9.629828659381392</v>
       </c>
       <c r="E13">
-        <v>13.29984391082644</v>
+        <v>14.09354050370092</v>
       </c>
       <c r="F13">
-        <v>26.88200634582141</v>
+        <v>32.09010176512471</v>
       </c>
       <c r="G13">
-        <v>2.048629195124736</v>
+        <v>3.635578160071965</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.12268639290072</v>
+        <v>22.05780790588769</v>
       </c>
       <c r="J13">
-        <v>7.001717571525701</v>
+        <v>9.885088367406919</v>
       </c>
       <c r="K13">
-        <v>25.79265583470783</v>
+        <v>17.23989854737675</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.01171720863127</v>
+        <v>17.06142788667461</v>
       </c>
       <c r="O13">
-        <v>17.38053830508809</v>
+        <v>23.73832311713939</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.661149238964628</v>
+        <v>4.387851192203984</v>
       </c>
       <c r="D14">
-        <v>8.966438018119932</v>
+        <v>9.616709535937828</v>
       </c>
       <c r="E14">
-        <v>13.20497138082091</v>
+        <v>14.07663167441578</v>
       </c>
       <c r="F14">
-        <v>26.72147595220568</v>
+        <v>32.0806586560136</v>
       </c>
       <c r="G14">
-        <v>2.049771648520361</v>
+        <v>3.635963211859666</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.03577577749856</v>
+        <v>22.05752032923515</v>
       </c>
       <c r="J14">
-        <v>6.972238902898511</v>
+        <v>9.8841446132878</v>
       </c>
       <c r="K14">
-        <v>25.568300604468</v>
+        <v>17.1501586162141</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.01866878116974</v>
+        <v>17.06586004220836</v>
       </c>
       <c r="O14">
-        <v>17.30599793223708</v>
+        <v>23.74288595295583</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.635552323475586</v>
+        <v>4.376893678275164</v>
       </c>
       <c r="D15">
-        <v>8.926953306416374</v>
+        <v>9.608692265311534</v>
       </c>
       <c r="E15">
-        <v>13.14669957164908</v>
+        <v>14.06631818920667</v>
       </c>
       <c r="F15">
-        <v>26.62336062667138</v>
+        <v>32.07504964980878</v>
       </c>
       <c r="G15">
-        <v>2.050472854618914</v>
+        <v>3.636200430335521</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.98278486259263</v>
+        <v>22.05746166143404</v>
       </c>
       <c r="J15">
-        <v>6.954224421555166</v>
+        <v>9.883598194284986</v>
       </c>
       <c r="K15">
-        <v>25.42999341346989</v>
+        <v>17.09497511888932</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.0230266681468</v>
+        <v>17.06861019610069</v>
       </c>
       <c r="O15">
-        <v>17.26069427330485</v>
+        <v>23.74580535506636</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.486690528672582</v>
+        <v>4.31337482079196</v>
       </c>
       <c r="D16">
-        <v>8.698442174606683</v>
+        <v>9.563042383885989</v>
       </c>
       <c r="E16">
-        <v>12.81036211258451</v>
+        <v>14.00789693082899</v>
       </c>
       <c r="F16">
-        <v>26.06445331495958</v>
+        <v>32.04559542988321</v>
       </c>
       <c r="G16">
-        <v>2.054513767742367</v>
+        <v>3.637580766381139</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.68287828278075</v>
+        <v>22.05892562602319</v>
       </c>
       <c r="J16">
-        <v>6.851644950423428</v>
+        <v>9.880952835991879</v>
       </c>
       <c r="K16">
-        <v>24.62381584892524</v>
+        <v>16.77551908978731</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.04950253574731</v>
+        <v>17.08491219166768</v>
       </c>
       <c r="O16">
-        <v>17.00648731635462</v>
+        <v>23.76444158877264</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.393431074282041</v>
+        <v>4.273771185108491</v>
       </c>
       <c r="D17">
-        <v>8.556292793361562</v>
+        <v>9.53530982342239</v>
       </c>
       <c r="E17">
-        <v>12.60193407403448</v>
+        <v>13.97267801974764</v>
       </c>
       <c r="F17">
-        <v>25.72465404987113</v>
+        <v>32.02992913786434</v>
       </c>
       <c r="G17">
-        <v>2.057013750838891</v>
+        <v>3.63844627984152</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.50227356385446</v>
+        <v>22.06142929103657</v>
       </c>
       <c r="J17">
-        <v>6.78931075507983</v>
+        <v>9.879764360603922</v>
       </c>
       <c r="K17">
-        <v>24.11705841608001</v>
+        <v>16.5767551190346</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.06705587914995</v>
+        <v>17.0953970451445</v>
       </c>
       <c r="O17">
-        <v>16.85534089706197</v>
+        <v>23.77757256245817</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.339080798913172</v>
+        <v>4.250762581048889</v>
       </c>
       <c r="D18">
-        <v>8.473824751303399</v>
+        <v>9.519462724419382</v>
       </c>
       <c r="E18">
-        <v>12.48130367635346</v>
+        <v>13.95265413113731</v>
       </c>
       <c r="F18">
-        <v>25.53037409193164</v>
+        <v>32.02180264992898</v>
       </c>
       <c r="G18">
-        <v>2.058459729698239</v>
+        <v>3.638950997749052</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.39964450850927</v>
+        <v>22.06345899129835</v>
       </c>
       <c r="J18">
-        <v>6.753681133999128</v>
+        <v>9.879240688257964</v>
       </c>
       <c r="K18">
-        <v>23.82107964008665</v>
+        <v>16.46144257242087</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.07762256883495</v>
+        <v>17.10160575879337</v>
       </c>
       <c r="O18">
-        <v>16.77015902952024</v>
+        <v>23.78574808260127</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.320557048534487</v>
+        <v>4.242933254274874</v>
       </c>
       <c r="D19">
-        <v>8.445782504722688</v>
+        <v>9.514115388845749</v>
       </c>
       <c r="E19">
-        <v>12.44033411446286</v>
+        <v>13.9459148898286</v>
       </c>
       <c r="F19">
-        <v>25.46479756296502</v>
+        <v>32.01920315273244</v>
       </c>
       <c r="G19">
-        <v>2.058950727381156</v>
+        <v>3.639123072839565</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.36511159216574</v>
+        <v>22.06424744308572</v>
       </c>
       <c r="J19">
-        <v>6.741656387078923</v>
+        <v>9.879090870954087</v>
       </c>
       <c r="K19">
-        <v>23.72009028453282</v>
+        <v>16.42223343901523</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.08128001660672</v>
+        <v>17.1037385305407</v>
       </c>
       <c r="O19">
-        <v>16.74161798967562</v>
+        <v>23.78862304594793</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.403432230396289</v>
+        <v>4.278010928476875</v>
       </c>
       <c r="D20">
-        <v>8.571498413266603</v>
+        <v>9.538251332657138</v>
       </c>
       <c r="E20">
-        <v>12.62419955520439</v>
+        <v>13.97640312010038</v>
       </c>
       <c r="F20">
-        <v>25.76070664927209</v>
+        <v>32.03150534044919</v>
       </c>
       <c r="G20">
-        <v>2.056746797084237</v>
+        <v>3.638353430982458</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.52137007028526</v>
+        <v>22.0611017341407</v>
       </c>
       <c r="J20">
-        <v>6.795923329786589</v>
+        <v>9.8798743320603</v>
       </c>
       <c r="K20">
-        <v>24.17146935610841</v>
+        <v>16.59801704838593</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.06513835123843</v>
+        <v>17.09426248597783</v>
       </c>
       <c r="O20">
-        <v>16.87124894859159</v>
+        <v>23.77611024947259</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.673385111852451</v>
+        <v>4.393092632722404</v>
       </c>
       <c r="D21">
-        <v>8.98533194724982</v>
+        <v>9.620559092383019</v>
       </c>
       <c r="E21">
-        <v>13.23287110558346</v>
+        <v>14.08158913736846</v>
       </c>
       <c r="F21">
-        <v>26.76858314348554</v>
+        <v>32.08339583039923</v>
       </c>
       <c r="G21">
-        <v>2.049435788233407</v>
+        <v>3.635849828833933</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.06125265100907</v>
+        <v>22.05758031356027</v>
       </c>
       <c r="J21">
-        <v>6.980888760491019</v>
+        <v>9.884415221106172</v>
       </c>
       <c r="K21">
-        <v>25.63438307534696</v>
+        <v>17.17656243566995</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.01660605999893</v>
+        <v>17.06455084889626</v>
       </c>
       <c r="O21">
-        <v>17.327818320806</v>
+        <v>23.74151977916961</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.843456162746397</v>
+        <v>4.466169499478869</v>
       </c>
       <c r="D22">
-        <v>9.24920928850745</v>
+        <v>9.67519377312049</v>
       </c>
       <c r="E22">
-        <v>13.62358363589468</v>
+        <v>14.15230206663046</v>
       </c>
       <c r="F22">
-        <v>27.4369644375583</v>
+        <v>32.12515326552224</v>
       </c>
       <c r="G22">
-        <v>2.044722102315192</v>
+        <v>3.6342746370816</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.42505629594972</v>
+        <v>22.06053615023656</v>
       </c>
       <c r="J22">
-        <v>7.103668940211614</v>
+        <v>9.888800654098178</v>
       </c>
       <c r="K22">
-        <v>26.5508887078706</v>
+        <v>17.54513742248717</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.9893252090241</v>
+        <v>17.04671441823849</v>
       </c>
       <c r="O22">
-        <v>17.64205019265917</v>
+        <v>23.72448367972873</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.753268995184373</v>
+        <v>4.427366572871212</v>
       </c>
       <c r="D23">
-        <v>9.10898745871561</v>
+        <v>9.64596128424026</v>
       </c>
       <c r="E23">
-        <v>13.41571895810013</v>
+        <v>14.11438652628399</v>
       </c>
       <c r="F23">
-        <v>27.07938051299682</v>
+        <v>32.10215061741205</v>
       </c>
       <c r="G23">
-        <v>2.047232351825281</v>
+        <v>3.635109777390897</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.22989213898387</v>
+        <v>22.05847734948518</v>
       </c>
       <c r="J23">
-        <v>7.037969581989359</v>
+        <v>9.886330675949987</v>
       </c>
       <c r="K23">
-        <v>26.06532869035195</v>
+        <v>17.34932793605365</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.00346694009651</v>
+        <v>17.05608951860571</v>
       </c>
       <c r="O23">
-        <v>17.47287949693304</v>
+        <v>23.73306539488724</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.398912993997771</v>
+        <v>4.276094886849827</v>
       </c>
       <c r="D24">
-        <v>8.56462626789661</v>
+        <v>9.536921174145176</v>
       </c>
       <c r="E24">
-        <v>12.6141358250717</v>
+        <v>13.97471830353454</v>
       </c>
       <c r="F24">
-        <v>25.74440391201648</v>
+        <v>32.03078999692396</v>
       </c>
       <c r="G24">
-        <v>2.056867459683506</v>
+        <v>3.638395385760848</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.51273279061865</v>
+        <v>22.06124798389266</v>
       </c>
       <c r="J24">
-        <v>6.792933138460244</v>
+        <v>9.879824116767141</v>
       </c>
       <c r="K24">
-        <v>24.14688461959617</v>
+        <v>16.58840776255596</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.06600378865767</v>
+        <v>17.09477485683623</v>
       </c>
       <c r="O24">
-        <v>16.86405158163052</v>
+        <v>23.77676941036694</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.989599727214206</v>
+        <v>4.10420978749578</v>
       </c>
       <c r="D25">
-        <v>7.950676667051096</v>
+        <v>9.423324146883166</v>
       </c>
       <c r="E25">
-        <v>11.72132674361677</v>
+        <v>13.83303247962456</v>
       </c>
       <c r="F25">
-        <v>24.34946997267553</v>
+        <v>31.98762876962223</v>
       </c>
       <c r="G25">
-        <v>2.067572069856896</v>
+        <v>3.642203378347935</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.78706366912249</v>
+        <v>22.08676936116854</v>
       </c>
       <c r="J25">
-        <v>6.537234269975343</v>
+        <v>9.878921561004923</v>
       </c>
       <c r="K25">
-        <v>21.90501731270248</v>
+        <v>15.73038091970231</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.15132213626219</v>
+        <v>17.14331501829181</v>
       </c>
       <c r="O25">
-        <v>16.27418079243906</v>
+        <v>23.84770815241905</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.97069755430319</v>
+        <v>4.665317177660389</v>
       </c>
       <c r="D2">
-        <v>9.343553168875742</v>
+        <v>7.477777730324219</v>
       </c>
       <c r="E2">
-        <v>13.73693510877937</v>
+        <v>11.04302011883293</v>
       </c>
       <c r="F2">
-        <v>31.98497399215396</v>
+        <v>23.36548483212414</v>
       </c>
       <c r="G2">
-        <v>3.645236685970402</v>
+        <v>2.075758555240362</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.12485348301787</v>
+        <v>15.29474299227553</v>
       </c>
       <c r="J2">
-        <v>9.88353838016239</v>
+        <v>6.356927857182121</v>
       </c>
       <c r="K2">
-        <v>15.07115703360757</v>
+        <v>20.10314001916468</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.18494026279522</v>
+        <v>12.2283035000078</v>
       </c>
       <c r="O2">
-        <v>23.92024737470009</v>
+        <v>15.89559085815069</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.876193474139945</v>
+        <v>4.43160766361227</v>
       </c>
       <c r="D3">
-        <v>9.292105298099736</v>
+        <v>7.145806570781131</v>
       </c>
       <c r="E3">
-        <v>13.67717787110803</v>
+        <v>10.57257070501003</v>
       </c>
       <c r="F3">
-        <v>32.00132083471997</v>
+        <v>22.72800190517395</v>
       </c>
       <c r="G3">
-        <v>3.647436812006525</v>
+        <v>2.081513484162766</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.16263564821602</v>
+        <v>14.98756831466254</v>
       </c>
       <c r="J3">
-        <v>9.889969066870449</v>
+        <v>6.240008250270765</v>
       </c>
       <c r="K3">
-        <v>14.61000172502458</v>
+        <v>18.78641242690344</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.21683520241521</v>
+        <v>12.28876410436596</v>
       </c>
       <c r="O3">
-        <v>23.98198237641336</v>
+        <v>15.6725819840024</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.816303333258358</v>
+        <v>4.281407200985813</v>
       </c>
       <c r="D4">
-        <v>9.261869134761881</v>
+        <v>6.936964594870715</v>
       </c>
       <c r="E4">
-        <v>13.64320806552081</v>
+        <v>10.27938422340955</v>
       </c>
       <c r="F4">
-        <v>32.02028928498228</v>
+        <v>22.3519226705088</v>
       </c>
       <c r="G4">
-        <v>3.64885935151357</v>
+        <v>2.085154208882115</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.19171358719092</v>
+        <v>14.81204566752202</v>
       </c>
       <c r="J4">
-        <v>9.89554775896101</v>
+        <v>6.170924738613299</v>
       </c>
       <c r="K4">
-        <v>14.32080056799128</v>
+        <v>17.9304319132876</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.23824125943418</v>
+        <v>12.32981090033339</v>
       </c>
       <c r="O4">
-        <v>24.0260560528477</v>
+        <v>15.55169695285086</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.791448430726454</v>
+        <v>4.2185479673026</v>
       </c>
       <c r="D5">
-        <v>9.249897313255637</v>
+        <v>6.850715675232068</v>
       </c>
       <c r="E5">
-        <v>13.63005994388026</v>
+        <v>10.15899040721684</v>
       </c>
       <c r="F5">
-        <v>32.03026126785269</v>
+        <v>22.2026490112396</v>
       </c>
       <c r="G5">
-        <v>3.6494571236529</v>
+        <v>2.086665494735991</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.2050373706762</v>
+        <v>14.74380330122831</v>
       </c>
       <c r="J5">
-        <v>9.89823126846232</v>
+        <v>6.143468255932207</v>
       </c>
       <c r="K5">
-        <v>14.20160050145848</v>
+        <v>17.56962315914981</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.24742338215255</v>
+        <v>12.34750141966555</v>
       </c>
       <c r="O5">
-        <v>24.04556214361808</v>
+        <v>15.50638082312808</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.787294762007731</v>
+        <v>4.208011642676885</v>
       </c>
       <c r="D6">
-        <v>9.247930786143614</v>
+        <v>6.836328706082546</v>
       </c>
       <c r="E6">
-        <v>13.62791896592096</v>
+        <v>10.13894905642628</v>
       </c>
       <c r="F6">
-        <v>32.03205239602334</v>
+        <v>22.17810615648441</v>
       </c>
       <c r="G6">
-        <v>3.649557476696318</v>
+        <v>2.086918133418957</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.20733868534775</v>
+        <v>14.73266967868322</v>
       </c>
       <c r="J6">
-        <v>9.898701639016521</v>
+        <v>6.138951560092949</v>
       </c>
       <c r="K6">
-        <v>14.18173130293402</v>
+        <v>17.5089858390743</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.24897580899107</v>
+        <v>12.35049647124239</v>
       </c>
       <c r="O6">
-        <v>24.04889430970482</v>
+        <v>15.49909155083327</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.81596992322606</v>
+        <v>4.280566095250761</v>
       </c>
       <c r="D7">
-        <v>9.261706250723755</v>
+        <v>6.935805879421572</v>
       </c>
       <c r="E7">
-        <v>13.6430279186699</v>
+        <v>10.27776402629764</v>
       </c>
       <c r="F7">
-        <v>32.02041469803596</v>
+        <v>22.34989323463547</v>
       </c>
       <c r="G7">
-        <v>3.648867340012732</v>
+        <v>2.085174477696599</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.19188731301347</v>
+        <v>14.81111204455788</v>
       </c>
       <c r="J7">
-        <v>9.895582288842665</v>
+        <v>6.170551615198918</v>
       </c>
       <c r="K7">
-        <v>14.3191982149858</v>
+        <v>17.92561451988478</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.23836323341594</v>
+        <v>12.3300456085742</v>
       </c>
       <c r="O7">
-        <v>24.02631286762015</v>
+        <v>15.55106995578298</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.938510819139503</v>
+        <v>4.586143201849765</v>
       </c>
       <c r="D8">
-        <v>9.325538917349926</v>
+        <v>7.36441846286897</v>
       </c>
       <c r="E8">
-        <v>13.71577257724662</v>
+        <v>10.88180333242577</v>
       </c>
       <c r="F8">
-        <v>31.98875484498594</v>
+        <v>23.14257486016335</v>
       </c>
       <c r="G8">
-        <v>3.645980452745189</v>
+        <v>2.077721049660032</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.13665813125263</v>
+        <v>15.18611391758326</v>
       </c>
       <c r="J8">
-        <v>9.885417488370107</v>
+        <v>6.316061930111575</v>
       </c>
       <c r="K8">
-        <v>14.91350611327996</v>
+        <v>19.65896286305026</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.19555981886677</v>
+        <v>12.24832162621356</v>
       </c>
       <c r="O8">
-        <v>23.94025031472835</v>
+        <v>15.81531846257238</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.163228654192226</v>
+        <v>5.131070311186734</v>
       </c>
       <c r="D9">
-        <v>9.461015574272993</v>
+        <v>8.160895567580591</v>
       </c>
       <c r="E9">
-        <v>13.87951510752249</v>
+        <v>12.02558160292791</v>
       </c>
       <c r="F9">
-        <v>31.99764383734275</v>
+        <v>24.81297767427752</v>
       </c>
       <c r="G9">
-        <v>3.640885166627954</v>
+        <v>2.063921212168816</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.07516856557783</v>
+        <v>16.02503481798918</v>
       </c>
       <c r="J9">
-        <v>9.878406419917713</v>
+        <v>6.622169723288137</v>
       </c>
       <c r="K9">
-        <v>16.02400689956949</v>
+        <v>22.68350183832985</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.12605177586768</v>
+        <v>12.12030604778329</v>
       </c>
       <c r="O9">
-        <v>23.82064633501019</v>
+        <v>16.46408902384894</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.317862430201219</v>
+        <v>5.497235718002089</v>
       </c>
       <c r="D10">
-        <v>9.566220662833834</v>
+        <v>8.71456543355486</v>
       </c>
       <c r="E10">
-        <v>14.01194687810959</v>
+        <v>12.8340421603963</v>
       </c>
       <c r="F10">
-        <v>32.04750280776449</v>
+        <v>26.10338187340458</v>
       </c>
       <c r="G10">
-        <v>3.637482938653894</v>
+        <v>2.054229569928916</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.05871987144928</v>
+        <v>16.70365529143197</v>
       </c>
       <c r="J10">
-        <v>9.88111009754468</v>
+        <v>6.858787633198526</v>
       </c>
       <c r="K10">
-        <v>16.79806282003841</v>
+        <v>24.68103164887973</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.08373991632443</v>
+        <v>12.04756414506166</v>
       </c>
       <c r="O10">
-        <v>23.76302774906321</v>
+        <v>17.02397259637763</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.385758617986729</v>
+        <v>5.656262756501377</v>
       </c>
       <c r="D11">
-        <v>9.615175279199088</v>
+        <v>8.958896088904627</v>
       </c>
       <c r="E11">
-        <v>14.07465682068189</v>
+        <v>13.19383746399445</v>
       </c>
       <c r="F11">
-        <v>32.07957564892024</v>
+        <v>26.70270054038547</v>
       </c>
       <c r="G11">
-        <v>3.636008494407183</v>
+        <v>2.049905655654112</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.05750214222378</v>
+        <v>17.02562778532408</v>
       </c>
       <c r="J11">
-        <v>9.884038242897534</v>
+        <v>6.968791480559548</v>
       </c>
       <c r="K11">
-        <v>17.13961854440843</v>
+        <v>25.54190446775254</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.0663838598383</v>
+        <v>12.01949624356204</v>
       </c>
       <c r="O11">
-        <v>23.74343684740311</v>
+        <v>17.29731347972186</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.411103958922822</v>
+        <v>5.715391989824502</v>
       </c>
       <c r="D12">
-        <v>9.633858749612394</v>
+        <v>9.050290972180262</v>
       </c>
       <c r="E12">
-        <v>14.09874263118752</v>
+        <v>13.32887097518418</v>
       </c>
       <c r="F12">
-        <v>32.09306720422364</v>
+        <v>26.93131525473376</v>
       </c>
       <c r="G12">
-        <v>3.635460633688095</v>
+        <v>2.04827943889355</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.05794297051788</v>
+        <v>17.14943348270569</v>
       </c>
       <c r="J12">
-        <v>9.885390380072367</v>
+        <v>7.010773425671592</v>
       </c>
       <c r="K12">
-        <v>17.26732926442858</v>
+        <v>25.86109893708106</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.06008293142805</v>
+        <v>12.00962573804293</v>
       </c>
       <c r="O12">
-        <v>23.73697371384501</v>
+        <v>17.40353658373478</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.405661843211455</v>
+        <v>5.702706027524862</v>
       </c>
       <c r="D13">
-        <v>9.629828659381392</v>
+        <v>9.03065819563373</v>
       </c>
       <c r="E13">
-        <v>14.09354050370092</v>
+        <v>13.29984391082645</v>
       </c>
       <c r="F13">
-        <v>32.09010176512471</v>
+        <v>26.88200634582141</v>
       </c>
       <c r="G13">
-        <v>3.635578160071965</v>
+        <v>2.048629195124867</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.05780790588769</v>
+        <v>17.12268639290073</v>
       </c>
       <c r="J13">
-        <v>9.885088367406919</v>
+        <v>7.001717571525705</v>
       </c>
       <c r="K13">
-        <v>17.23989854737675</v>
+        <v>25.79265583470783</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.06142788667461</v>
+        <v>12.01171720863127</v>
       </c>
       <c r="O13">
-        <v>23.73832311713939</v>
+        <v>17.38053830508809</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.387851192203984</v>
+        <v>5.661149238964556</v>
       </c>
       <c r="D14">
-        <v>9.616709535937828</v>
+        <v>8.966438018119941</v>
       </c>
       <c r="E14">
-        <v>14.07663167441578</v>
+        <v>13.2049713808209</v>
       </c>
       <c r="F14">
-        <v>32.0806586560136</v>
+        <v>26.72147595220569</v>
       </c>
       <c r="G14">
-        <v>3.635963211859666</v>
+        <v>2.049771648520361</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.05752032923515</v>
+        <v>17.03577577749858</v>
       </c>
       <c r="J14">
-        <v>9.8841446132878</v>
+        <v>6.972238902898502</v>
       </c>
       <c r="K14">
-        <v>17.1501586162141</v>
+        <v>25.568300604468</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.06586004220836</v>
+        <v>12.01866878116974</v>
       </c>
       <c r="O14">
-        <v>23.74288595295583</v>
+        <v>17.30599793223709</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.376893678275164</v>
+        <v>5.635552323475578</v>
       </c>
       <c r="D15">
-        <v>9.608692265311534</v>
+        <v>8.92695330641642</v>
       </c>
       <c r="E15">
-        <v>14.06631818920667</v>
+        <v>13.14669957164911</v>
       </c>
       <c r="F15">
-        <v>32.07504964980878</v>
+        <v>26.62336062667135</v>
       </c>
       <c r="G15">
-        <v>3.636200430335521</v>
+        <v>2.050472854619048</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.05746166143404</v>
+        <v>16.98278486259258</v>
       </c>
       <c r="J15">
-        <v>9.883598194284986</v>
+        <v>6.954224421555182</v>
       </c>
       <c r="K15">
-        <v>17.09497511888932</v>
+        <v>25.42999341346994</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.06861019610069</v>
+        <v>12.02302666814678</v>
       </c>
       <c r="O15">
-        <v>23.74580535506636</v>
+        <v>17.26069427330477</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.31337482079196</v>
+        <v>5.486690528672643</v>
       </c>
       <c r="D16">
-        <v>9.563042383885989</v>
+        <v>8.698442174606736</v>
       </c>
       <c r="E16">
-        <v>14.00789693082899</v>
+        <v>12.81036211258455</v>
       </c>
       <c r="F16">
-        <v>32.04559542988321</v>
+        <v>26.06445331495954</v>
       </c>
       <c r="G16">
-        <v>3.637580766381139</v>
+        <v>2.054513767742501</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.05892562602319</v>
+        <v>16.68287828278069</v>
       </c>
       <c r="J16">
-        <v>9.880952835991879</v>
+        <v>6.851644950423462</v>
       </c>
       <c r="K16">
-        <v>16.77551908978731</v>
+        <v>24.62381584892531</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.08491219166768</v>
+        <v>12.04950253574728</v>
       </c>
       <c r="O16">
-        <v>23.76444158877264</v>
+        <v>17.00648731635453</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.273771185108491</v>
+        <v>5.393431074281793</v>
       </c>
       <c r="D17">
-        <v>9.53530982342239</v>
+        <v>8.55629279336156</v>
       </c>
       <c r="E17">
-        <v>13.97267801974764</v>
+        <v>12.6019340740345</v>
       </c>
       <c r="F17">
-        <v>32.02992913786434</v>
+        <v>25.72465404987108</v>
       </c>
       <c r="G17">
-        <v>3.63844627984152</v>
+        <v>2.057013750839026</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.06142929103657</v>
+        <v>16.50227356385443</v>
       </c>
       <c r="J17">
-        <v>9.879764360603922</v>
+        <v>6.789310755079837</v>
       </c>
       <c r="K17">
-        <v>16.5767551190346</v>
+        <v>24.11705841608009</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.0953970451445</v>
+        <v>12.06705587914989</v>
       </c>
       <c r="O17">
-        <v>23.77757256245817</v>
+        <v>16.8553408970619</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.250762581048889</v>
+        <v>5.339080798913078</v>
       </c>
       <c r="D18">
-        <v>9.519462724419382</v>
+        <v>8.473824751303342</v>
       </c>
       <c r="E18">
-        <v>13.95265413113731</v>
+        <v>12.48130367635343</v>
       </c>
       <c r="F18">
-        <v>32.02180264992898</v>
+        <v>25.53037409193159</v>
       </c>
       <c r="G18">
-        <v>3.638950997749052</v>
+        <v>2.058459729698374</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.06345899129835</v>
+        <v>16.39964450850928</v>
       </c>
       <c r="J18">
-        <v>9.879240688257964</v>
+        <v>6.753681133999128</v>
       </c>
       <c r="K18">
-        <v>16.46144257242087</v>
+        <v>23.82107964008664</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.10160575879337</v>
+        <v>12.07762256883495</v>
       </c>
       <c r="O18">
-        <v>23.78574808260127</v>
+        <v>16.77015902952022</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.242933254274874</v>
+        <v>5.32055704853442</v>
       </c>
       <c r="D19">
-        <v>9.514115388845749</v>
+        <v>8.445782504722644</v>
       </c>
       <c r="E19">
-        <v>13.9459148898286</v>
+        <v>12.44033411446286</v>
       </c>
       <c r="F19">
-        <v>32.01920315273244</v>
+        <v>25.46479756296493</v>
       </c>
       <c r="G19">
-        <v>3.639123072839565</v>
+        <v>2.058950727381155</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.06424744308572</v>
+        <v>16.36511159216567</v>
       </c>
       <c r="J19">
-        <v>9.879090870954087</v>
+        <v>6.74165638707893</v>
       </c>
       <c r="K19">
-        <v>16.42223343901523</v>
+        <v>23.72009028453283</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.1037385305407</v>
+        <v>12.08128001660669</v>
       </c>
       <c r="O19">
-        <v>23.78862304594793</v>
+        <v>16.74161798967553</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.278010928476875</v>
+        <v>5.40343223039627</v>
       </c>
       <c r="D20">
-        <v>9.538251332657138</v>
+        <v>8.571498413266646</v>
       </c>
       <c r="E20">
-        <v>13.97640312010038</v>
+        <v>12.62419955520441</v>
       </c>
       <c r="F20">
-        <v>32.03150534044919</v>
+        <v>25.76070664927216</v>
       </c>
       <c r="G20">
-        <v>3.638353430982458</v>
+        <v>2.056746797084235</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.0611017341407</v>
+        <v>16.52137007028527</v>
       </c>
       <c r="J20">
-        <v>9.8798743320603</v>
+        <v>6.795923329786568</v>
       </c>
       <c r="K20">
-        <v>16.59801704838593</v>
+        <v>24.1714693561084</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.09426248597783</v>
+        <v>12.06513835123843</v>
       </c>
       <c r="O20">
-        <v>23.77611024947259</v>
+        <v>16.87124894859161</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.393092632722404</v>
+        <v>5.673385111852537</v>
       </c>
       <c r="D21">
-        <v>9.620559092383019</v>
+        <v>8.985331947249781</v>
       </c>
       <c r="E21">
-        <v>14.08158913736846</v>
+        <v>13.23287110558343</v>
       </c>
       <c r="F21">
-        <v>32.08339583039923</v>
+        <v>26.76858314348554</v>
       </c>
       <c r="G21">
-        <v>3.635849828833933</v>
+        <v>2.049435788233407</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.05758031356027</v>
+        <v>17.06125265100905</v>
       </c>
       <c r="J21">
-        <v>9.884415221106172</v>
+        <v>6.980888760490991</v>
       </c>
       <c r="K21">
-        <v>17.17656243566995</v>
+        <v>25.63438307534693</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.06455084889626</v>
+        <v>12.0166060599989</v>
       </c>
       <c r="O21">
-        <v>23.74151977916961</v>
+        <v>17.32781832080601</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.466169499478869</v>
+        <v>5.843456162746175</v>
       </c>
       <c r="D22">
-        <v>9.67519377312049</v>
+        <v>9.249209288507457</v>
       </c>
       <c r="E22">
-        <v>14.15230206663046</v>
+        <v>13.62358363589467</v>
       </c>
       <c r="F22">
-        <v>32.12515326552224</v>
+        <v>27.43696443755829</v>
       </c>
       <c r="G22">
-        <v>3.6342746370816</v>
+        <v>2.044722102315192</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.06053615023656</v>
+        <v>17.42505629594972</v>
       </c>
       <c r="J22">
-        <v>9.888800654098178</v>
+        <v>7.103668940211619</v>
       </c>
       <c r="K22">
-        <v>17.54513742248717</v>
+        <v>26.55088870787061</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.04671441823849</v>
+        <v>11.98932520902408</v>
       </c>
       <c r="O22">
-        <v>23.72448367972873</v>
+        <v>17.64205019265915</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.427366572871212</v>
+        <v>5.753268995184357</v>
       </c>
       <c r="D23">
-        <v>9.64596128424026</v>
+        <v>9.108987458715626</v>
       </c>
       <c r="E23">
-        <v>14.11438652628399</v>
+        <v>13.41571895810016</v>
       </c>
       <c r="F23">
-        <v>32.10215061741205</v>
+        <v>27.07938051299676</v>
       </c>
       <c r="G23">
-        <v>3.635109777390897</v>
+        <v>2.047232351825148</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.05847734948518</v>
+        <v>17.22989213898382</v>
       </c>
       <c r="J23">
-        <v>9.886330675949987</v>
+        <v>7.037969581989359</v>
       </c>
       <c r="K23">
-        <v>17.34932793605365</v>
+        <v>26.065328690352</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.05608951860571</v>
+        <v>12.00346694009644</v>
       </c>
       <c r="O23">
-        <v>23.73306539488724</v>
+        <v>17.47287949693297</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.276094886849827</v>
+        <v>5.39891299399777</v>
       </c>
       <c r="D24">
-        <v>9.536921174145176</v>
+        <v>8.564626267896589</v>
       </c>
       <c r="E24">
-        <v>13.97471830353454</v>
+        <v>12.61413582507169</v>
       </c>
       <c r="F24">
-        <v>32.03078999692396</v>
+        <v>25.74440391201643</v>
       </c>
       <c r="G24">
-        <v>3.638395385760848</v>
+        <v>2.056867459683773</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.06124798389266</v>
+        <v>16.51273279061862</v>
       </c>
       <c r="J24">
-        <v>9.879824116767141</v>
+        <v>6.792933138460262</v>
       </c>
       <c r="K24">
-        <v>16.58840776255596</v>
+        <v>24.1468846195962</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.09477485683623</v>
+        <v>12.06600378865766</v>
       </c>
       <c r="O24">
-        <v>23.77676941036694</v>
+        <v>16.86405158163049</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.10420978749578</v>
+        <v>4.989599727214205</v>
       </c>
       <c r="D25">
-        <v>9.423324146883166</v>
+        <v>7.950676667051115</v>
       </c>
       <c r="E25">
-        <v>13.83303247962456</v>
+        <v>11.72132674361676</v>
       </c>
       <c r="F25">
-        <v>31.98762876962223</v>
+        <v>24.34946997267555</v>
       </c>
       <c r="G25">
-        <v>3.642203378347935</v>
+        <v>2.067572069856896</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.08676936116854</v>
+        <v>15.78706366912249</v>
       </c>
       <c r="J25">
-        <v>9.878921561004923</v>
+        <v>6.537234269975325</v>
       </c>
       <c r="K25">
-        <v>15.73038091970231</v>
+        <v>21.9050173127025</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.14331501829181</v>
+        <v>12.1513221362622</v>
       </c>
       <c r="O25">
-        <v>23.84770815241905</v>
+        <v>16.27418079243905</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.665317177660389</v>
+        <v>3.236625918783938</v>
       </c>
       <c r="D2">
-        <v>7.477777730324219</v>
+        <v>5.105206461659561</v>
       </c>
       <c r="E2">
-        <v>11.04302011883293</v>
+        <v>8.417363477715982</v>
       </c>
       <c r="F2">
-        <v>23.36548483212414</v>
+        <v>28.23799355759708</v>
       </c>
       <c r="G2">
-        <v>2.075758555240362</v>
+        <v>35.71388413966016</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.167982857799127</v>
       </c>
       <c r="I2">
-        <v>15.29474299227553</v>
+        <v>2.769141844029451</v>
       </c>
       <c r="J2">
-        <v>6.356927857182121</v>
+        <v>11.73748305767062</v>
       </c>
       <c r="K2">
-        <v>20.10314001916468</v>
+        <v>19.94031512977921</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.192499782222433</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.80633838680493</v>
       </c>
       <c r="N2">
-        <v>12.2283035000078</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.89559085815069</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.71519923505148</v>
+      </c>
+      <c r="P2">
+        <v>12.84808452141049</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.43160766361227</v>
+        <v>2.993256777922848</v>
       </c>
       <c r="D3">
-        <v>7.145806570781131</v>
+        <v>4.933005108771522</v>
       </c>
       <c r="E3">
-        <v>10.57257070501003</v>
+        <v>8.160216417888286</v>
       </c>
       <c r="F3">
-        <v>22.72800190517395</v>
+        <v>27.46286897029669</v>
       </c>
       <c r="G3">
-        <v>2.081513484162766</v>
+        <v>34.50821507089019</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.418726019888077</v>
       </c>
       <c r="I3">
-        <v>14.98756831466254</v>
+        <v>2.552980058834676</v>
       </c>
       <c r="J3">
-        <v>6.240008250270765</v>
+        <v>11.59762982349386</v>
       </c>
       <c r="K3">
-        <v>18.78641242690344</v>
+        <v>19.45017409103071</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.091595555993536</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.55797894589778</v>
       </c>
       <c r="N3">
-        <v>12.28876410436596</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.6725819840024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.8973230083092</v>
+      </c>
+      <c r="P3">
+        <v>12.98840465850131</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.281407200985813</v>
+        <v>2.830449118577284</v>
       </c>
       <c r="D4">
-        <v>6.936964594870715</v>
+        <v>4.825334642775102</v>
       </c>
       <c r="E4">
-        <v>10.27938422340955</v>
+        <v>7.997959241037138</v>
       </c>
       <c r="F4">
-        <v>22.3519226705088</v>
+        <v>26.98355738108631</v>
       </c>
       <c r="G4">
-        <v>2.085154208882115</v>
+        <v>33.7576813300359</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.578058350000792</v>
       </c>
       <c r="I4">
-        <v>14.81204566752202</v>
+        <v>2.529835284258922</v>
       </c>
       <c r="J4">
-        <v>6.170924738613299</v>
+        <v>11.51402768163235</v>
       </c>
       <c r="K4">
-        <v>17.9304319132876</v>
+        <v>19.14590678579544</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.027837497343098</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.7435145695256</v>
       </c>
       <c r="N4">
-        <v>12.32981090033339</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.55169695285086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.37224270408297</v>
+      </c>
+      <c r="P4">
+        <v>13.07641687182825</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.2185479673026</v>
+        <v>2.746986412995692</v>
       </c>
       <c r="D5">
-        <v>6.850715675232068</v>
+        <v>4.783252122997755</v>
       </c>
       <c r="E5">
-        <v>10.15899040721684</v>
+        <v>7.931622074084325</v>
       </c>
       <c r="F5">
-        <v>22.2026490112396</v>
+        <v>26.77724682956089</v>
       </c>
       <c r="G5">
-        <v>2.086665494735991</v>
+        <v>33.43018943415673</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.644770354101408</v>
       </c>
       <c r="I5">
-        <v>14.74380330122831</v>
+        <v>2.59318004347549</v>
       </c>
       <c r="J5">
-        <v>6.143468255932207</v>
+        <v>11.47698452507496</v>
       </c>
       <c r="K5">
-        <v>17.56962315914981</v>
+        <v>19.0101731743365</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.001172851078765</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.3948085627983</v>
       </c>
       <c r="N5">
-        <v>12.34750141966555</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15.50638082312808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.1508209931063</v>
+      </c>
+      <c r="P5">
+        <v>13.11296913199838</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.208011642676885</v>
+        <v>2.716185272093399</v>
       </c>
       <c r="D6">
-        <v>6.836328706082546</v>
+        <v>4.77898196695761</v>
       </c>
       <c r="E6">
-        <v>10.13894905642628</v>
+        <v>7.921585390299153</v>
       </c>
       <c r="F6">
-        <v>22.17810615648441</v>
+        <v>26.7302960711828</v>
       </c>
       <c r="G6">
-        <v>2.086918133418957</v>
+        <v>33.35190954300305</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.656429831563992</v>
       </c>
       <c r="I6">
-        <v>14.73266967868322</v>
+        <v>2.608246068887184</v>
       </c>
       <c r="J6">
-        <v>6.138951560092949</v>
+        <v>11.4665264930328</v>
       </c>
       <c r="K6">
-        <v>17.5089858390743</v>
+        <v>18.97409873026274</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.996437904744043</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.33044096801283</v>
       </c>
       <c r="N6">
-        <v>12.35049647124239</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.49909155083327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.11144524455543</v>
+      </c>
+      <c r="P6">
+        <v>13.11933589956905</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.280566095250761</v>
+        <v>2.78483061262477</v>
       </c>
       <c r="D7">
-        <v>6.935805879421572</v>
+        <v>4.832169745529978</v>
       </c>
       <c r="E7">
-        <v>10.27776402629764</v>
+        <v>7.999888820709014</v>
       </c>
       <c r="F7">
-        <v>22.34989323463547</v>
+        <v>26.94650697910015</v>
       </c>
       <c r="G7">
-        <v>2.085174477696599</v>
+        <v>33.68902957150557</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.580299794515586</v>
       </c>
       <c r="I7">
-        <v>14.81111204455788</v>
+        <v>2.542587733107297</v>
       </c>
       <c r="J7">
-        <v>6.170551615198918</v>
+        <v>11.50171507760024</v>
       </c>
       <c r="K7">
-        <v>17.92561451988478</v>
+        <v>19.10748512684737</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.026725212428957</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.72357258787569</v>
       </c>
       <c r="N7">
-        <v>12.3300456085742</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.55106995578298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.36316857354074</v>
+      </c>
+      <c r="P7">
+        <v>13.07770991384729</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.586143201849765</v>
+        <v>3.101575489698296</v>
       </c>
       <c r="D8">
-        <v>7.36441846286897</v>
+        <v>5.055651763928742</v>
       </c>
       <c r="E8">
-        <v>10.88180333242577</v>
+        <v>8.333242413644887</v>
       </c>
       <c r="F8">
-        <v>23.14257486016335</v>
+        <v>27.92767409033313</v>
       </c>
       <c r="G8">
-        <v>2.077721049660032</v>
+        <v>35.21879454977378</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.255061638543306</v>
       </c>
       <c r="I8">
-        <v>15.18611391758326</v>
+        <v>2.696921246766243</v>
       </c>
       <c r="J8">
-        <v>6.316061930111575</v>
+        <v>11.67340458773457</v>
       </c>
       <c r="K8">
-        <v>19.65896286305026</v>
+        <v>19.7249780737547</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.157127085622006</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.3671150875945</v>
       </c>
       <c r="N8">
-        <v>12.24832162621356</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.81531846257238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.43042769607163</v>
+      </c>
+      <c r="P8">
+        <v>12.89744799898998</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.131070311186734</v>
+        <v>3.68877470129541</v>
       </c>
       <c r="D9">
-        <v>8.160895567580591</v>
+        <v>5.464406674691946</v>
       </c>
       <c r="E9">
-        <v>12.02558160292791</v>
+        <v>8.946248540454603</v>
       </c>
       <c r="F9">
-        <v>24.81297767427752</v>
+        <v>29.87489176668181</v>
       </c>
       <c r="G9">
-        <v>2.063921212168816</v>
+        <v>38.23163450160273</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.656531629700296</v>
       </c>
       <c r="I9">
-        <v>16.02503481798918</v>
+        <v>3.212152407068871</v>
       </c>
       <c r="J9">
-        <v>6.622169723288137</v>
+        <v>12.04857471106523</v>
       </c>
       <c r="K9">
-        <v>22.68350183832985</v>
+        <v>20.9674006007328</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.399852398567273</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>21.23652222033019</v>
       </c>
       <c r="N9">
-        <v>12.12030604778329</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>16.46408902384894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.34568377288262</v>
+      </c>
+      <c r="P9">
+        <v>12.55648581849387</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.497235718002089</v>
+        <v>4.06600533085249</v>
       </c>
       <c r="D10">
-        <v>8.71456543355486</v>
+        <v>5.697612567168659</v>
       </c>
       <c r="E10">
-        <v>12.8340421603963</v>
+        <v>9.232909379609676</v>
       </c>
       <c r="F10">
-        <v>26.10338187340458</v>
+        <v>31.06376346714183</v>
       </c>
       <c r="G10">
-        <v>2.054229569928916</v>
+        <v>40.09428970167895</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.862076624054047</v>
       </c>
       <c r="I10">
-        <v>16.70365529143197</v>
+        <v>3.566418474200972</v>
       </c>
       <c r="J10">
-        <v>6.858787633198526</v>
+        <v>12.27957086864462</v>
       </c>
       <c r="K10">
-        <v>24.68103164887973</v>
+        <v>21.73913574345709</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.512351112828292</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>23.07407116767087</v>
       </c>
       <c r="N10">
-        <v>12.04756414506166</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.02397259637763</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.5061692108068</v>
+      </c>
+      <c r="P10">
+        <v>12.32455553187655</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.656262756501377</v>
+        <v>4.375728782002644</v>
       </c>
       <c r="D11">
-        <v>8.958896088904627</v>
+        <v>5.320997110257339</v>
       </c>
       <c r="E11">
-        <v>13.19383746399445</v>
+        <v>8.252205388698647</v>
       </c>
       <c r="F11">
-        <v>26.70270054038547</v>
+        <v>29.87013568733589</v>
       </c>
       <c r="G11">
-        <v>2.049905655654112</v>
+        <v>38.70306537031878</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.798467311176021</v>
       </c>
       <c r="I11">
-        <v>17.02562778532408</v>
+        <v>3.672778515800572</v>
       </c>
       <c r="J11">
-        <v>6.968791480559548</v>
+        <v>11.93863757606529</v>
       </c>
       <c r="K11">
-        <v>25.54190446775254</v>
+        <v>21.17701887373482</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.152438224861874</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>23.52114089596392</v>
       </c>
       <c r="N11">
-        <v>12.01949624356204</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.29731347972186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.93710803445974</v>
+      </c>
+      <c r="P11">
+        <v>12.32531159128689</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.715391989824502</v>
+        <v>4.620212701498878</v>
       </c>
       <c r="D12">
-        <v>9.050290972180262</v>
+        <v>4.95790577712966</v>
       </c>
       <c r="E12">
-        <v>13.32887097518418</v>
+        <v>7.546776619111781</v>
       </c>
       <c r="F12">
-        <v>26.93131525473376</v>
+        <v>28.6382834091073</v>
       </c>
       <c r="G12">
-        <v>2.04827943889355</v>
+        <v>37.19528935489927</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.091184371278254</v>
       </c>
       <c r="I12">
-        <v>17.14943348270569</v>
+        <v>3.690834507030412</v>
       </c>
       <c r="J12">
-        <v>7.010773425671592</v>
+        <v>11.61287553908187</v>
       </c>
       <c r="K12">
-        <v>25.86109893708106</v>
+        <v>20.58039538814919</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.950759446484369</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.54214936602592</v>
       </c>
       <c r="N12">
-        <v>12.00962573804293</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.40353658373478</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.21233395440344</v>
+      </c>
+      <c r="P12">
+        <v>12.39513683019634</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.702706027524862</v>
+        <v>4.787703693139386</v>
       </c>
       <c r="D13">
-        <v>9.03065819563373</v>
+        <v>4.590878665570961</v>
       </c>
       <c r="E13">
-        <v>13.29984391082645</v>
+        <v>7.05816725818533</v>
       </c>
       <c r="F13">
-        <v>26.88200634582141</v>
+        <v>27.23364585037677</v>
       </c>
       <c r="G13">
-        <v>2.048629195124867</v>
+        <v>35.38384506132599</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.450361272756845</v>
       </c>
       <c r="I13">
-        <v>17.12268639290073</v>
+        <v>3.643677208341765</v>
       </c>
       <c r="J13">
-        <v>7.001717571525705</v>
+        <v>11.25876842022488</v>
       </c>
       <c r="K13">
-        <v>25.79265583470783</v>
+        <v>19.85949955469627</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.865767262858549</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.22004995296473</v>
       </c>
       <c r="N13">
-        <v>12.01171720863127</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.38053830508809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.29655960413263</v>
+      </c>
+      <c r="P13">
+        <v>12.51826584897071</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.661149238964556</v>
+        <v>4.863876944596012</v>
       </c>
       <c r="D14">
-        <v>8.966438018119941</v>
+        <v>4.337701397536641</v>
       </c>
       <c r="E14">
-        <v>13.2049713808209</v>
+        <v>6.873032079828461</v>
       </c>
       <c r="F14">
-        <v>26.72147595220569</v>
+        <v>26.15621120954115</v>
       </c>
       <c r="G14">
-        <v>2.049771648520361</v>
+        <v>33.94650782400252</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.483812917879024</v>
       </c>
       <c r="I14">
-        <v>17.03577577749858</v>
+        <v>3.581919084765564</v>
       </c>
       <c r="J14">
-        <v>6.972238902898502</v>
+        <v>10.99488852586901</v>
       </c>
       <c r="K14">
-        <v>25.568300604468</v>
+        <v>19.28525268638169</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.878849904538974</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>22.83149196546227</v>
       </c>
       <c r="N14">
-        <v>12.01866878116974</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.30599793223709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.55608693235767</v>
+      </c>
+      <c r="P14">
+        <v>12.62937359736093</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.635552323475578</v>
+        <v>4.852039350432418</v>
       </c>
       <c r="D15">
-        <v>8.92695330641642</v>
+        <v>4.275062649037814</v>
       </c>
       <c r="E15">
-        <v>13.14669957164911</v>
+        <v>6.846235408173203</v>
       </c>
       <c r="F15">
-        <v>26.62336062667135</v>
+        <v>25.84744145997696</v>
       </c>
       <c r="G15">
-        <v>2.050472854619048</v>
+        <v>33.51098898442113</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.72371893095271</v>
       </c>
       <c r="I15">
-        <v>16.98278486259258</v>
+        <v>3.553150847468998</v>
       </c>
       <c r="J15">
-        <v>6.954224421555182</v>
+        <v>10.92156605040506</v>
       </c>
       <c r="K15">
-        <v>25.42999341346994</v>
+        <v>19.10729732459068</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.888507667387474</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>22.65714038679638</v>
       </c>
       <c r="N15">
-        <v>12.02302666814678</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.26069427330477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.33196804647166</v>
+      </c>
+      <c r="P15">
+        <v>12.66543355388592</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.486690528672643</v>
+        <v>4.659900687855401</v>
       </c>
       <c r="D16">
-        <v>8.698442174606736</v>
+        <v>4.240035611680786</v>
       </c>
       <c r="E16">
-        <v>12.81036211258455</v>
+        <v>6.798950019135812</v>
       </c>
       <c r="F16">
-        <v>26.06445331495954</v>
+        <v>25.55572383633772</v>
       </c>
       <c r="G16">
-        <v>2.054513767742501</v>
+        <v>32.95910731262062</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.523180168631784</v>
       </c>
       <c r="I16">
-        <v>16.68287828278069</v>
+        <v>3.41365610350493</v>
       </c>
       <c r="J16">
-        <v>6.851644950423462</v>
+        <v>10.88138781940424</v>
       </c>
       <c r="K16">
-        <v>24.62381584892531</v>
+        <v>18.87862197852216</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.849906125806904</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>21.94011438247599</v>
       </c>
       <c r="N16">
-        <v>12.04950253574728</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.00648731635453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.97270597865965</v>
+      </c>
+      <c r="P16">
+        <v>12.72515445407374</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.393431074281793</v>
+        <v>4.463172363679547</v>
       </c>
       <c r="D17">
-        <v>8.55629279336156</v>
+        <v>4.347948364248571</v>
       </c>
       <c r="E17">
-        <v>12.6019340740345</v>
+        <v>6.833373074356543</v>
       </c>
       <c r="F17">
-        <v>25.72465404987108</v>
+        <v>25.91755205064</v>
       </c>
       <c r="G17">
-        <v>2.057013750839026</v>
+        <v>33.32355600981819</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.790285328010869</v>
       </c>
       <c r="I17">
-        <v>16.50227356385443</v>
+        <v>3.339175012911947</v>
       </c>
       <c r="J17">
-        <v>6.789310755079837</v>
+        <v>10.99232932477647</v>
       </c>
       <c r="K17">
-        <v>24.11705841608009</v>
+        <v>19.01450184097213</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.801168135928653</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.59453941078133</v>
       </c>
       <c r="N17">
-        <v>12.06705587914989</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.8553408970619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.10459835192275</v>
+      </c>
+      <c r="P17">
+        <v>12.7138156283504</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.339080798913078</v>
+        <v>4.275609295465156</v>
       </c>
       <c r="D18">
-        <v>8.473824751303342</v>
+        <v>4.602021670422863</v>
       </c>
       <c r="E18">
-        <v>12.48130367635343</v>
+        <v>7.097874259611555</v>
       </c>
       <c r="F18">
-        <v>25.53037409193159</v>
+        <v>26.90406440720107</v>
       </c>
       <c r="G18">
-        <v>2.058459729698374</v>
+        <v>34.55832429856022</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.535346084247808</v>
       </c>
       <c r="I18">
-        <v>16.39964450850928</v>
+        <v>3.312316585349152</v>
       </c>
       <c r="J18">
-        <v>6.753681133999128</v>
+        <v>11.25292208731139</v>
       </c>
       <c r="K18">
-        <v>23.82107964008664</v>
+        <v>19.50441017703388</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.809671074754032</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>21.5515099083968</v>
       </c>
       <c r="N18">
-        <v>12.07762256883495</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16.77015902952022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.68067317667094</v>
+      </c>
+      <c r="P18">
+        <v>12.64684146329068</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.32055704853442</v>
+        <v>4.051616069214067</v>
       </c>
       <c r="D19">
-        <v>8.445782504722644</v>
+        <v>4.981560593943842</v>
       </c>
       <c r="E19">
-        <v>12.44033411446286</v>
+        <v>7.72606558065943</v>
       </c>
       <c r="F19">
-        <v>25.46479756296493</v>
+        <v>28.25683406841494</v>
       </c>
       <c r="G19">
-        <v>2.058950727381155</v>
+        <v>36.27893931344845</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.034885858035467</v>
       </c>
       <c r="I19">
-        <v>16.36511159216567</v>
+        <v>3.333461523460127</v>
       </c>
       <c r="J19">
-        <v>6.74165638707893</v>
+        <v>11.59412808965417</v>
       </c>
       <c r="K19">
-        <v>23.72009028453283</v>
+        <v>20.1772713241333</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.965059191390901</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>21.73363173536207</v>
       </c>
       <c r="N19">
-        <v>12.08128001660669</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>16.74161798967553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.55077083590718</v>
+      </c>
+      <c r="P19">
+        <v>12.55818447201277</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.40343223039627</v>
+        <v>3.868531575422419</v>
       </c>
       <c r="D20">
-        <v>8.571498413266646</v>
+        <v>5.654206650268798</v>
       </c>
       <c r="E20">
-        <v>12.62419955520441</v>
+        <v>9.159789170295788</v>
       </c>
       <c r="F20">
-        <v>25.76070664927216</v>
+        <v>30.65028224914047</v>
       </c>
       <c r="G20">
-        <v>2.056746797084235</v>
+        <v>39.42549353860315</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.75411307443383</v>
       </c>
       <c r="I20">
-        <v>16.52137007028527</v>
+        <v>3.47863998623473</v>
       </c>
       <c r="J20">
-        <v>6.795923329786568</v>
+        <v>12.18137850128471</v>
       </c>
       <c r="K20">
-        <v>24.1714693561084</v>
+        <v>21.43118380159276</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.47857179671648</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>22.56751179847706</v>
       </c>
       <c r="N20">
-        <v>12.06513835123843</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.87124894859161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.18762210518588</v>
+      </c>
+      <c r="P20">
+        <v>12.39002446434342</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.673385111852537</v>
+        <v>4.132606413685626</v>
       </c>
       <c r="D21">
-        <v>8.985331947249781</v>
+        <v>5.914281506414358</v>
       </c>
       <c r="E21">
-        <v>13.23287110558343</v>
+        <v>9.590932186707386</v>
       </c>
       <c r="F21">
-        <v>26.76858314348554</v>
+        <v>31.87507505385949</v>
       </c>
       <c r="G21">
-        <v>2.049435788233407</v>
+        <v>41.25551505847082</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.068673269156394</v>
       </c>
       <c r="I21">
-        <v>17.06125265100905</v>
+        <v>3.753686209066138</v>
       </c>
       <c r="J21">
-        <v>6.980888760490991</v>
+        <v>12.44682518649649</v>
       </c>
       <c r="K21">
-        <v>25.63438307534693</v>
+        <v>22.19226001721545</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.651154276128329</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>23.97595582668731</v>
       </c>
       <c r="N21">
-        <v>12.0166060599989</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.32781832080601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.23552240028078</v>
+      </c>
+      <c r="P21">
+        <v>12.1999419222847</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.843456162746175</v>
+        <v>4.345338721364318</v>
       </c>
       <c r="D22">
-        <v>9.249209288507457</v>
+        <v>6.043910098977746</v>
       </c>
       <c r="E22">
-        <v>13.62358363589467</v>
+        <v>9.792061480012999</v>
       </c>
       <c r="F22">
-        <v>27.43696443755829</v>
+        <v>32.60442385196698</v>
       </c>
       <c r="G22">
-        <v>2.044722102315192</v>
+        <v>42.37391372487293</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.265814954784013</v>
       </c>
       <c r="I22">
-        <v>17.42505629594972</v>
+        <v>3.92585459975479</v>
       </c>
       <c r="J22">
-        <v>7.103668940211619</v>
+        <v>12.61068440165541</v>
       </c>
       <c r="K22">
-        <v>26.55088870787061</v>
+        <v>22.67314906227171</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.734002990409846</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>24.85075025739306</v>
       </c>
       <c r="N22">
-        <v>11.98932520902408</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.64205019265915</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.83958855443323</v>
+      </c>
+      <c r="P22">
+        <v>12.0795440860244</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.753268995184357</v>
+        <v>4.269154484158213</v>
       </c>
       <c r="D23">
-        <v>9.108987458715626</v>
+        <v>5.967730637161619</v>
       </c>
       <c r="E23">
-        <v>13.41571895810016</v>
+        <v>9.682257224244688</v>
       </c>
       <c r="F23">
-        <v>27.07938051299676</v>
+        <v>32.25037066206004</v>
       </c>
       <c r="G23">
-        <v>2.047232351825148</v>
+        <v>41.84127762846356</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.162298542696611</v>
       </c>
       <c r="I23">
-        <v>17.22989213898382</v>
+        <v>3.832696371980332</v>
       </c>
       <c r="J23">
-        <v>7.037969581989359</v>
+        <v>12.53589343221792</v>
       </c>
       <c r="K23">
-        <v>26.065328690352</v>
+        <v>22.45460347229143</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.690668024093557</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>24.40071433734805</v>
       </c>
       <c r="N23">
-        <v>12.00346694009644</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.47287949693297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.5248985982401</v>
+      </c>
+      <c r="P23">
+        <v>12.14164245143866</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.39891299399777</v>
+        <v>3.905486232044184</v>
       </c>
       <c r="D24">
-        <v>8.564626267896589</v>
+        <v>5.684951837100097</v>
       </c>
       <c r="E24">
-        <v>12.61413582507169</v>
+        <v>9.261838888565736</v>
       </c>
       <c r="F24">
-        <v>25.74440391201643</v>
+        <v>30.84037808250505</v>
       </c>
       <c r="G24">
-        <v>2.056867459683773</v>
+        <v>39.69402597254579</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.760719102256001</v>
       </c>
       <c r="I24">
-        <v>16.51273279061862</v>
+        <v>3.475991984598355</v>
       </c>
       <c r="J24">
-        <v>6.792933138460262</v>
+        <v>12.23665772923349</v>
       </c>
       <c r="K24">
-        <v>24.1468846195962</v>
+        <v>21.55723728422309</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.52239274476322</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>22.59582121303144</v>
       </c>
       <c r="N24">
-        <v>12.06600378865766</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.86405158163049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.27854896682201</v>
+      </c>
+      <c r="P24">
+        <v>12.3830775780389</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.989599727214205</v>
+        <v>3.475177225115194</v>
       </c>
       <c r="D25">
-        <v>7.950676667051115</v>
+        <v>5.367981896503805</v>
       </c>
       <c r="E25">
-        <v>11.72132674361676</v>
+        <v>8.789137023491623</v>
       </c>
       <c r="F25">
-        <v>24.34946997267555</v>
+        <v>29.2959395394262</v>
       </c>
       <c r="G25">
-        <v>2.067572069856896</v>
+        <v>37.32336502840305</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.816420418655726</v>
       </c>
       <c r="I25">
-        <v>15.78706366912249</v>
+        <v>3.078360369845263</v>
       </c>
       <c r="J25">
-        <v>6.537234269975325</v>
+        <v>11.92468053613825</v>
       </c>
       <c r="K25">
-        <v>21.9050173127025</v>
+        <v>20.57366009902338</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.334474286311627</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>20.4772107645965</v>
       </c>
       <c r="N25">
-        <v>12.1513221362622</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.27418079243905</v>
+        <v>16.83875350557501</v>
+      </c>
+      <c r="P25">
+        <v>12.64959196190757</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.236625918783938</v>
+        <v>1.837035378987244</v>
       </c>
       <c r="D2">
-        <v>5.105206461659561</v>
+        <v>5.463456991631783</v>
       </c>
       <c r="E2">
-        <v>8.417363477715982</v>
+        <v>8.611799743457137</v>
       </c>
       <c r="F2">
-        <v>28.23799355759708</v>
+        <v>26.75484869578989</v>
       </c>
       <c r="G2">
-        <v>35.71388413966016</v>
+        <v>32.57267820207396</v>
       </c>
       <c r="H2">
-        <v>2.167982857799127</v>
+        <v>2.165632264522932</v>
       </c>
       <c r="I2">
-        <v>2.769141844029451</v>
+        <v>2.82300838272757</v>
       </c>
       <c r="J2">
-        <v>11.73748305767062</v>
+        <v>11.49365663464251</v>
       </c>
       <c r="K2">
-        <v>19.94031512977921</v>
+        <v>18.26619880565146</v>
       </c>
       <c r="L2">
-        <v>6.192499782222433</v>
+        <v>15.41930085349787</v>
       </c>
       <c r="M2">
-        <v>18.80633838680493</v>
+        <v>11.86691017782101</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.195102626887336</v>
       </c>
       <c r="O2">
-        <v>15.71519923505148</v>
+        <v>18.26099610746151</v>
       </c>
       <c r="P2">
-        <v>12.84808452141049</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.46935833300403</v>
+      </c>
+      <c r="R2">
+        <v>12.86270888774984</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.993256777922848</v>
+        <v>1.973236611521991</v>
       </c>
       <c r="D3">
-        <v>4.933005108771522</v>
+        <v>5.2672255693232</v>
       </c>
       <c r="E3">
-        <v>8.160216417888286</v>
+        <v>8.358111145334707</v>
       </c>
       <c r="F3">
-        <v>27.46286897029669</v>
+        <v>26.1280260005121</v>
       </c>
       <c r="G3">
-        <v>34.50821507089019</v>
+        <v>31.67042469103573</v>
       </c>
       <c r="H3">
-        <v>2.418726019888077</v>
+        <v>2.396303478382301</v>
       </c>
       <c r="I3">
-        <v>2.552980058834676</v>
+        <v>2.641495066281137</v>
       </c>
       <c r="J3">
-        <v>11.59762982349386</v>
+        <v>11.3655865701051</v>
       </c>
       <c r="K3">
-        <v>19.45017409103071</v>
+        <v>17.92836351199891</v>
       </c>
       <c r="L3">
-        <v>6.091595555993536</v>
+        <v>15.34076858681254</v>
       </c>
       <c r="M3">
-        <v>17.55797894589778</v>
+        <v>11.40795593757669</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.105624007527437</v>
       </c>
       <c r="O3">
-        <v>14.8973230083092</v>
+        <v>17.08358702533766</v>
       </c>
       <c r="P3">
-        <v>12.98840465850131</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.67578955360594</v>
+      </c>
+      <c r="R3">
+        <v>12.97576452066868</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.830449118577284</v>
+        <v>2.05929371997919</v>
       </c>
       <c r="D4">
-        <v>4.825334642775102</v>
+        <v>5.144734421311338</v>
       </c>
       <c r="E4">
-        <v>7.997959241037138</v>
+        <v>8.198452303049839</v>
       </c>
       <c r="F4">
-        <v>26.98355738108631</v>
+        <v>25.74065268033949</v>
       </c>
       <c r="G4">
-        <v>33.7576813300359</v>
+        <v>31.11375300649144</v>
       </c>
       <c r="H4">
-        <v>2.578058350000792</v>
+        <v>2.543042434266527</v>
       </c>
       <c r="I4">
-        <v>2.529835284258922</v>
+        <v>2.526578046232481</v>
       </c>
       <c r="J4">
-        <v>11.51402768163235</v>
+        <v>11.28657946114328</v>
       </c>
       <c r="K4">
-        <v>19.14590678579544</v>
+        <v>17.71795348732354</v>
       </c>
       <c r="L4">
-        <v>6.027837497343098</v>
+        <v>15.2862987247762</v>
       </c>
       <c r="M4">
-        <v>16.7435145695256</v>
+        <v>11.13862272713699</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.049125351888695</v>
       </c>
       <c r="O4">
-        <v>14.37224270408297</v>
+        <v>16.31514967546321</v>
       </c>
       <c r="P4">
-        <v>13.07641687182825</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.16592880184276</v>
+      </c>
+      <c r="R4">
+        <v>13.04763659299599</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.746986412995692</v>
+        <v>2.088528526970308</v>
       </c>
       <c r="D5">
-        <v>4.783252122997755</v>
+        <v>5.096604782270737</v>
       </c>
       <c r="E5">
-        <v>7.931622074084325</v>
+        <v>8.133320517516436</v>
       </c>
       <c r="F5">
-        <v>26.77724682956089</v>
+        <v>25.57263638442426</v>
       </c>
       <c r="G5">
-        <v>33.43018943415673</v>
+        <v>30.86828515691504</v>
       </c>
       <c r="H5">
-        <v>2.644770354101408</v>
+        <v>2.604502547289792</v>
       </c>
       <c r="I5">
-        <v>2.59318004347549</v>
+        <v>2.479662607566327</v>
       </c>
       <c r="J5">
-        <v>11.47698452507496</v>
+        <v>11.25096557649182</v>
       </c>
       <c r="K5">
-        <v>19.0101731743365</v>
+        <v>17.62141261200952</v>
       </c>
       <c r="L5">
-        <v>6.001172851078765</v>
+        <v>15.25432131285338</v>
       </c>
       <c r="M5">
-        <v>16.3948085627983</v>
+        <v>11.02528288664628</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.025509209835162</v>
       </c>
       <c r="O5">
-        <v>14.1508209931063</v>
+        <v>15.98609714267389</v>
       </c>
       <c r="P5">
-        <v>13.11296913199838</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.95086561871381</v>
+      </c>
+      <c r="R5">
+        <v>13.07792027278605</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.716185272093399</v>
+        <v>2.085770246501476</v>
       </c>
       <c r="D6">
-        <v>4.77898196695761</v>
+        <v>5.091318112479783</v>
       </c>
       <c r="E6">
-        <v>7.921585390299153</v>
+        <v>8.123512909429213</v>
       </c>
       <c r="F6">
-        <v>26.7302960711828</v>
+        <v>25.5328830274856</v>
       </c>
       <c r="G6">
-        <v>33.35190954300305</v>
+        <v>30.80530111500795</v>
       </c>
       <c r="H6">
-        <v>2.656429831563992</v>
+        <v>2.615226408032708</v>
       </c>
       <c r="I6">
-        <v>2.608246068887184</v>
+        <v>2.488994000987087</v>
       </c>
       <c r="J6">
-        <v>11.4665264930328</v>
+        <v>11.24096667162737</v>
       </c>
       <c r="K6">
-        <v>18.97409873026274</v>
+        <v>17.5929836916107</v>
       </c>
       <c r="L6">
-        <v>5.996437904744043</v>
+        <v>15.23890989984494</v>
       </c>
       <c r="M6">
-        <v>16.33044096801283</v>
+        <v>10.99787670634695</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.02131855917697</v>
       </c>
       <c r="O6">
-        <v>14.11144524455543</v>
+        <v>15.92535204526284</v>
       </c>
       <c r="P6">
-        <v>13.11933589956905</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.91265846502618</v>
+      </c>
+      <c r="R6">
+        <v>13.08346022870266</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.78483061262477</v>
+        <v>2.042631914694676</v>
       </c>
       <c r="D7">
-        <v>4.832169745529978</v>
+        <v>5.156017220302574</v>
       </c>
       <c r="E7">
-        <v>7.999888820709014</v>
+        <v>8.202276405518585</v>
       </c>
       <c r="F7">
-        <v>26.94650697910015</v>
+        <v>25.68671168316104</v>
       </c>
       <c r="G7">
-        <v>33.68902957150557</v>
+        <v>31.12774782398785</v>
       </c>
       <c r="H7">
-        <v>2.580299794515586</v>
+        <v>2.545742228718282</v>
       </c>
       <c r="I7">
-        <v>2.542587733107297</v>
+        <v>2.528080074399836</v>
       </c>
       <c r="J7">
-        <v>11.50171507760024</v>
+        <v>11.22650418107158</v>
       </c>
       <c r="K7">
-        <v>19.10748512684737</v>
+        <v>17.66991378152494</v>
       </c>
       <c r="L7">
-        <v>6.026725212428957</v>
+        <v>15.2485311658909</v>
       </c>
       <c r="M7">
-        <v>16.72357258787569</v>
+        <v>11.10312117407429</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.047763569606495</v>
       </c>
       <c r="O7">
-        <v>14.36316857354074</v>
+        <v>16.28750891889933</v>
       </c>
       <c r="P7">
-        <v>13.07770991384729</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.15366695708474</v>
+      </c>
+      <c r="R7">
+        <v>13.05024312074136</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.101575489698296</v>
+        <v>1.868311999774356</v>
       </c>
       <c r="D8">
-        <v>5.055651763928742</v>
+        <v>5.420246843365028</v>
       </c>
       <c r="E8">
-        <v>8.333242413644887</v>
+        <v>8.534846475175097</v>
       </c>
       <c r="F8">
-        <v>27.92767409033313</v>
+        <v>26.43510306093883</v>
       </c>
       <c r="G8">
-        <v>35.21879454977378</v>
+        <v>32.4349956009119</v>
       </c>
       <c r="H8">
-        <v>2.255061638543306</v>
+        <v>2.24777427500547</v>
       </c>
       <c r="I8">
-        <v>2.696921246766243</v>
+        <v>2.761734423702415</v>
       </c>
       <c r="J8">
-        <v>11.67340458773457</v>
+        <v>11.27744947744852</v>
       </c>
       <c r="K8">
-        <v>19.7249780737547</v>
+        <v>18.06458161520298</v>
       </c>
       <c r="L8">
-        <v>6.157127085622006</v>
+        <v>15.32751644551207</v>
       </c>
       <c r="M8">
-        <v>18.3671150875945</v>
+        <v>11.64117098602458</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.162565653906754</v>
       </c>
       <c r="O8">
-        <v>15.43042769607163</v>
+        <v>17.81976807714187</v>
       </c>
       <c r="P8">
-        <v>12.89744799898998</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.18213645753949</v>
+      </c>
+      <c r="R8">
+        <v>12.90662237114227</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.68877470129541</v>
+        <v>1.619772676900568</v>
       </c>
       <c r="D9">
-        <v>5.464406674691946</v>
+        <v>5.890683795411553</v>
       </c>
       <c r="E9">
-        <v>8.946248540454603</v>
+        <v>9.142724793378795</v>
       </c>
       <c r="F9">
-        <v>29.87489176668181</v>
+        <v>28.00438850608992</v>
       </c>
       <c r="G9">
-        <v>38.23163450160273</v>
+        <v>34.78331769966496</v>
       </c>
       <c r="H9">
-        <v>1.656531629700296</v>
+        <v>1.698574125601152</v>
       </c>
       <c r="I9">
-        <v>3.212152407068871</v>
+        <v>3.192644415643877</v>
       </c>
       <c r="J9">
-        <v>12.04857471106523</v>
+        <v>11.5690001509714</v>
       </c>
       <c r="K9">
-        <v>20.9674006007328</v>
+        <v>18.91890589101603</v>
       </c>
       <c r="L9">
-        <v>6.399852398567273</v>
+        <v>15.51593007396067</v>
       </c>
       <c r="M9">
-        <v>21.23652222033019</v>
+        <v>12.85592690608973</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.377814544583178</v>
       </c>
       <c r="O9">
-        <v>17.34568377288262</v>
+        <v>20.5207698142188</v>
       </c>
       <c r="P9">
-        <v>12.55648581849387</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.03650093787768</v>
+      </c>
+      <c r="R9">
+        <v>12.63872210685589</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.06600533085249</v>
+        <v>1.883885652130981</v>
       </c>
       <c r="D10">
-        <v>5.697612567168659</v>
+        <v>6.184965824941583</v>
       </c>
       <c r="E10">
-        <v>9.232909379609676</v>
+        <v>9.431127698969828</v>
       </c>
       <c r="F10">
-        <v>31.06376346714183</v>
+        <v>28.84186113200662</v>
       </c>
       <c r="G10">
-        <v>40.09428970167895</v>
+        <v>36.62540533362308</v>
       </c>
       <c r="H10">
-        <v>1.862076624054047</v>
+        <v>1.784855003738808</v>
       </c>
       <c r="I10">
-        <v>3.566418474200972</v>
+        <v>3.48641613278762</v>
       </c>
       <c r="J10">
-        <v>12.27957086864462</v>
+        <v>11.47306278929137</v>
       </c>
       <c r="K10">
-        <v>21.73913574345709</v>
+        <v>19.36209874127794</v>
       </c>
       <c r="L10">
-        <v>6.512351112828292</v>
+        <v>15.5068872828776</v>
       </c>
       <c r="M10">
-        <v>23.07407116767087</v>
+        <v>13.63898196690707</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.469799462646435</v>
       </c>
       <c r="O10">
-        <v>18.5061692108068</v>
+        <v>22.21179633239719</v>
       </c>
       <c r="P10">
-        <v>12.32455553187655</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.13984754417047</v>
+      </c>
+      <c r="R10">
+        <v>12.47685043277813</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.375728782002644</v>
+        <v>2.247012487135051</v>
       </c>
       <c r="D11">
-        <v>5.320997110257339</v>
+        <v>5.822293120998538</v>
       </c>
       <c r="E11">
-        <v>8.252205388698647</v>
+        <v>8.403560103061377</v>
       </c>
       <c r="F11">
-        <v>29.87013568733589</v>
+        <v>27.46715301994697</v>
       </c>
       <c r="G11">
-        <v>38.70306537031878</v>
+        <v>36.1290367854053</v>
       </c>
       <c r="H11">
-        <v>2.798467311176021</v>
+        <v>2.738374415095589</v>
       </c>
       <c r="I11">
-        <v>3.672778515800572</v>
+        <v>3.572502329473389</v>
       </c>
       <c r="J11">
-        <v>11.93863757606529</v>
+        <v>10.63882775073204</v>
       </c>
       <c r="K11">
-        <v>21.17701887373482</v>
+        <v>18.68841504533415</v>
       </c>
       <c r="L11">
-        <v>6.152438224861874</v>
+        <v>14.88175802487084</v>
       </c>
       <c r="M11">
-        <v>23.52114089596392</v>
+        <v>13.29422787185611</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.100236197595601</v>
       </c>
       <c r="O11">
-        <v>17.93710803445974</v>
+        <v>22.57382078629007</v>
       </c>
       <c r="P11">
-        <v>12.32531159128689</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.5388120877736</v>
+      </c>
+      <c r="R11">
+        <v>12.56417936770245</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.620212701498878</v>
+        <v>2.551855700851009</v>
       </c>
       <c r="D12">
-        <v>4.95790577712966</v>
+        <v>5.436463499717102</v>
       </c>
       <c r="E12">
-        <v>7.546776619111781</v>
+        <v>7.632167115342912</v>
       </c>
       <c r="F12">
-        <v>28.6382834091073</v>
+        <v>26.2196807957416</v>
       </c>
       <c r="G12">
-        <v>37.19528935489927</v>
+        <v>35.13289470749314</v>
       </c>
       <c r="H12">
-        <v>4.091184371278254</v>
+        <v>4.04995691947843</v>
       </c>
       <c r="I12">
-        <v>3.690834507030412</v>
+        <v>3.585526494339502</v>
       </c>
       <c r="J12">
-        <v>11.61287553908187</v>
+        <v>10.1459236268981</v>
       </c>
       <c r="K12">
-        <v>20.58039538814919</v>
+        <v>18.10787726335116</v>
       </c>
       <c r="L12">
-        <v>5.950759446484369</v>
+        <v>14.42193524948418</v>
       </c>
       <c r="M12">
-        <v>23.54214936602592</v>
+        <v>12.89747861488679</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.896133671013164</v>
       </c>
       <c r="O12">
-        <v>17.21233395440344</v>
+        <v>22.57575381544744</v>
       </c>
       <c r="P12">
-        <v>12.39513683019634</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.80912193478909</v>
+      </c>
+      <c r="R12">
+        <v>12.68614724766919</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.787703693139386</v>
+        <v>2.787325460389102</v>
       </c>
       <c r="D13">
-        <v>4.590878665570961</v>
+        <v>5.008621389521214</v>
       </c>
       <c r="E13">
-        <v>7.05816725818533</v>
+        <v>7.064230391017904</v>
       </c>
       <c r="F13">
-        <v>27.23364585037677</v>
+        <v>24.97225654376501</v>
       </c>
       <c r="G13">
-        <v>35.38384506132599</v>
+        <v>33.40574480066714</v>
       </c>
       <c r="H13">
-        <v>5.450361272756845</v>
+        <v>5.473853835461785</v>
       </c>
       <c r="I13">
-        <v>3.643677208341765</v>
+        <v>3.547667709999089</v>
       </c>
       <c r="J13">
-        <v>11.25876842022488</v>
+        <v>9.93855836869707</v>
       </c>
       <c r="K13">
-        <v>19.85949955469627</v>
+        <v>17.53712249046578</v>
       </c>
       <c r="L13">
-        <v>5.865767262858549</v>
+        <v>14.03647955519367</v>
       </c>
       <c r="M13">
-        <v>23.22004995296473</v>
+        <v>12.41598767701426</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.815352552363022</v>
       </c>
       <c r="O13">
-        <v>16.29655960413263</v>
+        <v>22.30168912375926</v>
       </c>
       <c r="P13">
-        <v>12.51826584897071</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.91621944583413</v>
+      </c>
+      <c r="R13">
+        <v>12.8273361742388</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.863876944596012</v>
+        <v>2.917854811370715</v>
       </c>
       <c r="D14">
-        <v>4.337701397536641</v>
+        <v>4.696714347809731</v>
       </c>
       <c r="E14">
-        <v>6.873032079828461</v>
+        <v>6.825124301327018</v>
       </c>
       <c r="F14">
-        <v>26.15621120954115</v>
+        <v>24.08185633394911</v>
       </c>
       <c r="G14">
-        <v>33.94650782400252</v>
+        <v>31.84624652765639</v>
       </c>
       <c r="H14">
-        <v>6.483812917879024</v>
+        <v>6.502409292546934</v>
       </c>
       <c r="I14">
-        <v>3.581919084765564</v>
+        <v>3.499172257856594</v>
       </c>
       <c r="J14">
-        <v>10.99488852586901</v>
+        <v>9.903640586144858</v>
       </c>
       <c r="K14">
-        <v>19.28525268638169</v>
+        <v>17.12841810561764</v>
       </c>
       <c r="L14">
-        <v>5.878849904538974</v>
+        <v>13.78873853085433</v>
       </c>
       <c r="M14">
-        <v>22.83149196546227</v>
+        <v>12.02991452719986</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.83441465568932</v>
       </c>
       <c r="O14">
-        <v>15.55608693235767</v>
+        <v>21.97727478818921</v>
       </c>
       <c r="P14">
-        <v>12.62937359736093</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.20413374290604</v>
+      </c>
+      <c r="R14">
+        <v>12.93357633725495</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.852039350432418</v>
+        <v>2.921561177009956</v>
       </c>
       <c r="D15">
-        <v>4.275062649037814</v>
+        <v>4.614562094407473</v>
       </c>
       <c r="E15">
-        <v>6.846235408173203</v>
+        <v>6.788304064563276</v>
       </c>
       <c r="F15">
-        <v>25.84744145997696</v>
+        <v>23.85186410620457</v>
       </c>
       <c r="G15">
-        <v>33.51098898442113</v>
+        <v>31.30620330703672</v>
       </c>
       <c r="H15">
-        <v>6.72371893095271</v>
+        <v>6.741029126672209</v>
       </c>
       <c r="I15">
-        <v>3.553150847468998</v>
+        <v>3.477248816840433</v>
       </c>
       <c r="J15">
-        <v>10.92156605040506</v>
+        <v>9.93983801544049</v>
       </c>
       <c r="K15">
-        <v>19.10729732459068</v>
+        <v>17.01758303166097</v>
       </c>
       <c r="L15">
-        <v>5.888507667387474</v>
+        <v>13.73305237368663</v>
       </c>
       <c r="M15">
-        <v>22.65714038679638</v>
+        <v>11.90784687076114</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.846760689578114</v>
       </c>
       <c r="O15">
-        <v>15.33196804647166</v>
+        <v>21.83215301936082</v>
       </c>
       <c r="P15">
-        <v>12.66543355388592</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.99235138077621</v>
+      </c>
+      <c r="R15">
+        <v>12.96128747697046</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.659900687855401</v>
+        <v>2.738609397863391</v>
       </c>
       <c r="D16">
-        <v>4.240035611680786</v>
+        <v>4.538821743168174</v>
       </c>
       <c r="E16">
-        <v>6.798950019135812</v>
+        <v>6.764812863213246</v>
       </c>
       <c r="F16">
-        <v>25.55572383633772</v>
+        <v>23.83330026899048</v>
       </c>
       <c r="G16">
-        <v>32.95910731262062</v>
+        <v>30.1488563249925</v>
       </c>
       <c r="H16">
-        <v>6.523180168631784</v>
+        <v>6.537847249594249</v>
       </c>
       <c r="I16">
-        <v>3.41365610350493</v>
+        <v>3.367105220189</v>
       </c>
       <c r="J16">
-        <v>10.88138781940424</v>
+        <v>10.35139298448554</v>
       </c>
       <c r="K16">
-        <v>18.87862197852216</v>
+        <v>17.0077781539118</v>
       </c>
       <c r="L16">
-        <v>5.849906125806904</v>
+        <v>13.84525700934335</v>
       </c>
       <c r="M16">
-        <v>21.94011438247599</v>
+        <v>11.72403212068362</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.818855164165654</v>
       </c>
       <c r="O16">
-        <v>14.97270597865965</v>
+        <v>21.22998180674938</v>
       </c>
       <c r="P16">
-        <v>12.72515445407374</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.67843009636177</v>
+      </c>
+      <c r="R16">
+        <v>12.96036251706462</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.463172363679547</v>
+        <v>2.52526395406615</v>
       </c>
       <c r="D17">
-        <v>4.347948364248571</v>
+        <v>4.649539242230474</v>
       </c>
       <c r="E17">
-        <v>6.833373074356543</v>
+        <v>6.838945426085323</v>
       </c>
       <c r="F17">
-        <v>25.91755205064</v>
+        <v>24.27950765640233</v>
       </c>
       <c r="G17">
-        <v>33.32355600981819</v>
+        <v>30.21655916954316</v>
       </c>
       <c r="H17">
-        <v>5.790285328010869</v>
+        <v>5.804826911710395</v>
       </c>
       <c r="I17">
-        <v>3.339175012911947</v>
+        <v>3.307465295864108</v>
       </c>
       <c r="J17">
-        <v>10.99232932477647</v>
+        <v>10.64125320485306</v>
       </c>
       <c r="K17">
-        <v>19.01450184097213</v>
+        <v>17.2052248025261</v>
       </c>
       <c r="L17">
-        <v>5.801168135928653</v>
+        <v>14.05788521154293</v>
       </c>
       <c r="M17">
-        <v>21.59453941078133</v>
+        <v>11.77840432302239</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.77493313124021</v>
       </c>
       <c r="O17">
-        <v>15.10459835192275</v>
+        <v>20.92765339350072</v>
       </c>
       <c r="P17">
-        <v>12.7138156283504</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.82567660498106</v>
+      </c>
+      <c r="R17">
+        <v>12.91240546002641</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.275609295465156</v>
+        <v>2.283993838621077</v>
       </c>
       <c r="D18">
-        <v>4.602021670422863</v>
+        <v>4.933000171697236</v>
       </c>
       <c r="E18">
-        <v>7.097874259611555</v>
+        <v>7.158412911239623</v>
       </c>
       <c r="F18">
-        <v>26.90406440720107</v>
+        <v>25.23446210474942</v>
       </c>
       <c r="G18">
-        <v>34.55832429856022</v>
+        <v>31.22776043826698</v>
       </c>
       <c r="H18">
-        <v>4.535346084247808</v>
+        <v>4.553154191547678</v>
       </c>
       <c r="I18">
-        <v>3.312316585349152</v>
+        <v>3.283998438238419</v>
       </c>
       <c r="J18">
-        <v>11.25292208731139</v>
+        <v>10.94871749750636</v>
       </c>
       <c r="K18">
-        <v>19.50441017703388</v>
+        <v>17.65240617867688</v>
       </c>
       <c r="L18">
-        <v>5.809671074754032</v>
+        <v>14.41964848394553</v>
       </c>
       <c r="M18">
-        <v>21.5515099083968</v>
+        <v>12.07908351689954</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.784351002704429</v>
       </c>
       <c r="O18">
-        <v>15.68067317667094</v>
+        <v>20.88387726318578</v>
       </c>
       <c r="P18">
-        <v>12.64684146329068</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.39891991572247</v>
+      </c>
+      <c r="R18">
+        <v>12.81725425743209</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.051616069214067</v>
+        <v>1.993859144271357</v>
       </c>
       <c r="D19">
-        <v>4.981560593943842</v>
+        <v>5.355705211701337</v>
       </c>
       <c r="E19">
-        <v>7.72606558065943</v>
+        <v>7.845514139614281</v>
       </c>
       <c r="F19">
-        <v>28.25683406841494</v>
+        <v>26.48637082350162</v>
       </c>
       <c r="G19">
-        <v>36.27893931344845</v>
+        <v>32.74525406449354</v>
       </c>
       <c r="H19">
-        <v>3.034885858035467</v>
+        <v>3.062091922844949</v>
       </c>
       <c r="I19">
-        <v>3.333461523460127</v>
+        <v>3.301825485222914</v>
       </c>
       <c r="J19">
-        <v>11.59412808965417</v>
+        <v>11.26542955910418</v>
       </c>
       <c r="K19">
-        <v>20.1772713241333</v>
+        <v>18.21961431348936</v>
       </c>
       <c r="L19">
-        <v>5.965059191390901</v>
+        <v>14.84214710849088</v>
       </c>
       <c r="M19">
-        <v>21.73363173536207</v>
+        <v>12.51417476125352</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.938054506181019</v>
       </c>
       <c r="O19">
-        <v>16.55077083590718</v>
+        <v>21.03753070326348</v>
       </c>
       <c r="P19">
-        <v>12.55818447201277</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.25498322393589</v>
+      </c>
+      <c r="R19">
+        <v>12.70516922229531</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.868531575422419</v>
+        <v>1.725787244097607</v>
       </c>
       <c r="D20">
-        <v>5.654206650268798</v>
+        <v>6.111319839356461</v>
       </c>
       <c r="E20">
-        <v>9.159789170295788</v>
+        <v>9.351635776414275</v>
       </c>
       <c r="F20">
-        <v>30.65028224914047</v>
+        <v>28.58919046496781</v>
       </c>
       <c r="G20">
-        <v>39.42549353860315</v>
+        <v>35.72575565759625</v>
       </c>
       <c r="H20">
-        <v>1.75411307443383</v>
+        <v>1.688763320719235</v>
       </c>
       <c r="I20">
-        <v>3.47863998623473</v>
+        <v>3.420380022789556</v>
       </c>
       <c r="J20">
-        <v>12.18137850128471</v>
+        <v>11.62591791467492</v>
       </c>
       <c r="K20">
-        <v>21.43118380159276</v>
+        <v>19.19197827018737</v>
       </c>
       <c r="L20">
-        <v>6.47857179671648</v>
+        <v>15.47076399533659</v>
       </c>
       <c r="M20">
-        <v>22.56751179847706</v>
+        <v>13.38919772861849</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.442716860502223</v>
       </c>
       <c r="O20">
-        <v>18.18762210518588</v>
+        <v>21.7694689223107</v>
       </c>
       <c r="P20">
-        <v>12.39002446434342</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.84741350409127</v>
+      </c>
+      <c r="R20">
+        <v>12.52087807383278</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.132606413685626</v>
+        <v>1.981713704127828</v>
       </c>
       <c r="D21">
-        <v>5.914281506414358</v>
+        <v>6.50045507218102</v>
       </c>
       <c r="E21">
-        <v>9.590932186707386</v>
+        <v>9.826161245452692</v>
       </c>
       <c r="F21">
-        <v>31.87507505385949</v>
+        <v>29.19790345935213</v>
       </c>
       <c r="G21">
-        <v>41.25551505847082</v>
+        <v>38.78710161756227</v>
       </c>
       <c r="H21">
-        <v>2.068673269156394</v>
+        <v>1.964074141870021</v>
       </c>
       <c r="I21">
-        <v>3.753686209066138</v>
+        <v>3.637266709234452</v>
       </c>
       <c r="J21">
-        <v>12.44682518649649</v>
+        <v>10.80954763118653</v>
       </c>
       <c r="K21">
-        <v>22.19226001721545</v>
+        <v>19.45432759282665</v>
       </c>
       <c r="L21">
-        <v>6.651154276128329</v>
+        <v>15.40885504313234</v>
       </c>
       <c r="M21">
-        <v>23.97595582668731</v>
+        <v>13.93274802474921</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.594320714064623</v>
       </c>
       <c r="O21">
-        <v>19.23552240028078</v>
+        <v>22.93775337857892</v>
       </c>
       <c r="P21">
-        <v>12.1999419222847</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.79516246825615</v>
+      </c>
+      <c r="R21">
+        <v>12.40843608205569</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.345338721364318</v>
+        <v>2.18807050056728</v>
       </c>
       <c r="D22">
-        <v>6.043910098977746</v>
+        <v>6.715896928908265</v>
       </c>
       <c r="E22">
-        <v>9.792061480012999</v>
+        <v>10.05587939220398</v>
       </c>
       <c r="F22">
-        <v>32.60442385196698</v>
+        <v>29.5132369569229</v>
       </c>
       <c r="G22">
-        <v>42.37391372487293</v>
+        <v>40.80677599544209</v>
       </c>
       <c r="H22">
-        <v>2.265814954784013</v>
+        <v>2.136149592370607</v>
       </c>
       <c r="I22">
-        <v>3.92585459975479</v>
+        <v>3.770941134592405</v>
       </c>
       <c r="J22">
-        <v>12.61068440165541</v>
+        <v>10.24143625264856</v>
       </c>
       <c r="K22">
-        <v>22.67314906227171</v>
+        <v>19.60197045716985</v>
       </c>
       <c r="L22">
-        <v>6.734002990409846</v>
+        <v>15.3515377805248</v>
       </c>
       <c r="M22">
-        <v>24.85075025739306</v>
+        <v>14.27055385997097</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.663805128176891</v>
       </c>
       <c r="O22">
-        <v>19.83958855443323</v>
+        <v>23.65530514786572</v>
       </c>
       <c r="P22">
-        <v>12.0795440860244</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.33266115797544</v>
+      </c>
+      <c r="R22">
+        <v>12.34611867021104</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.269154484158213</v>
+        <v>2.09418378728297</v>
       </c>
       <c r="D23">
-        <v>5.967730637161619</v>
+        <v>6.583473057042569</v>
       </c>
       <c r="E23">
-        <v>9.682257224244688</v>
+        <v>9.925850244179905</v>
       </c>
       <c r="F23">
-        <v>32.25037066206004</v>
+        <v>29.42229338178926</v>
       </c>
       <c r="G23">
-        <v>41.84127762846356</v>
+        <v>39.61179899399065</v>
       </c>
       <c r="H23">
-        <v>2.162298542696611</v>
+        <v>2.046969632351424</v>
       </c>
       <c r="I23">
-        <v>3.832696371980332</v>
+        <v>3.697936823923938</v>
       </c>
       <c r="J23">
-        <v>12.53589343221792</v>
+        <v>10.65899754149616</v>
       </c>
       <c r="K23">
-        <v>22.45460347229143</v>
+        <v>19.58843559590651</v>
       </c>
       <c r="L23">
-        <v>6.690668024093557</v>
+        <v>15.42802986760972</v>
       </c>
       <c r="M23">
-        <v>24.40071433734805</v>
+        <v>14.1425887030366</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.628078069471171</v>
       </c>
       <c r="O23">
-        <v>19.5248985982401</v>
+        <v>23.3047717346158</v>
       </c>
       <c r="P23">
-        <v>12.14164245143866</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.06039026884415</v>
+      </c>
+      <c r="R23">
+        <v>12.3715736330827</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.905486232044184</v>
+        <v>1.74473488840444</v>
       </c>
       <c r="D24">
-        <v>5.684951837100097</v>
+        <v>6.144956776146524</v>
       </c>
       <c r="E24">
-        <v>9.261838888565736</v>
+        <v>9.457566011054167</v>
       </c>
       <c r="F24">
-        <v>30.84037808250505</v>
+        <v>28.76952951235454</v>
       </c>
       <c r="G24">
-        <v>39.69402597254579</v>
+        <v>35.96051820907724</v>
       </c>
       <c r="H24">
-        <v>1.760719102256001</v>
+        <v>1.694641497253828</v>
       </c>
       <c r="I24">
-        <v>3.475991984598355</v>
+        <v>3.415187189485731</v>
       </c>
       <c r="J24">
-        <v>12.23665772923349</v>
+        <v>11.68336005855238</v>
       </c>
       <c r="K24">
-        <v>21.55723728422309</v>
+        <v>19.30535186391663</v>
       </c>
       <c r="L24">
-        <v>6.52239274476322</v>
+        <v>15.55673064528812</v>
       </c>
       <c r="M24">
-        <v>22.59582121303144</v>
+        <v>13.47422309470482</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.486442275694166</v>
       </c>
       <c r="O24">
-        <v>18.27854896682201</v>
+        <v>21.79521445699606</v>
       </c>
       <c r="P24">
-        <v>12.3830775780389</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.93706002477057</v>
+      </c>
+      <c r="R24">
+        <v>12.5087438117249</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.475177225115194</v>
+        <v>1.60313426789414</v>
       </c>
       <c r="D25">
-        <v>5.367981896503805</v>
+        <v>5.77188253694913</v>
       </c>
       <c r="E25">
-        <v>8.789137023491623</v>
+        <v>8.984392190865121</v>
       </c>
       <c r="F25">
-        <v>29.2959395394262</v>
+        <v>27.55598654274337</v>
       </c>
       <c r="G25">
-        <v>37.32336502840305</v>
+        <v>33.95147453415392</v>
       </c>
       <c r="H25">
-        <v>1.816420418655726</v>
+        <v>1.844138039230959</v>
       </c>
       <c r="I25">
-        <v>3.078360369845263</v>
+        <v>3.08410894109404</v>
       </c>
       <c r="J25">
-        <v>11.92468053613825</v>
+        <v>11.53786365292965</v>
       </c>
       <c r="K25">
-        <v>20.57366009902338</v>
+        <v>18.65215385290361</v>
       </c>
       <c r="L25">
-        <v>6.334474286311627</v>
+        <v>15.44137802457261</v>
       </c>
       <c r="M25">
-        <v>20.4772107645965</v>
+        <v>12.49109332880154</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.320307601405983</v>
       </c>
       <c r="O25">
-        <v>16.83875350557501</v>
+        <v>19.81693336874634</v>
       </c>
       <c r="P25">
-        <v>12.64959196190757</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>16.55067178492259</v>
+      </c>
+      <c r="R25">
+        <v>12.71097651952604</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
